--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8340,16 +8340,16 @@
         <v>45061</v>
       </c>
       <c r="B462" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C462" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D462">
-        <v>6098</v>
+        <v>333</v>
       </c>
       <c r="E462">
-        <v>7.326058021898978</v>
+        <v>11.39628440060849</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8357,16 +8357,16 @@
         <v>45061</v>
       </c>
       <c r="B463" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C463" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D463">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="E463">
-        <v>11.39628440060849</v>
+        <v>12.29816579329912</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8374,16 +8374,16 @@
         <v>45061</v>
       </c>
       <c r="B464" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C464" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D464">
-        <v>333</v>
+        <v>718</v>
       </c>
       <c r="E464">
-        <v>11.39628440060849</v>
+        <v>8.944776717568427</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8391,16 +8391,16 @@
         <v>45061</v>
       </c>
       <c r="B465" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C465" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D465">
-        <v>228</v>
+        <v>57</v>
       </c>
       <c r="E465">
-        <v>12.29816579329912</v>
+        <v>8.426181476296561</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8408,16 +8408,16 @@
         <v>45061</v>
       </c>
       <c r="B466" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C466" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D466">
-        <v>228</v>
+        <v>1168</v>
       </c>
       <c r="E466">
-        <v>12.29816579329912</v>
+        <v>6.516187733377012</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8425,16 +8425,16 @@
         <v>45061</v>
       </c>
       <c r="B467" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C467" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D467">
-        <v>718</v>
+        <v>437</v>
       </c>
       <c r="E467">
-        <v>8.944776717568427</v>
+        <v>6.94199872692957</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8442,16 +8442,16 @@
         <v>45061</v>
       </c>
       <c r="B468" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C468" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D468">
-        <v>718</v>
+        <v>249</v>
       </c>
       <c r="E468">
-        <v>8.944776717568427</v>
+        <v>6.063579922975489</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8459,16 +8459,16 @@
         <v>45061</v>
       </c>
       <c r="B469" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C469" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D469">
-        <v>57</v>
+        <v>469</v>
       </c>
       <c r="E469">
-        <v>8.426181476296561</v>
+        <v>4.215866002699233</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8476,16 +8476,16 @@
         <v>45061</v>
       </c>
       <c r="B470" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C470" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D470">
-        <v>57</v>
+        <v>792</v>
       </c>
       <c r="E470">
-        <v>8.426181476296561</v>
+        <v>6.010477810977911</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8493,16 +8493,16 @@
         <v>45061</v>
       </c>
       <c r="B471" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C471" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D471">
-        <v>1168</v>
+        <v>94</v>
       </c>
       <c r="E471">
-        <v>6.516187733377012</v>
+        <v>9.568910406495458</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8510,16 +8510,16 @@
         <v>45061</v>
       </c>
       <c r="B472" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C472" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D472">
-        <v>1168</v>
+        <v>394</v>
       </c>
       <c r="E472">
-        <v>6.516187733377012</v>
+        <v>10.71388171004429</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8527,16 +8527,16 @@
         <v>45061</v>
       </c>
       <c r="B473" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C473" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D473">
-        <v>437</v>
+        <v>250</v>
       </c>
       <c r="E473">
-        <v>6.94199872692957</v>
+        <v>9.850788141857654</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8544,16 +8544,16 @@
         <v>45061</v>
       </c>
       <c r="B474" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C474" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D474">
-        <v>437</v>
+        <v>220</v>
       </c>
       <c r="E474">
-        <v>6.94199872692957</v>
+        <v>13.65475806251396</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8561,16 +8561,16 @@
         <v>45061</v>
       </c>
       <c r="B475" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C475" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D475">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="E475">
-        <v>6.063579922975489</v>
+        <v>6.900812811866035</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8578,16 +8578,16 @@
         <v>45061</v>
       </c>
       <c r="B476" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C476" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D476">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E476">
-        <v>6.063579922975489</v>
+        <v>11.20201285880439</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8595,305 +8595,594 @@
         <v>45061</v>
       </c>
       <c r="B477" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C477" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D477">
-        <v>469</v>
+        <v>167</v>
       </c>
       <c r="E477">
-        <v>4.215866002699233</v>
+        <v>7.918959173734851</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B478" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C478" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D478">
-        <v>469</v>
+        <v>5486</v>
       </c>
       <c r="E478">
-        <v>4.215866002699233</v>
+        <v>6.590809168274483</v>
       </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B479" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C479" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D479">
-        <v>792</v>
+        <v>5486</v>
       </c>
       <c r="E479">
-        <v>6.010477810977911</v>
+        <v>6.590809168274483</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B480" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C480" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D480">
-        <v>792</v>
+        <v>344</v>
       </c>
       <c r="E480">
-        <v>6.01047781097791</v>
+        <v>11.77273823966763</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B481" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C481" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D481">
-        <v>94</v>
+        <v>344</v>
       </c>
       <c r="E481">
-        <v>9.568910406495458</v>
+        <v>11.77273823966763</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B482" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C482" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D482">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="E482">
-        <v>9.568910406495458</v>
+        <v>10.6799860836545</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B483" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C483" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D483">
-        <v>394</v>
+        <v>198</v>
       </c>
       <c r="E483">
-        <v>10.71388171004429</v>
+        <v>10.6799860836545</v>
       </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B484" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C484" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D484">
-        <v>394</v>
+        <v>638</v>
       </c>
       <c r="E484">
-        <v>10.71388171004429</v>
+        <v>7.948144214218185</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B485" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C485" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D485">
-        <v>250</v>
+        <v>638</v>
       </c>
       <c r="E485">
-        <v>9.850788141857654</v>
+        <v>7.948144214218185</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B486" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C486" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D486">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E486">
-        <v>9.850788141857654</v>
+        <v>3.695693629954632</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B487" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C487" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D487">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="E487">
-        <v>13.65475806251396</v>
+        <v>3.695693629954631</v>
       </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B488" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C488" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D488">
-        <v>220</v>
+        <v>1025</v>
       </c>
       <c r="E488">
-        <v>13.65475806251396</v>
+        <v>5.718401050266642</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B489" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C489" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D489">
-        <v>279</v>
+        <v>1025</v>
       </c>
       <c r="E489">
-        <v>6.900812811866035</v>
+        <v>5.718401050266642</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B490" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C490" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D490">
-        <v>279</v>
+        <v>386</v>
       </c>
       <c r="E490">
-        <v>6.900812811866035</v>
+        <v>6.131834115777606</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B491" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C491" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D491">
-        <v>243</v>
+        <v>386</v>
       </c>
       <c r="E491">
-        <v>11.20201285880439</v>
+        <v>6.131834115777606</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B492" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C492" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D492">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="E492">
-        <v>11.20201285880439</v>
+        <v>4.626828053676076</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B493" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C493" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D493">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="E493">
-        <v>7.918959173734851</v>
+        <v>4.626828053676076</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="2">
-        <v>45061</v>
+        <v>45062</v>
       </c>
       <c r="B494" t="s">
+        <v>13</v>
+      </c>
+      <c r="C494" t="s">
+        <v>30</v>
+      </c>
+      <c r="D494">
+        <v>431</v>
+      </c>
+      <c r="E494">
+        <v>3.874281976894178</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B495" t="s">
+        <v>13</v>
+      </c>
+      <c r="C495" t="s">
+        <v>30</v>
+      </c>
+      <c r="D495">
+        <v>431</v>
+      </c>
+      <c r="E495">
+        <v>3.874281976894178</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B496" t="s">
+        <v>14</v>
+      </c>
+      <c r="C496" t="s">
+        <v>31</v>
+      </c>
+      <c r="D496">
+        <v>690</v>
+      </c>
+      <c r="E496">
+        <v>5.236401123200452</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B497" t="s">
+        <v>14</v>
+      </c>
+      <c r="C497" t="s">
+        <v>31</v>
+      </c>
+      <c r="D497">
+        <v>690</v>
+      </c>
+      <c r="E497">
+        <v>5.236401123200451</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B498" t="s">
+        <v>15</v>
+      </c>
+      <c r="C498" t="s">
+        <v>32</v>
+      </c>
+      <c r="D498">
+        <v>88</v>
+      </c>
+      <c r="E498">
+        <v>8.958128891187236</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B499" t="s">
+        <v>15</v>
+      </c>
+      <c r="C499" t="s">
+        <v>32</v>
+      </c>
+      <c r="D499">
+        <v>88</v>
+      </c>
+      <c r="E499">
+        <v>8.958128891187236</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B500" t="s">
+        <v>16</v>
+      </c>
+      <c r="C500" t="s">
+        <v>33</v>
+      </c>
+      <c r="D500">
+        <v>373</v>
+      </c>
+      <c r="E500">
+        <v>10.14283725341756</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B501" t="s">
+        <v>16</v>
+      </c>
+      <c r="C501" t="s">
+        <v>33</v>
+      </c>
+      <c r="D501">
+        <v>373</v>
+      </c>
+      <c r="E501">
+        <v>10.14283725341756</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B502" t="s">
+        <v>17</v>
+      </c>
+      <c r="C502" t="s">
+        <v>34</v>
+      </c>
+      <c r="D502">
+        <v>249</v>
+      </c>
+      <c r="E502">
+        <v>9.811384989290223</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B503" t="s">
+        <v>17</v>
+      </c>
+      <c r="C503" t="s">
+        <v>34</v>
+      </c>
+      <c r="D503">
+        <v>249</v>
+      </c>
+      <c r="E503">
+        <v>9.811384989290223</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B504" t="s">
+        <v>18</v>
+      </c>
+      <c r="C504" t="s">
+        <v>35</v>
+      </c>
+      <c r="D504">
+        <v>223</v>
+      </c>
+      <c r="E504">
+        <v>13.84095930882097</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B505" t="s">
+        <v>18</v>
+      </c>
+      <c r="C505" t="s">
+        <v>35</v>
+      </c>
+      <c r="D505">
+        <v>223</v>
+      </c>
+      <c r="E505">
+        <v>13.84095930882097</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B506" t="s">
+        <v>19</v>
+      </c>
+      <c r="C506" t="s">
+        <v>36</v>
+      </c>
+      <c r="D506">
+        <v>236</v>
+      </c>
+      <c r="E506">
+        <v>5.837246679571269</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B507" t="s">
+        <v>19</v>
+      </c>
+      <c r="C507" t="s">
+        <v>36</v>
+      </c>
+      <c r="D507">
+        <v>236</v>
+      </c>
+      <c r="E507">
+        <v>5.837246679571269</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B508" t="s">
+        <v>20</v>
+      </c>
+      <c r="C508" t="s">
+        <v>37</v>
+      </c>
+      <c r="D508">
+        <v>253</v>
+      </c>
+      <c r="E508">
+        <v>11.66300104229428</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B509" t="s">
+        <v>20</v>
+      </c>
+      <c r="C509" t="s">
+        <v>37</v>
+      </c>
+      <c r="D509">
+        <v>253</v>
+      </c>
+      <c r="E509">
+        <v>11.66300104229428</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B510" t="s">
         <v>21</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C510" t="s">
         <v>38</v>
       </c>
-      <c r="D494">
-        <v>167</v>
-      </c>
-      <c r="E494">
-        <v>7.918959173734851</v>
+      <c r="D510">
+        <v>137</v>
+      </c>
+      <c r="E510">
+        <v>6.496391657495058</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B511" t="s">
+        <v>21</v>
+      </c>
+      <c r="C511" t="s">
+        <v>38</v>
+      </c>
+      <c r="D511">
+        <v>137</v>
+      </c>
+      <c r="E511">
+        <v>6.496391657495058</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E511"/>
+  <dimension ref="A1:E528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8774,7 +8774,7 @@
         <v>25</v>
       </c>
       <c r="E487">
-        <v>3.695693629954631</v>
+        <v>3.695693629954632</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8944,7 +8944,7 @@
         <v>690</v>
       </c>
       <c r="E497">
-        <v>5.236401123200451</v>
+        <v>5.236401123200452</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -9183,6 +9183,295 @@
       </c>
       <c r="E511">
         <v>6.496391657495058</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B512" t="s">
+        <v>5</v>
+      </c>
+      <c r="C512" t="s">
+        <v>22</v>
+      </c>
+      <c r="D512">
+        <v>5185</v>
+      </c>
+      <c r="E512">
+        <v>6.229191676540867</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B513" t="s">
+        <v>6</v>
+      </c>
+      <c r="C513" t="s">
+        <v>23</v>
+      </c>
+      <c r="D513">
+        <v>292</v>
+      </c>
+      <c r="E513">
+        <v>9.993138273206242</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B514" t="s">
+        <v>7</v>
+      </c>
+      <c r="C514" t="s">
+        <v>24</v>
+      </c>
+      <c r="D514">
+        <v>192</v>
+      </c>
+      <c r="E514">
+        <v>10.35635014172557</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B515" t="s">
+        <v>8</v>
+      </c>
+      <c r="C515" t="s">
+        <v>25</v>
+      </c>
+      <c r="D515">
+        <v>638</v>
+      </c>
+      <c r="E515">
+        <v>7.948144214218185</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B516" t="s">
+        <v>9</v>
+      </c>
+      <c r="C516" t="s">
+        <v>26</v>
+      </c>
+      <c r="D516">
+        <v>19</v>
+      </c>
+      <c r="E516">
+        <v>2.80872715876552</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B517" t="s">
+        <v>10</v>
+      </c>
+      <c r="C517" t="s">
+        <v>27</v>
+      </c>
+      <c r="D517">
+        <v>904</v>
+      </c>
+      <c r="E517">
+        <v>5.043350779942482</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B518" t="s">
+        <v>11</v>
+      </c>
+      <c r="C518" t="s">
+        <v>28</v>
+      </c>
+      <c r="D518">
+        <v>361</v>
+      </c>
+      <c r="E518">
+        <v>5.734694600507035</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B519" t="s">
+        <v>12</v>
+      </c>
+      <c r="C519" t="s">
+        <v>29</v>
+      </c>
+      <c r="D519">
+        <v>184</v>
+      </c>
+      <c r="E519">
+        <v>4.480717694086305</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B520" t="s">
+        <v>13</v>
+      </c>
+      <c r="C520" t="s">
+        <v>30</v>
+      </c>
+      <c r="D520">
+        <v>406</v>
+      </c>
+      <c r="E520">
+        <v>3.649555644127694</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B521" t="s">
+        <v>14</v>
+      </c>
+      <c r="C521" t="s">
+        <v>31</v>
+      </c>
+      <c r="D521">
+        <v>679</v>
+      </c>
+      <c r="E521">
+        <v>5.152922264714648</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B522" t="s">
+        <v>15</v>
+      </c>
+      <c r="C522" t="s">
+        <v>32</v>
+      </c>
+      <c r="D522">
+        <v>85</v>
+      </c>
+      <c r="E522">
+        <v>8.652738133533127</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B523" t="s">
+        <v>16</v>
+      </c>
+      <c r="C523" t="s">
+        <v>33</v>
+      </c>
+      <c r="D523">
+        <v>346</v>
+      </c>
+      <c r="E523">
+        <v>9.408637237754631</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B524" t="s">
+        <v>17</v>
+      </c>
+      <c r="C524" t="s">
+        <v>34</v>
+      </c>
+      <c r="D524">
+        <v>210</v>
+      </c>
+      <c r="E524">
+        <v>8.274662039160429</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B525" t="s">
+        <v>18</v>
+      </c>
+      <c r="C525" t="s">
+        <v>35</v>
+      </c>
+      <c r="D525">
+        <v>224</v>
+      </c>
+      <c r="E525">
+        <v>13.90302639092331</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B526" t="s">
+        <v>19</v>
+      </c>
+      <c r="C526" t="s">
+        <v>36</v>
+      </c>
+      <c r="D526">
+        <v>263</v>
+      </c>
+      <c r="E526">
+        <v>6.505067274267982</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B527" t="s">
+        <v>20</v>
+      </c>
+      <c r="C527" t="s">
+        <v>37</v>
+      </c>
+      <c r="D527">
+        <v>239</v>
+      </c>
+      <c r="E527">
+        <v>11.01761758540843</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B528" t="s">
+        <v>21</v>
+      </c>
+      <c r="C528" t="s">
+        <v>38</v>
+      </c>
+      <c r="D528">
+        <v>143</v>
+      </c>
+      <c r="E528">
+        <v>6.780905160743016</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E528"/>
+  <dimension ref="A1:E511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8629,16 +8629,16 @@
         <v>45062</v>
       </c>
       <c r="B479" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C479" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D479">
-        <v>5486</v>
+        <v>344</v>
       </c>
       <c r="E479">
-        <v>6.590809168274483</v>
+        <v>11.77273823966763</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8646,16 +8646,16 @@
         <v>45062</v>
       </c>
       <c r="B480" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C480" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D480">
-        <v>344</v>
+        <v>198</v>
       </c>
       <c r="E480">
-        <v>11.77273823966763</v>
+        <v>10.6799860836545</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8663,16 +8663,16 @@
         <v>45062</v>
       </c>
       <c r="B481" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C481" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D481">
-        <v>344</v>
+        <v>638</v>
       </c>
       <c r="E481">
-        <v>11.77273823966763</v>
+        <v>7.948144214218185</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8680,16 +8680,16 @@
         <v>45062</v>
       </c>
       <c r="B482" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C482" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D482">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="E482">
-        <v>10.6799860836545</v>
+        <v>3.695693629954631</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8697,16 +8697,16 @@
         <v>45062</v>
       </c>
       <c r="B483" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C483" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D483">
-        <v>198</v>
+        <v>1025</v>
       </c>
       <c r="E483">
-        <v>10.6799860836545</v>
+        <v>5.718401050266642</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8714,16 +8714,16 @@
         <v>45062</v>
       </c>
       <c r="B484" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C484" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D484">
-        <v>638</v>
+        <v>386</v>
       </c>
       <c r="E484">
-        <v>7.948144214218185</v>
+        <v>6.131834115777606</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8731,16 +8731,16 @@
         <v>45062</v>
       </c>
       <c r="B485" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C485" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D485">
-        <v>638</v>
+        <v>190</v>
       </c>
       <c r="E485">
-        <v>7.948144214218185</v>
+        <v>4.626828053676076</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8748,16 +8748,16 @@
         <v>45062</v>
       </c>
       <c r="B486" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C486" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D486">
-        <v>25</v>
+        <v>431</v>
       </c>
       <c r="E486">
-        <v>3.695693629954632</v>
+        <v>3.874281976894178</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8765,16 +8765,16 @@
         <v>45062</v>
       </c>
       <c r="B487" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C487" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D487">
-        <v>25</v>
+        <v>690</v>
       </c>
       <c r="E487">
-        <v>3.695693629954632</v>
+        <v>5.236401123200451</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8782,16 +8782,16 @@
         <v>45062</v>
       </c>
       <c r="B488" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C488" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D488">
-        <v>1025</v>
+        <v>88</v>
       </c>
       <c r="E488">
-        <v>5.718401050266642</v>
+        <v>8.958128891187236</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8799,16 +8799,16 @@
         <v>45062</v>
       </c>
       <c r="B489" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C489" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D489">
-        <v>1025</v>
+        <v>373</v>
       </c>
       <c r="E489">
-        <v>5.718401050266642</v>
+        <v>10.14283725341756</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8816,16 +8816,16 @@
         <v>45062</v>
       </c>
       <c r="B490" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C490" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D490">
-        <v>386</v>
+        <v>249</v>
       </c>
       <c r="E490">
-        <v>6.131834115777606</v>
+        <v>9.811384989290223</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8833,16 +8833,16 @@
         <v>45062</v>
       </c>
       <c r="B491" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C491" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D491">
-        <v>386</v>
+        <v>223</v>
       </c>
       <c r="E491">
-        <v>6.131834115777606</v>
+        <v>13.84095930882097</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8850,16 +8850,16 @@
         <v>45062</v>
       </c>
       <c r="B492" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C492" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D492">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="E492">
-        <v>4.626828053676076</v>
+        <v>5.837246679571269</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8867,16 +8867,16 @@
         <v>45062</v>
       </c>
       <c r="B493" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C493" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D493">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="E493">
-        <v>4.626828053676076</v>
+        <v>11.66300104229428</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8884,293 +8884,293 @@
         <v>45062</v>
       </c>
       <c r="B494" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C494" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D494">
-        <v>431</v>
+        <v>137</v>
       </c>
       <c r="E494">
-        <v>3.874281976894178</v>
+        <v>6.496391657495058</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B495" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C495" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D495">
-        <v>431</v>
+        <v>5185</v>
       </c>
       <c r="E495">
-        <v>3.874281976894178</v>
+        <v>6.229191676540867</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B496" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C496" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D496">
-        <v>690</v>
+        <v>292</v>
       </c>
       <c r="E496">
-        <v>5.236401123200452</v>
+        <v>9.993138273206242</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B497" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C497" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D497">
-        <v>690</v>
+        <v>192</v>
       </c>
       <c r="E497">
-        <v>5.236401123200452</v>
+        <v>10.35635014172557</v>
       </c>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B498" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C498" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D498">
-        <v>88</v>
+        <v>638</v>
       </c>
       <c r="E498">
-        <v>8.958128891187236</v>
+        <v>7.948144214218185</v>
       </c>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B499" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C499" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D499">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E499">
-        <v>8.958128891187236</v>
+        <v>2.80872715876552</v>
       </c>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B500" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C500" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D500">
-        <v>373</v>
+        <v>904</v>
       </c>
       <c r="E500">
-        <v>10.14283725341756</v>
+        <v>5.043350779942482</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B501" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C501" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D501">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="E501">
-        <v>10.14283725341756</v>
+        <v>5.734694600507035</v>
       </c>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B502" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C502" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D502">
-        <v>249</v>
+        <v>184</v>
       </c>
       <c r="E502">
-        <v>9.811384989290223</v>
+        <v>4.480717694086305</v>
       </c>
     </row>
     <row r="503" spans="1:5">
       <c r="A503" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B503" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C503" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D503">
-        <v>249</v>
+        <v>406</v>
       </c>
       <c r="E503">
-        <v>9.811384989290223</v>
+        <v>3.649555644127694</v>
       </c>
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B504" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C504" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D504">
-        <v>223</v>
+        <v>679</v>
       </c>
       <c r="E504">
-        <v>13.84095930882097</v>
+        <v>5.152922264714648</v>
       </c>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B505" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C505" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D505">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="E505">
-        <v>13.84095930882097</v>
+        <v>8.652738133533127</v>
       </c>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B506" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C506" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D506">
-        <v>236</v>
+        <v>346</v>
       </c>
       <c r="E506">
-        <v>5.837246679571269</v>
+        <v>9.408637237754631</v>
       </c>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B507" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C507" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D507">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E507">
-        <v>5.837246679571269</v>
+        <v>8.274662039160429</v>
       </c>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B508" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C508" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D508">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="E508">
-        <v>11.66300104229428</v>
+        <v>13.90302639092331</v>
       </c>
     </row>
     <row r="509" spans="1:5">
       <c r="A509" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B509" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C509" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D509">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E509">
-        <v>11.66300104229428</v>
+        <v>6.505067274267982</v>
       </c>
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B510" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C510" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D510">
-        <v>137</v>
+        <v>239</v>
       </c>
       <c r="E510">
-        <v>6.496391657495058</v>
+        <v>11.01761758540843</v>
       </c>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="2">
-        <v>45062</v>
+        <v>45063</v>
       </c>
       <c r="B511" t="s">
         <v>21</v>
@@ -9179,298 +9179,9 @@
         <v>38</v>
       </c>
       <c r="D511">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E511">
-        <v>6.496391657495058</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
-      <c r="A512" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B512" t="s">
-        <v>5</v>
-      </c>
-      <c r="C512" t="s">
-        <v>22</v>
-      </c>
-      <c r="D512">
-        <v>5185</v>
-      </c>
-      <c r="E512">
-        <v>6.229191676540867</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
-      <c r="A513" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B513" t="s">
-        <v>6</v>
-      </c>
-      <c r="C513" t="s">
-        <v>23</v>
-      </c>
-      <c r="D513">
-        <v>292</v>
-      </c>
-      <c r="E513">
-        <v>9.993138273206242</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
-      <c r="A514" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B514" t="s">
-        <v>7</v>
-      </c>
-      <c r="C514" t="s">
-        <v>24</v>
-      </c>
-      <c r="D514">
-        <v>192</v>
-      </c>
-      <c r="E514">
-        <v>10.35635014172557</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
-      <c r="A515" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B515" t="s">
-        <v>8</v>
-      </c>
-      <c r="C515" t="s">
-        <v>25</v>
-      </c>
-      <c r="D515">
-        <v>638</v>
-      </c>
-      <c r="E515">
-        <v>7.948144214218185</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
-      <c r="A516" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B516" t="s">
-        <v>9</v>
-      </c>
-      <c r="C516" t="s">
-        <v>26</v>
-      </c>
-      <c r="D516">
-        <v>19</v>
-      </c>
-      <c r="E516">
-        <v>2.80872715876552</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B517" t="s">
-        <v>10</v>
-      </c>
-      <c r="C517" t="s">
-        <v>27</v>
-      </c>
-      <c r="D517">
-        <v>904</v>
-      </c>
-      <c r="E517">
-        <v>5.043350779942482</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
-      <c r="A518" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B518" t="s">
-        <v>11</v>
-      </c>
-      <c r="C518" t="s">
-        <v>28</v>
-      </c>
-      <c r="D518">
-        <v>361</v>
-      </c>
-      <c r="E518">
-        <v>5.734694600507035</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
-      <c r="A519" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B519" t="s">
-        <v>12</v>
-      </c>
-      <c r="C519" t="s">
-        <v>29</v>
-      </c>
-      <c r="D519">
-        <v>184</v>
-      </c>
-      <c r="E519">
-        <v>4.480717694086305</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
-      <c r="A520" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B520" t="s">
-        <v>13</v>
-      </c>
-      <c r="C520" t="s">
-        <v>30</v>
-      </c>
-      <c r="D520">
-        <v>406</v>
-      </c>
-      <c r="E520">
-        <v>3.649555644127694</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
-      <c r="A521" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B521" t="s">
-        <v>14</v>
-      </c>
-      <c r="C521" t="s">
-        <v>31</v>
-      </c>
-      <c r="D521">
-        <v>679</v>
-      </c>
-      <c r="E521">
-        <v>5.152922264714648</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
-      <c r="A522" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B522" t="s">
-        <v>15</v>
-      </c>
-      <c r="C522" t="s">
-        <v>32</v>
-      </c>
-      <c r="D522">
-        <v>85</v>
-      </c>
-      <c r="E522">
-        <v>8.652738133533127</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
-      <c r="A523" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B523" t="s">
-        <v>16</v>
-      </c>
-      <c r="C523" t="s">
-        <v>33</v>
-      </c>
-      <c r="D523">
-        <v>346</v>
-      </c>
-      <c r="E523">
-        <v>9.408637237754631</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
-      <c r="A524" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B524" t="s">
-        <v>17</v>
-      </c>
-      <c r="C524" t="s">
-        <v>34</v>
-      </c>
-      <c r="D524">
-        <v>210</v>
-      </c>
-      <c r="E524">
-        <v>8.274662039160429</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5">
-      <c r="A525" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B525" t="s">
-        <v>18</v>
-      </c>
-      <c r="C525" t="s">
-        <v>35</v>
-      </c>
-      <c r="D525">
-        <v>224</v>
-      </c>
-      <c r="E525">
-        <v>13.90302639092331</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5">
-      <c r="A526" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B526" t="s">
-        <v>19</v>
-      </c>
-      <c r="C526" t="s">
-        <v>36</v>
-      </c>
-      <c r="D526">
-        <v>263</v>
-      </c>
-      <c r="E526">
-        <v>6.505067274267982</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
-      <c r="A527" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B527" t="s">
-        <v>20</v>
-      </c>
-      <c r="C527" t="s">
-        <v>37</v>
-      </c>
-      <c r="D527">
-        <v>239</v>
-      </c>
-      <c r="E527">
-        <v>11.01761758540843</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
-      <c r="A528" s="2">
-        <v>45063</v>
-      </c>
-      <c r="B528" t="s">
-        <v>21</v>
-      </c>
-      <c r="C528" t="s">
-        <v>38</v>
-      </c>
-      <c r="D528">
-        <v>143</v>
-      </c>
-      <c r="E528">
         <v>6.780905160743016</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E511"/>
+  <dimension ref="A1:E528"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8689,7 +8689,7 @@
         <v>25</v>
       </c>
       <c r="E482">
-        <v>3.695693629954631</v>
+        <v>3.695693629954632</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8774,7 +8774,7 @@
         <v>690</v>
       </c>
       <c r="E487">
-        <v>5.236401123200451</v>
+        <v>5.236401123200452</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -9183,6 +9183,295 @@
       </c>
       <c r="E511">
         <v>6.780905160743016</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B512" t="s">
+        <v>5</v>
+      </c>
+      <c r="C512" t="s">
+        <v>22</v>
+      </c>
+      <c r="D512">
+        <v>5065</v>
+      </c>
+      <c r="E512">
+        <v>6.085025234653711</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B513" t="s">
+        <v>6</v>
+      </c>
+      <c r="C513" t="s">
+        <v>23</v>
+      </c>
+      <c r="D513">
+        <v>318</v>
+      </c>
+      <c r="E513">
+        <v>10.88293825643693</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B514" t="s">
+        <v>7</v>
+      </c>
+      <c r="C514" t="s">
+        <v>24</v>
+      </c>
+      <c r="D514">
+        <v>176</v>
+      </c>
+      <c r="E514">
+        <v>9.493320963248442</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B515" t="s">
+        <v>8</v>
+      </c>
+      <c r="C515" t="s">
+        <v>25</v>
+      </c>
+      <c r="D515">
+        <v>623</v>
+      </c>
+      <c r="E515">
+        <v>7.761275619840013</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B516" t="s">
+        <v>9</v>
+      </c>
+      <c r="C516" t="s">
+        <v>26</v>
+      </c>
+      <c r="D516">
+        <v>38</v>
+      </c>
+      <c r="E516">
+        <v>5.61745431753104</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B517" t="s">
+        <v>10</v>
+      </c>
+      <c r="C517" t="s">
+        <v>27</v>
+      </c>
+      <c r="D517">
+        <v>861</v>
+      </c>
+      <c r="E517">
+        <v>4.803456882223979</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B518" t="s">
+        <v>11</v>
+      </c>
+      <c r="C518" t="s">
+        <v>28</v>
+      </c>
+      <c r="D518">
+        <v>364</v>
+      </c>
+      <c r="E518">
+        <v>5.782351342339505</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5">
+      <c r="A519" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B519" t="s">
+        <v>12</v>
+      </c>
+      <c r="C519" t="s">
+        <v>29</v>
+      </c>
+      <c r="D519">
+        <v>194</v>
+      </c>
+      <c r="E519">
+        <v>4.724234960069256</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5">
+      <c r="A520" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B520" t="s">
+        <v>13</v>
+      </c>
+      <c r="C520" t="s">
+        <v>30</v>
+      </c>
+      <c r="D520">
+        <v>400</v>
+      </c>
+      <c r="E520">
+        <v>3.595621324263738</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B521" t="s">
+        <v>14</v>
+      </c>
+      <c r="C521" t="s">
+        <v>31</v>
+      </c>
+      <c r="D521">
+        <v>650</v>
+      </c>
+      <c r="E521">
+        <v>4.932841637797527</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
+      <c r="A522" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B522" t="s">
+        <v>15</v>
+      </c>
+      <c r="C522" t="s">
+        <v>32</v>
+      </c>
+      <c r="D522">
+        <v>77</v>
+      </c>
+      <c r="E522">
+        <v>7.838362779788833</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B523" t="s">
+        <v>16</v>
+      </c>
+      <c r="C523" t="s">
+        <v>33</v>
+      </c>
+      <c r="D523">
+        <v>309</v>
+      </c>
+      <c r="E523">
+        <v>8.402511290364686</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B524" t="s">
+        <v>17</v>
+      </c>
+      <c r="C524" t="s">
+        <v>34</v>
+      </c>
+      <c r="D524">
+        <v>198</v>
+      </c>
+      <c r="E524">
+        <v>7.801824208351261</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B525" t="s">
+        <v>18</v>
+      </c>
+      <c r="C525" t="s">
+        <v>35</v>
+      </c>
+      <c r="D525">
+        <v>225</v>
+      </c>
+      <c r="E525">
+        <v>13.96509347302565</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B526" t="s">
+        <v>19</v>
+      </c>
+      <c r="C526" t="s">
+        <v>36</v>
+      </c>
+      <c r="D526">
+        <v>250</v>
+      </c>
+      <c r="E526">
+        <v>6.183524024969564</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B527" t="s">
+        <v>20</v>
+      </c>
+      <c r="C527" t="s">
+        <v>37</v>
+      </c>
+      <c r="D527">
+        <v>243</v>
+      </c>
+      <c r="E527">
+        <v>11.20201285880439</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5">
+      <c r="A528" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B528" t="s">
+        <v>21</v>
+      </c>
+      <c r="C528" t="s">
+        <v>38</v>
+      </c>
+      <c r="D528">
+        <v>139</v>
+      </c>
+      <c r="E528">
+        <v>6.591229491911045</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E528"/>
+  <dimension ref="A1:E545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9474,6 +9474,295 @@
         <v>6.591229491911045</v>
       </c>
     </row>
+    <row r="529" spans="1:5">
+      <c r="A529" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B529" t="s">
+        <v>5</v>
+      </c>
+      <c r="C529" t="s">
+        <v>22</v>
+      </c>
+      <c r="D529">
+        <v>4018</v>
+      </c>
+      <c r="E529">
+        <v>4.827173029188274</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B530" t="s">
+        <v>6</v>
+      </c>
+      <c r="C530" t="s">
+        <v>23</v>
+      </c>
+      <c r="D530">
+        <v>263</v>
+      </c>
+      <c r="E530">
+        <v>9.000669061141236</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5">
+      <c r="A531" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B531" t="s">
+        <v>7</v>
+      </c>
+      <c r="C531" t="s">
+        <v>24</v>
+      </c>
+      <c r="D531">
+        <v>138</v>
+      </c>
+      <c r="E531">
+        <v>7.443626664365255</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
+      <c r="A532" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B532" t="s">
+        <v>8</v>
+      </c>
+      <c r="C532" t="s">
+        <v>25</v>
+      </c>
+      <c r="D532">
+        <v>510</v>
+      </c>
+      <c r="E532">
+        <v>6.353532208857795</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B533" t="s">
+        <v>9</v>
+      </c>
+      <c r="C533" t="s">
+        <v>26</v>
+      </c>
+      <c r="D533">
+        <v>36</v>
+      </c>
+      <c r="E533">
+        <v>5.321798827134669</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B534" t="s">
+        <v>10</v>
+      </c>
+      <c r="C534" t="s">
+        <v>27</v>
+      </c>
+      <c r="D534">
+        <v>668</v>
+      </c>
+      <c r="E534">
+        <v>3.726723806417675</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B535" t="s">
+        <v>11</v>
+      </c>
+      <c r="C535" t="s">
+        <v>28</v>
+      </c>
+      <c r="D535">
+        <v>296</v>
+      </c>
+      <c r="E535">
+        <v>4.702131860803553</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B536" t="s">
+        <v>12</v>
+      </c>
+      <c r="C536" t="s">
+        <v>29</v>
+      </c>
+      <c r="D536">
+        <v>147</v>
+      </c>
+      <c r="E536">
+        <v>3.579703809949385</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5">
+      <c r="A537" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B537" t="s">
+        <v>13</v>
+      </c>
+      <c r="C537" t="s">
+        <v>30</v>
+      </c>
+      <c r="D537">
+        <v>326</v>
+      </c>
+      <c r="E537">
+        <v>2.930431379274947</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5">
+      <c r="A538" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B538" t="s">
+        <v>14</v>
+      </c>
+      <c r="C538" t="s">
+        <v>31</v>
+      </c>
+      <c r="D538">
+        <v>535</v>
+      </c>
+      <c r="E538">
+        <v>4.060108117264119</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B539" t="s">
+        <v>15</v>
+      </c>
+      <c r="C539" t="s">
+        <v>32</v>
+      </c>
+      <c r="D539">
+        <v>54</v>
+      </c>
+      <c r="E539">
+        <v>5.497033637773987</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B540" t="s">
+        <v>16</v>
+      </c>
+      <c r="C540" t="s">
+        <v>33</v>
+      </c>
+      <c r="D540">
+        <v>244</v>
+      </c>
+      <c r="E540">
+        <v>6.634992734139104</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B541" t="s">
+        <v>17</v>
+      </c>
+      <c r="C541" t="s">
+        <v>34</v>
+      </c>
+      <c r="D541">
+        <v>148</v>
+      </c>
+      <c r="E541">
+        <v>5.831666579979731</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B542" t="s">
+        <v>18</v>
+      </c>
+      <c r="C542" t="s">
+        <v>35</v>
+      </c>
+      <c r="D542">
+        <v>169</v>
+      </c>
+      <c r="E542">
+        <v>10.48933687529482</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
+      <c r="A543" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B543" t="s">
+        <v>19</v>
+      </c>
+      <c r="C543" t="s">
+        <v>36</v>
+      </c>
+      <c r="D543">
+        <v>187</v>
+      </c>
+      <c r="E543">
+        <v>4.625275970677234</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
+      <c r="A544" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B544" t="s">
+        <v>20</v>
+      </c>
+      <c r="C544" t="s">
+        <v>37</v>
+      </c>
+      <c r="D544">
+        <v>195</v>
+      </c>
+      <c r="E544">
+        <v>8.989269578052905</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B545" t="s">
+        <v>21</v>
+      </c>
+      <c r="C545" t="s">
+        <v>38</v>
+      </c>
+      <c r="D545">
+        <v>102</v>
+      </c>
+      <c r="E545">
+        <v>4.836729555215298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E545"/>
+  <dimension ref="A1:E562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9539,7 +9539,7 @@
         <v>510</v>
       </c>
       <c r="E532">
-        <v>6.353532208857795</v>
+        <v>6.353532208857796</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -9761,6 +9761,295 @@
       </c>
       <c r="E545">
         <v>4.836729555215298</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5">
+      <c r="A546" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B546" t="s">
+        <v>5</v>
+      </c>
+      <c r="C546" t="s">
+        <v>22</v>
+      </c>
+      <c r="D546">
+        <v>4021</v>
+      </c>
+      <c r="E546">
+        <v>4.830777190235453</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5">
+      <c r="A547" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B547" t="s">
+        <v>6</v>
+      </c>
+      <c r="C547" t="s">
+        <v>23</v>
+      </c>
+      <c r="D547">
+        <v>232</v>
+      </c>
+      <c r="E547">
+        <v>7.939753696520026</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5">
+      <c r="A548" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B548" t="s">
+        <v>7</v>
+      </c>
+      <c r="C548" t="s">
+        <v>24</v>
+      </c>
+      <c r="D548">
+        <v>125</v>
+      </c>
+      <c r="E548">
+        <v>6.742415456852586</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5">
+      <c r="A549" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B549" t="s">
+        <v>8</v>
+      </c>
+      <c r="C549" t="s">
+        <v>25</v>
+      </c>
+      <c r="D549">
+        <v>486</v>
+      </c>
+      <c r="E549">
+        <v>6.054542457852722</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
+      <c r="A550" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B550" t="s">
+        <v>9</v>
+      </c>
+      <c r="C550" t="s">
+        <v>26</v>
+      </c>
+      <c r="D550">
+        <v>34</v>
+      </c>
+      <c r="E550">
+        <v>5.0261433367383</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B551" t="s">
+        <v>10</v>
+      </c>
+      <c r="C551" t="s">
+        <v>27</v>
+      </c>
+      <c r="D551">
+        <v>674</v>
+      </c>
+      <c r="E551">
+        <v>3.760197373541187</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5">
+      <c r="A552" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B552" t="s">
+        <v>11</v>
+      </c>
+      <c r="C552" t="s">
+        <v>28</v>
+      </c>
+      <c r="D552">
+        <v>309</v>
+      </c>
+      <c r="E552">
+        <v>4.90864440874425</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5">
+      <c r="A553" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B553" t="s">
+        <v>12</v>
+      </c>
+      <c r="C553" t="s">
+        <v>29</v>
+      </c>
+      <c r="D553">
+        <v>166</v>
+      </c>
+      <c r="E553">
+        <v>4.042386615316993</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B554" t="s">
+        <v>13</v>
+      </c>
+      <c r="C554" t="s">
+        <v>30</v>
+      </c>
+      <c r="D554">
+        <v>393</v>
+      </c>
+      <c r="E554">
+        <v>3.532697951089123</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B555" t="s">
+        <v>14</v>
+      </c>
+      <c r="C555" t="s">
+        <v>31</v>
+      </c>
+      <c r="D555">
+        <v>589</v>
+      </c>
+      <c r="E555">
+        <v>4.469913422558067</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5">
+      <c r="A556" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B556" t="s">
+        <v>15</v>
+      </c>
+      <c r="C556" t="s">
+        <v>32</v>
+      </c>
+      <c r="D556">
+        <v>64</v>
+      </c>
+      <c r="E556">
+        <v>6.515002829954355</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5">
+      <c r="A557" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B557" t="s">
+        <v>16</v>
+      </c>
+      <c r="C557" t="s">
+        <v>33</v>
+      </c>
+      <c r="D557">
+        <v>252</v>
+      </c>
+      <c r="E557">
+        <v>6.852533479520714</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B558" t="s">
+        <v>17</v>
+      </c>
+      <c r="C558" t="s">
+        <v>34</v>
+      </c>
+      <c r="D558">
+        <v>124</v>
+      </c>
+      <c r="E558">
+        <v>4.885990918361396</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B559" t="s">
+        <v>18</v>
+      </c>
+      <c r="C559" t="s">
+        <v>35</v>
+      </c>
+      <c r="D559">
+        <v>134</v>
+      </c>
+      <c r="E559">
+        <v>8.316989001713051</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B560" t="s">
+        <v>19</v>
+      </c>
+      <c r="C560" t="s">
+        <v>36</v>
+      </c>
+      <c r="D560">
+        <v>172</v>
+      </c>
+      <c r="E560">
+        <v>4.254264529179061</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5">
+      <c r="A561" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B561" t="s">
+        <v>20</v>
+      </c>
+      <c r="C561" t="s">
+        <v>37</v>
+      </c>
+      <c r="D561">
+        <v>175</v>
+      </c>
+      <c r="E561">
+        <v>8.067293211073119</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5">
+      <c r="A562" s="2">
+        <v>45066</v>
+      </c>
+      <c r="B562" t="s">
+        <v>21</v>
+      </c>
+      <c r="C562" t="s">
+        <v>38</v>
+      </c>
+      <c r="D562">
+        <v>92</v>
+      </c>
+      <c r="E562">
+        <v>4.362540383135368</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E562"/>
+  <dimension ref="A1:E579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10052,6 +10052,295 @@
         <v>4.362540383135368</v>
       </c>
     </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B563" t="s">
+        <v>5</v>
+      </c>
+      <c r="C563" t="s">
+        <v>22</v>
+      </c>
+      <c r="D563">
+        <v>3876</v>
+      </c>
+      <c r="E563">
+        <v>4.656576072955139</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B564" t="s">
+        <v>6</v>
+      </c>
+      <c r="C564" t="s">
+        <v>23</v>
+      </c>
+      <c r="D564">
+        <v>226</v>
+      </c>
+      <c r="E564">
+        <v>7.734415238851405</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5">
+      <c r="A565" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B565" t="s">
+        <v>7</v>
+      </c>
+      <c r="C565" t="s">
+        <v>24</v>
+      </c>
+      <c r="D565">
+        <v>125</v>
+      </c>
+      <c r="E565">
+        <v>6.742415456852586</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5">
+      <c r="A566" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B566" t="s">
+        <v>8</v>
+      </c>
+      <c r="C566" t="s">
+        <v>25</v>
+      </c>
+      <c r="D566">
+        <v>456</v>
+      </c>
+      <c r="E566">
+        <v>5.680805269096382</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5">
+      <c r="A567" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B567" t="s">
+        <v>9</v>
+      </c>
+      <c r="C567" t="s">
+        <v>26</v>
+      </c>
+      <c r="D567">
+        <v>34</v>
+      </c>
+      <c r="E567">
+        <v>5.0261433367383</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5">
+      <c r="A568" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B568" t="s">
+        <v>10</v>
+      </c>
+      <c r="C568" t="s">
+        <v>27</v>
+      </c>
+      <c r="D568">
+        <v>633</v>
+      </c>
+      <c r="E568">
+        <v>3.531461331530521</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B569" t="s">
+        <v>11</v>
+      </c>
+      <c r="C569" t="s">
+        <v>28</v>
+      </c>
+      <c r="D569">
+        <v>299</v>
+      </c>
+      <c r="E569">
+        <v>4.749788602636022</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B570" t="s">
+        <v>12</v>
+      </c>
+      <c r="C570" t="s">
+        <v>29</v>
+      </c>
+      <c r="D570">
+        <v>166</v>
+      </c>
+      <c r="E570">
+        <v>4.042386615316993</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5">
+      <c r="A571" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B571" t="s">
+        <v>13</v>
+      </c>
+      <c r="C571" t="s">
+        <v>30</v>
+      </c>
+      <c r="D571">
+        <v>383</v>
+      </c>
+      <c r="E571">
+        <v>3.442807417982529</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5">
+      <c r="A572" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B572" t="s">
+        <v>14</v>
+      </c>
+      <c r="C572" t="s">
+        <v>31</v>
+      </c>
+      <c r="D572">
+        <v>573</v>
+      </c>
+      <c r="E572">
+        <v>4.348489628396897</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5">
+      <c r="A573" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B573" t="s">
+        <v>15</v>
+      </c>
+      <c r="C573" t="s">
+        <v>32</v>
+      </c>
+      <c r="D573">
+        <v>64</v>
+      </c>
+      <c r="E573">
+        <v>6.515002829954355</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B574" t="s">
+        <v>16</v>
+      </c>
+      <c r="C574" t="s">
+        <v>33</v>
+      </c>
+      <c r="D574">
+        <v>252</v>
+      </c>
+      <c r="E574">
+        <v>6.852533479520714</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
+      <c r="A575" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B575" t="s">
+        <v>17</v>
+      </c>
+      <c r="C575" t="s">
+        <v>34</v>
+      </c>
+      <c r="D575">
+        <v>121</v>
+      </c>
+      <c r="E575">
+        <v>4.767781460659104</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5">
+      <c r="A576" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B576" t="s">
+        <v>18</v>
+      </c>
+      <c r="C576" t="s">
+        <v>35</v>
+      </c>
+      <c r="D576">
+        <v>129</v>
+      </c>
+      <c r="E576">
+        <v>8.006653591201371</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B577" t="s">
+        <v>19</v>
+      </c>
+      <c r="C577" t="s">
+        <v>36</v>
+      </c>
+      <c r="D577">
+        <v>151</v>
+      </c>
+      <c r="E577">
+        <v>3.734848511081617</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5">
+      <c r="A578" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B578" t="s">
+        <v>20</v>
+      </c>
+      <c r="C578" t="s">
+        <v>37</v>
+      </c>
+      <c r="D578">
+        <v>174</v>
+      </c>
+      <c r="E578">
+        <v>8.021194392724132</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B579" t="s">
+        <v>21</v>
+      </c>
+      <c r="C579" t="s">
+        <v>38</v>
+      </c>
+      <c r="D579">
+        <v>90</v>
+      </c>
+      <c r="E579">
+        <v>4.267702548719381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E579"/>
+  <dimension ref="A1:E596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10341,6 +10341,295 @@
         <v>4.267702548719381</v>
       </c>
     </row>
+    <row r="580" spans="1:5">
+      <c r="A580" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B580" t="s">
+        <v>5</v>
+      </c>
+      <c r="C580" t="s">
+        <v>22</v>
+      </c>
+      <c r="D580">
+        <v>3785</v>
+      </c>
+      <c r="E580">
+        <v>4.547249854524046</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5">
+      <c r="A581" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B581" t="s">
+        <v>6</v>
+      </c>
+      <c r="C581" t="s">
+        <v>23</v>
+      </c>
+      <c r="D581">
+        <v>225</v>
+      </c>
+      <c r="E581">
+        <v>7.700192162573301</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5">
+      <c r="A582" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B582" t="s">
+        <v>7</v>
+      </c>
+      <c r="C582" t="s">
+        <v>24</v>
+      </c>
+      <c r="D582">
+        <v>119</v>
+      </c>
+      <c r="E582">
+        <v>6.418779514923663</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5">
+      <c r="A583" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B583" t="s">
+        <v>8</v>
+      </c>
+      <c r="C583" t="s">
+        <v>25</v>
+      </c>
+      <c r="D583">
+        <v>421</v>
+      </c>
+      <c r="E583">
+        <v>5.24477854888065</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5">
+      <c r="A584" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B584" t="s">
+        <v>9</v>
+      </c>
+      <c r="C584" t="s">
+        <v>26</v>
+      </c>
+      <c r="D584">
+        <v>34</v>
+      </c>
+      <c r="E584">
+        <v>5.0261433367383</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5">
+      <c r="A585" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B585" t="s">
+        <v>10</v>
+      </c>
+      <c r="C585" t="s">
+        <v>27</v>
+      </c>
+      <c r="D585">
+        <v>617</v>
+      </c>
+      <c r="E585">
+        <v>3.442198485867823</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5">
+      <c r="A586" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B586" t="s">
+        <v>11</v>
+      </c>
+      <c r="C586" t="s">
+        <v>28</v>
+      </c>
+      <c r="D586">
+        <v>295</v>
+      </c>
+      <c r="E586">
+        <v>4.68624628019273</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B587" t="s">
+        <v>12</v>
+      </c>
+      <c r="C587" t="s">
+        <v>29</v>
+      </c>
+      <c r="D587">
+        <v>166</v>
+      </c>
+      <c r="E587">
+        <v>4.042386615316993</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
+      <c r="A588" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B588" t="s">
+        <v>13</v>
+      </c>
+      <c r="C588" t="s">
+        <v>30</v>
+      </c>
+      <c r="D588">
+        <v>369</v>
+      </c>
+      <c r="E588">
+        <v>3.316960671633298</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B589" t="s">
+        <v>14</v>
+      </c>
+      <c r="C589" t="s">
+        <v>31</v>
+      </c>
+      <c r="D589">
+        <v>567</v>
+      </c>
+      <c r="E589">
+        <v>4.302955705586458</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
+      <c r="A590" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B590" t="s">
+        <v>15</v>
+      </c>
+      <c r="C590" t="s">
+        <v>32</v>
+      </c>
+      <c r="D590">
+        <v>64</v>
+      </c>
+      <c r="E590">
+        <v>6.515002829954355</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5">
+      <c r="A591" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B591" t="s">
+        <v>16</v>
+      </c>
+      <c r="C591" t="s">
+        <v>33</v>
+      </c>
+      <c r="D591">
+        <v>252</v>
+      </c>
+      <c r="E591">
+        <v>6.852533479520714</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5">
+      <c r="A592" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B592" t="s">
+        <v>17</v>
+      </c>
+      <c r="C592" t="s">
+        <v>34</v>
+      </c>
+      <c r="D592">
+        <v>120</v>
+      </c>
+      <c r="E592">
+        <v>4.728378308091673</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5">
+      <c r="A593" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B593" t="s">
+        <v>18</v>
+      </c>
+      <c r="C593" t="s">
+        <v>35</v>
+      </c>
+      <c r="D593">
+        <v>128</v>
+      </c>
+      <c r="E593">
+        <v>7.944586509099035</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5">
+      <c r="A594" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B594" t="s">
+        <v>19</v>
+      </c>
+      <c r="C594" t="s">
+        <v>36</v>
+      </c>
+      <c r="D594">
+        <v>145</v>
+      </c>
+      <c r="E594">
+        <v>3.586443934482348</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5">
+      <c r="A595" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B595" t="s">
+        <v>20</v>
+      </c>
+      <c r="C595" t="s">
+        <v>37</v>
+      </c>
+      <c r="D595">
+        <v>174</v>
+      </c>
+      <c r="E595">
+        <v>8.021194392724132</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
+      <c r="A596" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B596" t="s">
+        <v>21</v>
+      </c>
+      <c r="C596" t="s">
+        <v>38</v>
+      </c>
+      <c r="D596">
+        <v>89</v>
+      </c>
+      <c r="E596">
+        <v>4.220283631511388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E596"/>
+  <dimension ref="A1:E613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10630,6 +10630,295 @@
         <v>4.220283631511388</v>
       </c>
     </row>
+    <row r="597" spans="1:5">
+      <c r="A597" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B597" t="s">
+        <v>5</v>
+      </c>
+      <c r="C597" t="s">
+        <v>22</v>
+      </c>
+      <c r="D597">
+        <v>3620</v>
+      </c>
+      <c r="E597">
+        <v>4.349020996929207</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
+      <c r="A598" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B598" t="s">
+        <v>6</v>
+      </c>
+      <c r="C598" t="s">
+        <v>23</v>
+      </c>
+      <c r="D598">
+        <v>218</v>
+      </c>
+      <c r="E598">
+        <v>7.460630628626577</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5">
+      <c r="A599" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B599" t="s">
+        <v>7</v>
+      </c>
+      <c r="C599" t="s">
+        <v>24</v>
+      </c>
+      <c r="D599">
+        <v>107</v>
+      </c>
+      <c r="E599">
+        <v>5.771507631065814</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5">
+      <c r="A600" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B600" t="s">
+        <v>8</v>
+      </c>
+      <c r="C600" t="s">
+        <v>25</v>
+      </c>
+      <c r="D600">
+        <v>308</v>
+      </c>
+      <c r="E600">
+        <v>3.837035137898433</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5">
+      <c r="A601" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B601" t="s">
+        <v>9</v>
+      </c>
+      <c r="C601" t="s">
+        <v>26</v>
+      </c>
+      <c r="D601">
+        <v>37</v>
+      </c>
+      <c r="E601">
+        <v>5.469626572332855</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5">
+      <c r="A602" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B602" t="s">
+        <v>10</v>
+      </c>
+      <c r="C602" t="s">
+        <v>27</v>
+      </c>
+      <c r="D602">
+        <v>656</v>
+      </c>
+      <c r="E602">
+        <v>3.659776672170651</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
+      <c r="A603" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B603" t="s">
+        <v>11</v>
+      </c>
+      <c r="C603" t="s">
+        <v>28</v>
+      </c>
+      <c r="D603">
+        <v>280</v>
+      </c>
+      <c r="E603">
+        <v>4.447962571030388</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5">
+      <c r="A604" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B604" t="s">
+        <v>12</v>
+      </c>
+      <c r="C604" t="s">
+        <v>29</v>
+      </c>
+      <c r="D604">
+        <v>122</v>
+      </c>
+      <c r="E604">
+        <v>2.970910644992006</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5">
+      <c r="A605" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B605" t="s">
+        <v>13</v>
+      </c>
+      <c r="C605" t="s">
+        <v>30</v>
+      </c>
+      <c r="D605">
+        <v>355</v>
+      </c>
+      <c r="E605">
+        <v>3.191113925284068</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5">
+      <c r="A606" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B606" t="s">
+        <v>14</v>
+      </c>
+      <c r="C606" t="s">
+        <v>31</v>
+      </c>
+      <c r="D606">
+        <v>541</v>
+      </c>
+      <c r="E606">
+        <v>4.105642040074557</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5">
+      <c r="A607" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B607" t="s">
+        <v>15</v>
+      </c>
+      <c r="C607" t="s">
+        <v>32</v>
+      </c>
+      <c r="D607">
+        <v>63</v>
+      </c>
+      <c r="E607">
+        <v>6.413205910736317</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5">
+      <c r="A608" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B608" t="s">
+        <v>16</v>
+      </c>
+      <c r="C608" t="s">
+        <v>33</v>
+      </c>
+      <c r="D608">
+        <v>258</v>
+      </c>
+      <c r="E608">
+        <v>7.015689038556921</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5">
+      <c r="A609" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B609" t="s">
+        <v>17</v>
+      </c>
+      <c r="C609" t="s">
+        <v>34</v>
+      </c>
+      <c r="D609">
+        <v>129</v>
+      </c>
+      <c r="E609">
+        <v>5.083006681198549</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
+      <c r="A610" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B610" t="s">
+        <v>18</v>
+      </c>
+      <c r="C610" t="s">
+        <v>35</v>
+      </c>
+      <c r="D610">
+        <v>124</v>
+      </c>
+      <c r="E610">
+        <v>7.696318180689689</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5">
+      <c r="A611" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B611" t="s">
+        <v>19</v>
+      </c>
+      <c r="C611" t="s">
+        <v>36</v>
+      </c>
+      <c r="D611">
+        <v>161</v>
+      </c>
+      <c r="E611">
+        <v>3.982189472080399</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5">
+      <c r="A612" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B612" t="s">
+        <v>20</v>
+      </c>
+      <c r="C612" t="s">
+        <v>37</v>
+      </c>
+      <c r="D612">
+        <v>167</v>
+      </c>
+      <c r="E612">
+        <v>7.698502664281207</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5">
+      <c r="A613" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B613" t="s">
+        <v>21</v>
+      </c>
+      <c r="C613" t="s">
+        <v>38</v>
+      </c>
+      <c r="D613">
+        <v>94</v>
+      </c>
+      <c r="E613">
+        <v>4.457378217551353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E613"/>
+  <dimension ref="A1:E630"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10919,6 +10919,295 @@
         <v>4.457378217551353</v>
       </c>
     </row>
+    <row r="614" spans="1:5">
+      <c r="A614" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B614" t="s">
+        <v>5</v>
+      </c>
+      <c r="C614" t="s">
+        <v>22</v>
+      </c>
+      <c r="D614">
+        <v>3716</v>
+      </c>
+      <c r="E614">
+        <v>4.464354150438932</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5">
+      <c r="A615" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B615" t="s">
+        <v>6</v>
+      </c>
+      <c r="C615" t="s">
+        <v>23</v>
+      </c>
+      <c r="D615">
+        <v>203</v>
+      </c>
+      <c r="E615">
+        <v>6.947284484455023</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5">
+      <c r="A616" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B616" t="s">
+        <v>7</v>
+      </c>
+      <c r="C616" t="s">
+        <v>24</v>
+      </c>
+      <c r="D616">
+        <v>99</v>
+      </c>
+      <c r="E616">
+        <v>5.339993041827248</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5">
+      <c r="A617" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B617" t="s">
+        <v>8</v>
+      </c>
+      <c r="C617" t="s">
+        <v>25</v>
+      </c>
+      <c r="D617">
+        <v>423</v>
+      </c>
+      <c r="E617">
+        <v>5.269694361464407</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5">
+      <c r="A618" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B618" t="s">
+        <v>9</v>
+      </c>
+      <c r="C618" t="s">
+        <v>26</v>
+      </c>
+      <c r="D618">
+        <v>16</v>
+      </c>
+      <c r="E618">
+        <v>2.365243923170964</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5">
+      <c r="A619" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B619" t="s">
+        <v>10</v>
+      </c>
+      <c r="C619" t="s">
+        <v>27</v>
+      </c>
+      <c r="D619">
+        <v>669</v>
+      </c>
+      <c r="E619">
+        <v>3.732302734271594</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5">
+      <c r="A620" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B620" t="s">
+        <v>11</v>
+      </c>
+      <c r="C620" t="s">
+        <v>28</v>
+      </c>
+      <c r="D620">
+        <v>256</v>
+      </c>
+      <c r="E620">
+        <v>4.06670863637064</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
+      <c r="A621" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B621" t="s">
+        <v>12</v>
+      </c>
+      <c r="C621" t="s">
+        <v>29</v>
+      </c>
+      <c r="D621">
+        <v>125</v>
+      </c>
+      <c r="E621">
+        <v>3.043965824786892</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5">
+      <c r="A622" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B622" t="s">
+        <v>13</v>
+      </c>
+      <c r="C622" t="s">
+        <v>30</v>
+      </c>
+      <c r="D622">
+        <v>351</v>
+      </c>
+      <c r="E622">
+        <v>3.15515771204143</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
+      <c r="A623" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B623" t="s">
+        <v>14</v>
+      </c>
+      <c r="C623" t="s">
+        <v>31</v>
+      </c>
+      <c r="D623">
+        <v>573</v>
+      </c>
+      <c r="E623">
+        <v>4.348489628396897</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5">
+      <c r="A624" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B624" t="s">
+        <v>15</v>
+      </c>
+      <c r="C624" t="s">
+        <v>32</v>
+      </c>
+      <c r="D624">
+        <v>51</v>
+      </c>
+      <c r="E624">
+        <v>5.191642880119876</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5">
+      <c r="A625" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B625" t="s">
+        <v>16</v>
+      </c>
+      <c r="C625" t="s">
+        <v>33</v>
+      </c>
+      <c r="D625">
+        <v>258</v>
+      </c>
+      <c r="E625">
+        <v>7.015689038556921</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5">
+      <c r="A626" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B626" t="s">
+        <v>17</v>
+      </c>
+      <c r="C626" t="s">
+        <v>34</v>
+      </c>
+      <c r="D626">
+        <v>136</v>
+      </c>
+      <c r="E626">
+        <v>5.358828749170564</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5">
+      <c r="A627" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B627" t="s">
+        <v>18</v>
+      </c>
+      <c r="C627" t="s">
+        <v>35</v>
+      </c>
+      <c r="D627">
+        <v>133</v>
+      </c>
+      <c r="E627">
+        <v>8.254921919610714</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5">
+      <c r="A628" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B628" t="s">
+        <v>19</v>
+      </c>
+      <c r="C628" t="s">
+        <v>36</v>
+      </c>
+      <c r="D628">
+        <v>184</v>
+      </c>
+      <c r="E628">
+        <v>4.551073682377599</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5">
+      <c r="A629" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B629" t="s">
+        <v>20</v>
+      </c>
+      <c r="C629" t="s">
+        <v>37</v>
+      </c>
+      <c r="D629">
+        <v>142</v>
+      </c>
+      <c r="E629">
+        <v>6.546032205556475</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5">
+      <c r="A630" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B630" t="s">
+        <v>21</v>
+      </c>
+      <c r="C630" t="s">
+        <v>38</v>
+      </c>
+      <c r="D630">
+        <v>97</v>
+      </c>
+      <c r="E630">
+        <v>4.599634969175333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E630"/>
+  <dimension ref="A1:E647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10950,7 +10950,7 @@
         <v>203</v>
       </c>
       <c r="E615">
-        <v>6.947284484455023</v>
+        <v>6.947284484455024</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -11171,7 +11171,7 @@
         <v>184</v>
       </c>
       <c r="E628">
-        <v>4.551073682377599</v>
+        <v>4.5510736823776</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -11206,6 +11206,295 @@
       </c>
       <c r="E630">
         <v>4.599634969175333</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5">
+      <c r="A631" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B631" t="s">
+        <v>5</v>
+      </c>
+      <c r="C631" t="s">
+        <v>22</v>
+      </c>
+      <c r="D631">
+        <v>3532</v>
+      </c>
+      <c r="E631">
+        <v>4.243298939545292</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B632" t="s">
+        <v>6</v>
+      </c>
+      <c r="C632" t="s">
+        <v>23</v>
+      </c>
+      <c r="D632">
+        <v>176</v>
+      </c>
+      <c r="E632">
+        <v>6.023261424946227</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5">
+      <c r="A633" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B633" t="s">
+        <v>7</v>
+      </c>
+      <c r="C633" t="s">
+        <v>24</v>
+      </c>
+      <c r="D633">
+        <v>110</v>
+      </c>
+      <c r="E633">
+        <v>5.933325602030276</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5">
+      <c r="A634" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B634" t="s">
+        <v>8</v>
+      </c>
+      <c r="C634" t="s">
+        <v>25</v>
+      </c>
+      <c r="D634">
+        <v>394</v>
+      </c>
+      <c r="E634">
+        <v>4.908415078999944</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5">
+      <c r="A635" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B635" t="s">
+        <v>9</v>
+      </c>
+      <c r="C635" t="s">
+        <v>26</v>
+      </c>
+      <c r="D635">
+        <v>10</v>
+      </c>
+      <c r="E635">
+        <v>1.478277451981853</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5">
+      <c r="A636" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B636" t="s">
+        <v>10</v>
+      </c>
+      <c r="C636" t="s">
+        <v>27</v>
+      </c>
+      <c r="D636">
+        <v>649</v>
+      </c>
+      <c r="E636">
+        <v>3.62072417719322</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5">
+      <c r="A637" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B637" t="s">
+        <v>11</v>
+      </c>
+      <c r="C637" t="s">
+        <v>28</v>
+      </c>
+      <c r="D637">
+        <v>242</v>
+      </c>
+      <c r="E637">
+        <v>3.844310507819121</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5">
+      <c r="A638" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B638" t="s">
+        <v>12</v>
+      </c>
+      <c r="C638" t="s">
+        <v>29</v>
+      </c>
+      <c r="D638">
+        <v>137</v>
+      </c>
+      <c r="E638">
+        <v>3.336186543966434</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5">
+      <c r="A639" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B639" t="s">
+        <v>13</v>
+      </c>
+      <c r="C639" t="s">
+        <v>30</v>
+      </c>
+      <c r="D639">
+        <v>345</v>
+      </c>
+      <c r="E639">
+        <v>3.101223392177474</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5">
+      <c r="A640" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B640" t="s">
+        <v>14</v>
+      </c>
+      <c r="C640" t="s">
+        <v>31</v>
+      </c>
+      <c r="D640">
+        <v>545</v>
+      </c>
+      <c r="E640">
+        <v>4.135997988614849</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5">
+      <c r="A641" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B641" t="s">
+        <v>15</v>
+      </c>
+      <c r="C641" t="s">
+        <v>32</v>
+      </c>
+      <c r="D641">
+        <v>47</v>
+      </c>
+      <c r="E641">
+        <v>4.784455203247729</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5">
+      <c r="A642" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B642" t="s">
+        <v>16</v>
+      </c>
+      <c r="C642" t="s">
+        <v>33</v>
+      </c>
+      <c r="D642">
+        <v>249</v>
+      </c>
+      <c r="E642">
+        <v>6.770955700002611</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5">
+      <c r="A643" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B643" t="s">
+        <v>17</v>
+      </c>
+      <c r="C643" t="s">
+        <v>34</v>
+      </c>
+      <c r="D643">
+        <v>133</v>
+      </c>
+      <c r="E643">
+        <v>5.240619291468271</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5">
+      <c r="A644" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B644" t="s">
+        <v>18</v>
+      </c>
+      <c r="C644" t="s">
+        <v>35</v>
+      </c>
+      <c r="D644">
+        <v>124</v>
+      </c>
+      <c r="E644">
+        <v>7.696318180689689</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5">
+      <c r="A645" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B645" t="s">
+        <v>19</v>
+      </c>
+      <c r="C645" t="s">
+        <v>36</v>
+      </c>
+      <c r="D645">
+        <v>170</v>
+      </c>
+      <c r="E645">
+        <v>4.204796336979304</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5">
+      <c r="A646" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B646" t="s">
+        <v>20</v>
+      </c>
+      <c r="C646" t="s">
+        <v>37</v>
+      </c>
+      <c r="D646">
+        <v>106</v>
+      </c>
+      <c r="E646">
+        <v>4.886474744992862</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5">
+      <c r="A647" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B647" t="s">
+        <v>21</v>
+      </c>
+      <c r="C647" t="s">
+        <v>38</v>
+      </c>
+      <c r="D647">
+        <v>95</v>
+      </c>
+      <c r="E647">
+        <v>4.504797134759347</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E647"/>
+  <dimension ref="A1:E664"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11497,6 +11497,295 @@
         <v>4.504797134759347</v>
       </c>
     </row>
+    <row r="648" spans="1:5">
+      <c r="A648" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B648" t="s">
+        <v>5</v>
+      </c>
+      <c r="C648" t="s">
+        <v>22</v>
+      </c>
+      <c r="D648">
+        <v>4144</v>
+      </c>
+      <c r="E648">
+        <v>4.978547793169787</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5">
+      <c r="A649" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B649" t="s">
+        <v>6</v>
+      </c>
+      <c r="C649" t="s">
+        <v>23</v>
+      </c>
+      <c r="D649">
+        <v>223</v>
+      </c>
+      <c r="E649">
+        <v>7.631746010017094</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5">
+      <c r="A650" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B650" t="s">
+        <v>7</v>
+      </c>
+      <c r="C650" t="s">
+        <v>24</v>
+      </c>
+      <c r="D650">
+        <v>130</v>
+      </c>
+      <c r="E650">
+        <v>7.01211207512669</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5">
+      <c r="A651" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B651" t="s">
+        <v>8</v>
+      </c>
+      <c r="C651" t="s">
+        <v>25</v>
+      </c>
+      <c r="D651">
+        <v>465</v>
+      </c>
+      <c r="E651">
+        <v>5.792926425723285</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5">
+      <c r="A652" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B652" t="s">
+        <v>9</v>
+      </c>
+      <c r="C652" t="s">
+        <v>26</v>
+      </c>
+      <c r="D652">
+        <v>16</v>
+      </c>
+      <c r="E652">
+        <v>2.365243923170964</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5">
+      <c r="A653" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B653" t="s">
+        <v>10</v>
+      </c>
+      <c r="C653" t="s">
+        <v>27</v>
+      </c>
+      <c r="D653">
+        <v>769</v>
+      </c>
+      <c r="E653">
+        <v>4.290195519663461</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5">
+      <c r="A654" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B654" t="s">
+        <v>11</v>
+      </c>
+      <c r="C654" t="s">
+        <v>28</v>
+      </c>
+      <c r="D654">
+        <v>299</v>
+      </c>
+      <c r="E654">
+        <v>4.749788602636022</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5">
+      <c r="A655" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B655" t="s">
+        <v>12</v>
+      </c>
+      <c r="C655" t="s">
+        <v>29</v>
+      </c>
+      <c r="D655">
+        <v>155</v>
+      </c>
+      <c r="E655">
+        <v>3.774517622735746</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B656" t="s">
+        <v>13</v>
+      </c>
+      <c r="C656" t="s">
+        <v>30</v>
+      </c>
+      <c r="D656">
+        <v>386</v>
+      </c>
+      <c r="E656">
+        <v>3.469774577914507</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5">
+      <c r="A657" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B657" t="s">
+        <v>14</v>
+      </c>
+      <c r="C657" t="s">
+        <v>31</v>
+      </c>
+      <c r="D657">
+        <v>626</v>
+      </c>
+      <c r="E657">
+        <v>4.750705946555772</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5">
+      <c r="A658" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B658" t="s">
+        <v>15</v>
+      </c>
+      <c r="C658" t="s">
+        <v>32</v>
+      </c>
+      <c r="D658">
+        <v>53</v>
+      </c>
+      <c r="E658">
+        <v>5.39523671855595</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5">
+      <c r="A659" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B659" t="s">
+        <v>16</v>
+      </c>
+      <c r="C659" t="s">
+        <v>33</v>
+      </c>
+      <c r="D659">
+        <v>269</v>
+      </c>
+      <c r="E659">
+        <v>7.314807563456636</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5">
+      <c r="A660" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B660" t="s">
+        <v>17</v>
+      </c>
+      <c r="C660" t="s">
+        <v>34</v>
+      </c>
+      <c r="D660">
+        <v>167</v>
+      </c>
+      <c r="E660">
+        <v>6.580326478760912</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5">
+      <c r="A661" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B661" t="s">
+        <v>18</v>
+      </c>
+      <c r="C661" t="s">
+        <v>35</v>
+      </c>
+      <c r="D661">
+        <v>136</v>
+      </c>
+      <c r="E661">
+        <v>8.441123165917723</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5">
+      <c r="A662" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B662" t="s">
+        <v>19</v>
+      </c>
+      <c r="C662" t="s">
+        <v>36</v>
+      </c>
+      <c r="D662">
+        <v>196</v>
+      </c>
+      <c r="E662">
+        <v>4.847882835576138</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5">
+      <c r="A663" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B663" t="s">
+        <v>20</v>
+      </c>
+      <c r="C663" t="s">
+        <v>37</v>
+      </c>
+      <c r="D663">
+        <v>147</v>
+      </c>
+      <c r="E663">
+        <v>6.776526297301421</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5">
+      <c r="A664" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B664" t="s">
+        <v>21</v>
+      </c>
+      <c r="C664" t="s">
+        <v>38</v>
+      </c>
+      <c r="D664">
+        <v>107</v>
+      </c>
+      <c r="E664">
+        <v>5.073824141255264</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E664"/>
+  <dimension ref="A1:E681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11511,7 +11511,7 @@
         <v>4144</v>
       </c>
       <c r="E648">
-        <v>4.978547793169787</v>
+        <v>4.978547793169788</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -11784,6 +11784,295 @@
       </c>
       <c r="E664">
         <v>5.073824141255264</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5">
+      <c r="A665" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B665" t="s">
+        <v>5</v>
+      </c>
+      <c r="C665" t="s">
+        <v>22</v>
+      </c>
+      <c r="D665">
+        <v>4048</v>
+      </c>
+      <c r="E665">
+        <v>4.863214639660063</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5">
+      <c r="A666" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B666" t="s">
+        <v>6</v>
+      </c>
+      <c r="C666" t="s">
+        <v>23</v>
+      </c>
+      <c r="D666">
+        <v>229</v>
+      </c>
+      <c r="E666">
+        <v>7.837084467685716</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5">
+      <c r="A667" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B667" t="s">
+        <v>7</v>
+      </c>
+      <c r="C667" t="s">
+        <v>24</v>
+      </c>
+      <c r="D667">
+        <v>118</v>
+      </c>
+      <c r="E667">
+        <v>6.364840191268842</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5">
+      <c r="A668" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B668" t="s">
+        <v>8</v>
+      </c>
+      <c r="C668" t="s">
+        <v>25</v>
+      </c>
+      <c r="D668">
+        <v>474</v>
+      </c>
+      <c r="E668">
+        <v>5.905047582350186</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5">
+      <c r="A669" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B669" t="s">
+        <v>9</v>
+      </c>
+      <c r="C669" t="s">
+        <v>26</v>
+      </c>
+      <c r="D669">
+        <v>18</v>
+      </c>
+      <c r="E669">
+        <v>2.660899413567335</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5">
+      <c r="A670" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B670" t="s">
+        <v>10</v>
+      </c>
+      <c r="C670" t="s">
+        <v>27</v>
+      </c>
+      <c r="D670">
+        <v>790</v>
+      </c>
+      <c r="E670">
+        <v>4.407353004595754</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5">
+      <c r="A671" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B671" t="s">
+        <v>11</v>
+      </c>
+      <c r="C671" t="s">
+        <v>28</v>
+      </c>
+      <c r="D671">
+        <v>291</v>
+      </c>
+      <c r="E671">
+        <v>4.622703957749438</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5">
+      <c r="A672" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B672" t="s">
+        <v>12</v>
+      </c>
+      <c r="C672" t="s">
+        <v>29</v>
+      </c>
+      <c r="D672">
+        <v>151</v>
+      </c>
+      <c r="E672">
+        <v>3.677110716342565</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5">
+      <c r="A673" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B673" t="s">
+        <v>13</v>
+      </c>
+      <c r="C673" t="s">
+        <v>30</v>
+      </c>
+      <c r="D673">
+        <v>347</v>
+      </c>
+      <c r="E673">
+        <v>3.119201498798793</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5">
+      <c r="A674" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B674" t="s">
+        <v>14</v>
+      </c>
+      <c r="C674" t="s">
+        <v>31</v>
+      </c>
+      <c r="D674">
+        <v>568</v>
+      </c>
+      <c r="E674">
+        <v>4.310544692721532</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5">
+      <c r="A675" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B675" t="s">
+        <v>15</v>
+      </c>
+      <c r="C675" t="s">
+        <v>32</v>
+      </c>
+      <c r="D675">
+        <v>49</v>
+      </c>
+      <c r="E675">
+        <v>4.988049041683802</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5">
+      <c r="A676" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B676" t="s">
+        <v>16</v>
+      </c>
+      <c r="C676" t="s">
+        <v>33</v>
+      </c>
+      <c r="D676">
+        <v>244</v>
+      </c>
+      <c r="E676">
+        <v>6.634992734139104</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5">
+      <c r="A677" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B677" t="s">
+        <v>17</v>
+      </c>
+      <c r="C677" t="s">
+        <v>34</v>
+      </c>
+      <c r="D677">
+        <v>166</v>
+      </c>
+      <c r="E677">
+        <v>6.540923326193481</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5">
+      <c r="A678" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B678" t="s">
+        <v>18</v>
+      </c>
+      <c r="C678" t="s">
+        <v>35</v>
+      </c>
+      <c r="D678">
+        <v>141</v>
+      </c>
+      <c r="E678">
+        <v>8.751458576429405</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5">
+      <c r="A679" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B679" t="s">
+        <v>19</v>
+      </c>
+      <c r="C679" t="s">
+        <v>36</v>
+      </c>
+      <c r="D679">
+        <v>201</v>
+      </c>
+      <c r="E679">
+        <v>4.97155331607553</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5">
+      <c r="A680" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B680" t="s">
+        <v>20</v>
+      </c>
+      <c r="C680" t="s">
+        <v>37</v>
+      </c>
+      <c r="D680">
+        <v>144</v>
+      </c>
+      <c r="E680">
+        <v>6.638229842254453</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5">
+      <c r="A681" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B681" t="s">
+        <v>21</v>
+      </c>
+      <c r="C681" t="s">
+        <v>38</v>
+      </c>
+      <c r="D681">
+        <v>117</v>
+      </c>
+      <c r="E681">
+        <v>5.548013313335195</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E681"/>
+  <dimension ref="A1:E698"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12075,6 +12075,295 @@
         <v>5.548013313335195</v>
       </c>
     </row>
+    <row r="682" spans="1:5">
+      <c r="A682" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B682" t="s">
+        <v>5</v>
+      </c>
+      <c r="C682" t="s">
+        <v>22</v>
+      </c>
+      <c r="D682">
+        <v>3929</v>
+      </c>
+      <c r="E682">
+        <v>4.720249584788633</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5">
+      <c r="A683" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B683" t="s">
+        <v>6</v>
+      </c>
+      <c r="C683" t="s">
+        <v>23</v>
+      </c>
+      <c r="D683">
+        <v>222</v>
+      </c>
+      <c r="E683">
+        <v>7.597522933738991</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5">
+      <c r="A684" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B684" t="s">
+        <v>7</v>
+      </c>
+      <c r="C684" t="s">
+        <v>24</v>
+      </c>
+      <c r="D684">
+        <v>118</v>
+      </c>
+      <c r="E684">
+        <v>6.364840191268842</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5">
+      <c r="A685" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B685" t="s">
+        <v>8</v>
+      </c>
+      <c r="C685" t="s">
+        <v>25</v>
+      </c>
+      <c r="D685">
+        <v>442</v>
+      </c>
+      <c r="E685">
+        <v>5.50639458101009</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5">
+      <c r="A686" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B686" t="s">
+        <v>9</v>
+      </c>
+      <c r="C686" t="s">
+        <v>26</v>
+      </c>
+      <c r="D686">
+        <v>18</v>
+      </c>
+      <c r="E686">
+        <v>2.660899413567335</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5">
+      <c r="A687" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B687" t="s">
+        <v>10</v>
+      </c>
+      <c r="C687" t="s">
+        <v>27</v>
+      </c>
+      <c r="D687">
+        <v>758</v>
+      </c>
+      <c r="E687">
+        <v>4.228827313270356</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5">
+      <c r="A688" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B688" t="s">
+        <v>11</v>
+      </c>
+      <c r="C688" t="s">
+        <v>28</v>
+      </c>
+      <c r="D688">
+        <v>285</v>
+      </c>
+      <c r="E688">
+        <v>4.527390474084502</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5">
+      <c r="A689" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B689" t="s">
+        <v>12</v>
+      </c>
+      <c r="C689" t="s">
+        <v>29</v>
+      </c>
+      <c r="D689">
+        <v>150</v>
+      </c>
+      <c r="E689">
+        <v>3.65275898974427</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5">
+      <c r="A690" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B690" t="s">
+        <v>13</v>
+      </c>
+      <c r="C690" t="s">
+        <v>30</v>
+      </c>
+      <c r="D690">
+        <v>333</v>
+      </c>
+      <c r="E690">
+        <v>2.993354752449562</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5">
+      <c r="A691" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B691" t="s">
+        <v>14</v>
+      </c>
+      <c r="C691" t="s">
+        <v>31</v>
+      </c>
+      <c r="D691">
+        <v>555</v>
+      </c>
+      <c r="E691">
+        <v>4.211887859965581</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5">
+      <c r="A692" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B692" t="s">
+        <v>15</v>
+      </c>
+      <c r="C692" t="s">
+        <v>32</v>
+      </c>
+      <c r="D692">
+        <v>49</v>
+      </c>
+      <c r="E692">
+        <v>4.988049041683802</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5">
+      <c r="A693" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B693" t="s">
+        <v>16</v>
+      </c>
+      <c r="C693" t="s">
+        <v>33</v>
+      </c>
+      <c r="D693">
+        <v>242</v>
+      </c>
+      <c r="E693">
+        <v>6.580607547793702</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5">
+      <c r="A694" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B694" t="s">
+        <v>17</v>
+      </c>
+      <c r="C694" t="s">
+        <v>34</v>
+      </c>
+      <c r="D694">
+        <v>161</v>
+      </c>
+      <c r="E694">
+        <v>6.343907563356329</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5">
+      <c r="A695" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B695" t="s">
+        <v>18</v>
+      </c>
+      <c r="C695" t="s">
+        <v>35</v>
+      </c>
+      <c r="D695">
+        <v>139</v>
+      </c>
+      <c r="E695">
+        <v>8.627324412224732</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5">
+      <c r="A696" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B696" t="s">
+        <v>19</v>
+      </c>
+      <c r="C696" t="s">
+        <v>36</v>
+      </c>
+      <c r="D696">
+        <v>199</v>
+      </c>
+      <c r="E696">
+        <v>4.922085123875774</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5">
+      <c r="A697" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B697" t="s">
+        <v>20</v>
+      </c>
+      <c r="C697" t="s">
+        <v>37</v>
+      </c>
+      <c r="D697">
+        <v>144</v>
+      </c>
+      <c r="E697">
+        <v>6.638229842254453</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5">
+      <c r="A698" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B698" t="s">
+        <v>21</v>
+      </c>
+      <c r="C698" t="s">
+        <v>38</v>
+      </c>
+      <c r="D698">
+        <v>114</v>
+      </c>
+      <c r="E698">
+        <v>5.405756561711216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E698"/>
+  <dimension ref="A1:E715"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12208,7 +12208,7 @@
         <v>150</v>
       </c>
       <c r="E689">
-        <v>3.65275898974427</v>
+        <v>3.652758989744271</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -12276,7 +12276,7 @@
         <v>242</v>
       </c>
       <c r="E693">
-        <v>6.580607547793702</v>
+        <v>6.580607547793703</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -12362,6 +12362,295 @@
       </c>
       <c r="E698">
         <v>5.405756561711216</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5">
+      <c r="A699" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B699" t="s">
+        <v>5</v>
+      </c>
+      <c r="C699" t="s">
+        <v>22</v>
+      </c>
+      <c r="D699">
+        <v>3853</v>
+      </c>
+      <c r="E699">
+        <v>4.628944171593435</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5">
+      <c r="A700" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B700" t="s">
+        <v>6</v>
+      </c>
+      <c r="C700" t="s">
+        <v>23</v>
+      </c>
+      <c r="D700">
+        <v>218</v>
+      </c>
+      <c r="E700">
+        <v>7.460630628626577</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5">
+      <c r="A701" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B701" t="s">
+        <v>7</v>
+      </c>
+      <c r="C701" t="s">
+        <v>24</v>
+      </c>
+      <c r="D701">
+        <v>117</v>
+      </c>
+      <c r="E701">
+        <v>6.310900867614021</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5">
+      <c r="A702" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B702" t="s">
+        <v>8</v>
+      </c>
+      <c r="C702" t="s">
+        <v>25</v>
+      </c>
+      <c r="D702">
+        <v>431</v>
+      </c>
+      <c r="E702">
+        <v>5.369357611799431</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5">
+      <c r="A703" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B703" t="s">
+        <v>9</v>
+      </c>
+      <c r="C703" t="s">
+        <v>26</v>
+      </c>
+      <c r="D703">
+        <v>18</v>
+      </c>
+      <c r="E703">
+        <v>2.660899413567335</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5">
+      <c r="A704" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B704" t="s">
+        <v>10</v>
+      </c>
+      <c r="C704" t="s">
+        <v>27</v>
+      </c>
+      <c r="D704">
+        <v>743</v>
+      </c>
+      <c r="E704">
+        <v>4.145143395461576</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5">
+      <c r="A705" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B705" t="s">
+        <v>11</v>
+      </c>
+      <c r="C705" t="s">
+        <v>28</v>
+      </c>
+      <c r="D705">
+        <v>281</v>
+      </c>
+      <c r="E705">
+        <v>4.46384815164121</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5">
+      <c r="A706" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B706" t="s">
+        <v>12</v>
+      </c>
+      <c r="C706" t="s">
+        <v>29</v>
+      </c>
+      <c r="D706">
+        <v>148</v>
+      </c>
+      <c r="E706">
+        <v>3.60405553654768</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5">
+      <c r="A707" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B707" t="s">
+        <v>13</v>
+      </c>
+      <c r="C707" t="s">
+        <v>30</v>
+      </c>
+      <c r="D707">
+        <v>326</v>
+      </c>
+      <c r="E707">
+        <v>2.930431379274947</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5">
+      <c r="A708" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B708" t="s">
+        <v>14</v>
+      </c>
+      <c r="C708" t="s">
+        <v>31</v>
+      </c>
+      <c r="D708">
+        <v>542</v>
+      </c>
+      <c r="E708">
+        <v>4.11323102720963</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5">
+      <c r="A709" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B709" t="s">
+        <v>15</v>
+      </c>
+      <c r="C709" t="s">
+        <v>32</v>
+      </c>
+      <c r="D709">
+        <v>49</v>
+      </c>
+      <c r="E709">
+        <v>4.988049041683802</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5">
+      <c r="A710" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B710" t="s">
+        <v>16</v>
+      </c>
+      <c r="C710" t="s">
+        <v>33</v>
+      </c>
+      <c r="D710">
+        <v>242</v>
+      </c>
+      <c r="E710">
+        <v>6.580607547793702</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5">
+      <c r="A711" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B711" t="s">
+        <v>17</v>
+      </c>
+      <c r="C711" t="s">
+        <v>34</v>
+      </c>
+      <c r="D711">
+        <v>161</v>
+      </c>
+      <c r="E711">
+        <v>6.343907563356329</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5">
+      <c r="A712" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B712" t="s">
+        <v>18</v>
+      </c>
+      <c r="C712" t="s">
+        <v>35</v>
+      </c>
+      <c r="D712">
+        <v>136</v>
+      </c>
+      <c r="E712">
+        <v>8.441123165917723</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5">
+      <c r="A713" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B713" t="s">
+        <v>19</v>
+      </c>
+      <c r="C713" t="s">
+        <v>36</v>
+      </c>
+      <c r="D713">
+        <v>185</v>
+      </c>
+      <c r="E713">
+        <v>4.575807778477478</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5">
+      <c r="A714" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B714" t="s">
+        <v>20</v>
+      </c>
+      <c r="C714" t="s">
+        <v>37</v>
+      </c>
+      <c r="D714">
+        <v>144</v>
+      </c>
+      <c r="E714">
+        <v>6.638229842254453</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5">
+      <c r="A715" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B715" t="s">
+        <v>21</v>
+      </c>
+      <c r="C715" t="s">
+        <v>38</v>
+      </c>
+      <c r="D715">
+        <v>112</v>
+      </c>
+      <c r="E715">
+        <v>5.310918727295229</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E715"/>
+  <dimension ref="A1:E732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12208,7 +12208,7 @@
         <v>150</v>
       </c>
       <c r="E689">
-        <v>3.652758989744271</v>
+        <v>3.652758989744272</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -12565,7 +12565,7 @@
         <v>242</v>
       </c>
       <c r="E710">
-        <v>6.580607547793702</v>
+        <v>6.580607547793703</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -12651,6 +12651,295 @@
       </c>
       <c r="E715">
         <v>5.310918727295229</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5">
+      <c r="A716" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B716" t="s">
+        <v>5</v>
+      </c>
+      <c r="C716" t="s">
+        <v>22</v>
+      </c>
+      <c r="D716">
+        <v>2565</v>
+      </c>
+      <c r="E716">
+        <v>3.08155769533796</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5">
+      <c r="A717" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B717" t="s">
+        <v>6</v>
+      </c>
+      <c r="C717" t="s">
+        <v>23</v>
+      </c>
+      <c r="D717">
+        <v>149</v>
+      </c>
+      <c r="E717">
+        <v>5.099238365437431</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5">
+      <c r="A718" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B718" t="s">
+        <v>7</v>
+      </c>
+      <c r="C718" t="s">
+        <v>24</v>
+      </c>
+      <c r="D718">
+        <v>76</v>
+      </c>
+      <c r="E718">
+        <v>4.099388597766373</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5">
+      <c r="A719" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B719" t="s">
+        <v>8</v>
+      </c>
+      <c r="C719" t="s">
+        <v>25</v>
+      </c>
+      <c r="D719">
+        <v>270</v>
+      </c>
+      <c r="E719">
+        <v>3.363634698807068</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5">
+      <c r="A720" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B720" t="s">
+        <v>9</v>
+      </c>
+      <c r="C720" t="s">
+        <v>26</v>
+      </c>
+      <c r="D720">
+        <v>13</v>
+      </c>
+      <c r="E720">
+        <v>1.921760687576408</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5">
+      <c r="A721" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B721" t="s">
+        <v>10</v>
+      </c>
+      <c r="C721" t="s">
+        <v>27</v>
+      </c>
+      <c r="D721">
+        <v>509</v>
+      </c>
+      <c r="E721">
+        <v>2.839674277644606</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5">
+      <c r="A722" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B722" t="s">
+        <v>11</v>
+      </c>
+      <c r="C722" t="s">
+        <v>28</v>
+      </c>
+      <c r="D722">
+        <v>201</v>
+      </c>
+      <c r="E722">
+        <v>3.193001702775386</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5">
+      <c r="A723" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B723" t="s">
+        <v>12</v>
+      </c>
+      <c r="C723" t="s">
+        <v>29</v>
+      </c>
+      <c r="D723">
+        <v>113</v>
+      </c>
+      <c r="E723">
+        <v>2.751745105607351</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5">
+      <c r="A724" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B724" t="s">
+        <v>13</v>
+      </c>
+      <c r="C724" t="s">
+        <v>30</v>
+      </c>
+      <c r="D724">
+        <v>222</v>
+      </c>
+      <c r="E724">
+        <v>1.995569834966375</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5">
+      <c r="A725" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B725" t="s">
+        <v>14</v>
+      </c>
+      <c r="C725" t="s">
+        <v>31</v>
+      </c>
+      <c r="D725">
+        <v>381</v>
+      </c>
+      <c r="E725">
+        <v>2.891404098462858</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5">
+      <c r="A726" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B726" t="s">
+        <v>15</v>
+      </c>
+      <c r="C726" t="s">
+        <v>32</v>
+      </c>
+      <c r="D726">
+        <v>31</v>
+      </c>
+      <c r="E726">
+        <v>3.15570449575914</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5">
+      <c r="A727" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B727" t="s">
+        <v>16</v>
+      </c>
+      <c r="C727" t="s">
+        <v>33</v>
+      </c>
+      <c r="D727">
+        <v>146</v>
+      </c>
+      <c r="E727">
+        <v>3.970118603214382</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5">
+      <c r="A728" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B728" t="s">
+        <v>17</v>
+      </c>
+      <c r="C728" t="s">
+        <v>34</v>
+      </c>
+      <c r="D728">
+        <v>108</v>
+      </c>
+      <c r="E728">
+        <v>4.255540477282506</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5">
+      <c r="A729" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B729" t="s">
+        <v>18</v>
+      </c>
+      <c r="C729" t="s">
+        <v>35</v>
+      </c>
+      <c r="D729">
+        <v>79</v>
+      </c>
+      <c r="E729">
+        <v>4.90329948608456</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5">
+      <c r="A730" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B730" t="s">
+        <v>19</v>
+      </c>
+      <c r="C730" t="s">
+        <v>36</v>
+      </c>
+      <c r="D730">
+        <v>126</v>
+      </c>
+      <c r="E730">
+        <v>3.116496108584661</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5">
+      <c r="A731" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B731" t="s">
+        <v>20</v>
+      </c>
+      <c r="C731" t="s">
+        <v>37</v>
+      </c>
+      <c r="D731">
+        <v>78</v>
+      </c>
+      <c r="E731">
+        <v>3.595707831221162</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5">
+      <c r="A732" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B732" t="s">
+        <v>21</v>
+      </c>
+      <c r="C732" t="s">
+        <v>38</v>
+      </c>
+      <c r="D732">
+        <v>63</v>
+      </c>
+      <c r="E732">
+        <v>2.987391784103567</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E732"/>
+  <dimension ref="A1:E749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12803,7 +12803,7 @@
         <v>222</v>
       </c>
       <c r="E724">
-        <v>1.995569834966375</v>
+        <v>1.995569834966374</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -12939,7 +12939,296 @@
         <v>63</v>
       </c>
       <c r="E732">
-        <v>2.987391784103567</v>
+        <v>2.987391784103566</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5">
+      <c r="A733" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B733" t="s">
+        <v>5</v>
+      </c>
+      <c r="C733" t="s">
+        <v>22</v>
+      </c>
+      <c r="D733">
+        <v>2579</v>
+      </c>
+      <c r="E733">
+        <v>3.098377113558128</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5">
+      <c r="A734" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B734" t="s">
+        <v>6</v>
+      </c>
+      <c r="C734" t="s">
+        <v>23</v>
+      </c>
+      <c r="D734">
+        <v>167</v>
+      </c>
+      <c r="E734">
+        <v>5.715253738443295</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5">
+      <c r="A735" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B735" t="s">
+        <v>7</v>
+      </c>
+      <c r="C735" t="s">
+        <v>24</v>
+      </c>
+      <c r="D735">
+        <v>107</v>
+      </c>
+      <c r="E735">
+        <v>5.771507631065814</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5">
+      <c r="A736" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B736" t="s">
+        <v>8</v>
+      </c>
+      <c r="C736" t="s">
+        <v>25</v>
+      </c>
+      <c r="D736">
+        <v>239</v>
+      </c>
+      <c r="E736">
+        <v>2.977439603758849</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5">
+      <c r="A737" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B737" t="s">
+        <v>9</v>
+      </c>
+      <c r="C737" t="s">
+        <v>26</v>
+      </c>
+      <c r="D737">
+        <v>13</v>
+      </c>
+      <c r="E737">
+        <v>1.921760687576408</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5">
+      <c r="A738" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B738" t="s">
+        <v>10</v>
+      </c>
+      <c r="C738" t="s">
+        <v>27</v>
+      </c>
+      <c r="D738">
+        <v>512</v>
+      </c>
+      <c r="E738">
+        <v>2.856411061206362</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5">
+      <c r="A739" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B739" t="s">
+        <v>11</v>
+      </c>
+      <c r="C739" t="s">
+        <v>28</v>
+      </c>
+      <c r="D739">
+        <v>238</v>
+      </c>
+      <c r="E739">
+        <v>3.780768185375829</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5">
+      <c r="A740" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B740" t="s">
+        <v>12</v>
+      </c>
+      <c r="C740" t="s">
+        <v>29</v>
+      </c>
+      <c r="D740">
+        <v>87</v>
+      </c>
+      <c r="E740">
+        <v>2.118600214051677</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5">
+      <c r="A741" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B741" t="s">
+        <v>13</v>
+      </c>
+      <c r="C741" t="s">
+        <v>30</v>
+      </c>
+      <c r="D741">
+        <v>222</v>
+      </c>
+      <c r="E741">
+        <v>1.995569834966375</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5">
+      <c r="A742" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B742" t="s">
+        <v>14</v>
+      </c>
+      <c r="C742" t="s">
+        <v>31</v>
+      </c>
+      <c r="D742">
+        <v>413</v>
+      </c>
+      <c r="E742">
+        <v>3.134251686785198</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5">
+      <c r="A743" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B743" t="s">
+        <v>15</v>
+      </c>
+      <c r="C743" t="s">
+        <v>32</v>
+      </c>
+      <c r="D743">
+        <v>36</v>
+      </c>
+      <c r="E743">
+        <v>3.664689091849324</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5">
+      <c r="A744" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B744" t="s">
+        <v>16</v>
+      </c>
+      <c r="C744" t="s">
+        <v>33</v>
+      </c>
+      <c r="D744">
+        <v>128</v>
+      </c>
+      <c r="E744">
+        <v>3.48065192610576</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5">
+      <c r="A745" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B745" t="s">
+        <v>17</v>
+      </c>
+      <c r="C745" t="s">
+        <v>34</v>
+      </c>
+      <c r="D745">
+        <v>88</v>
+      </c>
+      <c r="E745">
+        <v>3.467477425933894</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5">
+      <c r="A746" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B746" t="s">
+        <v>18</v>
+      </c>
+      <c r="C746" t="s">
+        <v>35</v>
+      </c>
+      <c r="D746">
+        <v>75</v>
+      </c>
+      <c r="E746">
+        <v>4.655031157675215</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5">
+      <c r="A747" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B747" t="s">
+        <v>19</v>
+      </c>
+      <c r="C747" t="s">
+        <v>36</v>
+      </c>
+      <c r="D747">
+        <v>106</v>
+      </c>
+      <c r="E747">
+        <v>2.621814186587096</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5">
+      <c r="A748" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B748" t="s">
+        <v>20</v>
+      </c>
+      <c r="C748" t="s">
+        <v>37</v>
+      </c>
+      <c r="D748">
+        <v>78</v>
+      </c>
+      <c r="E748">
+        <v>3.595707831221162</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5">
+      <c r="A749" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B749" t="s">
+        <v>21</v>
+      </c>
+      <c r="C749" t="s">
+        <v>38</v>
+      </c>
+      <c r="D749">
+        <v>70</v>
+      </c>
+      <c r="E749">
+        <v>3.319324204559519</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E749"/>
+  <dimension ref="A1:E766"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13092,7 +13092,7 @@
         <v>222</v>
       </c>
       <c r="E741">
-        <v>1.995569834966375</v>
+        <v>1.995569834966374</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -13229,6 +13229,295 @@
       </c>
       <c r="E749">
         <v>3.319324204559519</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5">
+      <c r="A750" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B750" t="s">
+        <v>5</v>
+      </c>
+      <c r="C750" t="s">
+        <v>22</v>
+      </c>
+      <c r="D750">
+        <v>2545</v>
+      </c>
+      <c r="E750">
+        <v>3.057529955023434</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5">
+      <c r="A751" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B751" t="s">
+        <v>6</v>
+      </c>
+      <c r="C751" t="s">
+        <v>23</v>
+      </c>
+      <c r="D751">
+        <v>150</v>
+      </c>
+      <c r="E751">
+        <v>5.133461441715534</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="A752" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B752" t="s">
+        <v>7</v>
+      </c>
+      <c r="C752" t="s">
+        <v>24</v>
+      </c>
+      <c r="D752">
+        <v>95</v>
+      </c>
+      <c r="E752">
+        <v>5.124235747207965</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B753" t="s">
+        <v>8</v>
+      </c>
+      <c r="C753" t="s">
+        <v>25</v>
+      </c>
+      <c r="D753">
+        <v>275</v>
+      </c>
+      <c r="E753">
+        <v>3.425924230266459</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B754" t="s">
+        <v>9</v>
+      </c>
+      <c r="C754" t="s">
+        <v>26</v>
+      </c>
+      <c r="D754">
+        <v>25</v>
+      </c>
+      <c r="E754">
+        <v>3.695693629954631</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B755" t="s">
+        <v>10</v>
+      </c>
+      <c r="C755" t="s">
+        <v>27</v>
+      </c>
+      <c r="D755">
+        <v>460</v>
+      </c>
+      <c r="E755">
+        <v>2.566306812802591</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B756" t="s">
+        <v>11</v>
+      </c>
+      <c r="C756" t="s">
+        <v>28</v>
+      </c>
+      <c r="D756">
+        <v>249</v>
+      </c>
+      <c r="E756">
+        <v>3.955509572094881</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B757" t="s">
+        <v>12</v>
+      </c>
+      <c r="C757" t="s">
+        <v>29</v>
+      </c>
+      <c r="D757">
+        <v>94</v>
+      </c>
+      <c r="E757">
+        <v>2.289062300239743</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B758" t="s">
+        <v>13</v>
+      </c>
+      <c r="C758" t="s">
+        <v>30</v>
+      </c>
+      <c r="D758">
+        <v>216</v>
+      </c>
+      <c r="E758">
+        <v>1.941635515102418</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B759" t="s">
+        <v>14</v>
+      </c>
+      <c r="C759" t="s">
+        <v>31</v>
+      </c>
+      <c r="D759">
+        <v>386</v>
+      </c>
+      <c r="E759">
+        <v>2.929349034138224</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B760" t="s">
+        <v>15</v>
+      </c>
+      <c r="C760" t="s">
+        <v>32</v>
+      </c>
+      <c r="D760">
+        <v>36</v>
+      </c>
+      <c r="E760">
+        <v>3.664689091849324</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B761" t="s">
+        <v>16</v>
+      </c>
+      <c r="C761" t="s">
+        <v>33</v>
+      </c>
+      <c r="D761">
+        <v>144</v>
+      </c>
+      <c r="E761">
+        <v>3.915733416868979</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B762" t="s">
+        <v>17</v>
+      </c>
+      <c r="C762" t="s">
+        <v>34</v>
+      </c>
+      <c r="D762">
+        <v>88</v>
+      </c>
+      <c r="E762">
+        <v>3.467477425933894</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B763" t="s">
+        <v>18</v>
+      </c>
+      <c r="C763" t="s">
+        <v>35</v>
+      </c>
+      <c r="D763">
+        <v>70</v>
+      </c>
+      <c r="E763">
+        <v>4.344695747163534</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B764" t="s">
+        <v>19</v>
+      </c>
+      <c r="C764" t="s">
+        <v>36</v>
+      </c>
+      <c r="D764">
+        <v>116</v>
+      </c>
+      <c r="E764">
+        <v>2.869155147585878</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5">
+      <c r="A765" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B765" t="s">
+        <v>20</v>
+      </c>
+      <c r="C765" t="s">
+        <v>37</v>
+      </c>
+      <c r="D765">
+        <v>78</v>
+      </c>
+      <c r="E765">
+        <v>3.595707831221162</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5">
+      <c r="A766" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B766" t="s">
+        <v>21</v>
+      </c>
+      <c r="C766" t="s">
+        <v>38</v>
+      </c>
+      <c r="D766">
+        <v>63</v>
+      </c>
+      <c r="E766">
+        <v>2.987391784103567</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E766"/>
+  <dimension ref="A1:E783"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13313,7 +13313,7 @@
         <v>25</v>
       </c>
       <c r="E754">
-        <v>3.695693629954631</v>
+        <v>3.695693629954632</v>
       </c>
     </row>
     <row r="755" spans="1:5">
@@ -13517,7 +13517,296 @@
         <v>63</v>
       </c>
       <c r="E766">
-        <v>2.987391784103567</v>
+        <v>2.987391784103566</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5">
+      <c r="A767" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B767" t="s">
+        <v>5</v>
+      </c>
+      <c r="C767" t="s">
+        <v>22</v>
+      </c>
+      <c r="D767">
+        <v>2548</v>
+      </c>
+      <c r="E767">
+        <v>3.061134116070613</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5">
+      <c r="A768" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B768" t="s">
+        <v>6</v>
+      </c>
+      <c r="C768" t="s">
+        <v>23</v>
+      </c>
+      <c r="D768">
+        <v>133</v>
+      </c>
+      <c r="E768">
+        <v>4.551669144987774</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5">
+      <c r="A769" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B769" t="s">
+        <v>7</v>
+      </c>
+      <c r="C769" t="s">
+        <v>24</v>
+      </c>
+      <c r="D769">
+        <v>91</v>
+      </c>
+      <c r="E769">
+        <v>4.908478452588683</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5">
+      <c r="A770" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B770" t="s">
+        <v>8</v>
+      </c>
+      <c r="C770" t="s">
+        <v>25</v>
+      </c>
+      <c r="D770">
+        <v>288</v>
+      </c>
+      <c r="E770">
+        <v>3.587877012060873</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5">
+      <c r="A771" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B771" t="s">
+        <v>9</v>
+      </c>
+      <c r="C771" t="s">
+        <v>26</v>
+      </c>
+      <c r="D771">
+        <v>25</v>
+      </c>
+      <c r="E771">
+        <v>3.695693629954631</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5">
+      <c r="A772" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B772" t="s">
+        <v>10</v>
+      </c>
+      <c r="C772" t="s">
+        <v>27</v>
+      </c>
+      <c r="D772">
+        <v>478</v>
+      </c>
+      <c r="E772">
+        <v>2.666727514173127</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5">
+      <c r="A773" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B773" t="s">
+        <v>11</v>
+      </c>
+      <c r="C773" t="s">
+        <v>28</v>
+      </c>
+      <c r="D773">
+        <v>231</v>
+      </c>
+      <c r="E773">
+        <v>3.66956912110007</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5">
+      <c r="A774" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B774" t="s">
+        <v>12</v>
+      </c>
+      <c r="C774" t="s">
+        <v>29</v>
+      </c>
+      <c r="D774">
+        <v>86</v>
+      </c>
+      <c r="E774">
+        <v>2.094248487453382</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5">
+      <c r="A775" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B775" t="s">
+        <v>13</v>
+      </c>
+      <c r="C775" t="s">
+        <v>30</v>
+      </c>
+      <c r="D775">
+        <v>237</v>
+      </c>
+      <c r="E775">
+        <v>2.130405634626265</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5">
+      <c r="A776" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B776" t="s">
+        <v>14</v>
+      </c>
+      <c r="C776" t="s">
+        <v>31</v>
+      </c>
+      <c r="D776">
+        <v>376</v>
+      </c>
+      <c r="E776">
+        <v>2.853459162787493</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5">
+      <c r="A777" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B777" t="s">
+        <v>15</v>
+      </c>
+      <c r="C777" t="s">
+        <v>32</v>
+      </c>
+      <c r="D777">
+        <v>35</v>
+      </c>
+      <c r="E777">
+        <v>3.562892172631287</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5">
+      <c r="A778" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B778" t="s">
+        <v>16</v>
+      </c>
+      <c r="C778" t="s">
+        <v>33</v>
+      </c>
+      <c r="D778">
+        <v>153</v>
+      </c>
+      <c r="E778">
+        <v>4.160466755423291</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5">
+      <c r="A779" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B779" t="s">
+        <v>17</v>
+      </c>
+      <c r="C779" t="s">
+        <v>34</v>
+      </c>
+      <c r="D779">
+        <v>71</v>
+      </c>
+      <c r="E779">
+        <v>2.797623832287574</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5">
+      <c r="A780" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B780" t="s">
+        <v>18</v>
+      </c>
+      <c r="C780" t="s">
+        <v>35</v>
+      </c>
+      <c r="D780">
+        <v>90</v>
+      </c>
+      <c r="E780">
+        <v>5.586037389210259</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5">
+      <c r="A781" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B781" t="s">
+        <v>19</v>
+      </c>
+      <c r="C781" t="s">
+        <v>36</v>
+      </c>
+      <c r="D781">
+        <v>124</v>
+      </c>
+      <c r="E781">
+        <v>3.067027916384904</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5">
+      <c r="A782" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B782" t="s">
+        <v>20</v>
+      </c>
+      <c r="C782" t="s">
+        <v>37</v>
+      </c>
+      <c r="D782">
+        <v>79</v>
+      </c>
+      <c r="E782">
+        <v>3.641806649570151</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5">
+      <c r="A783" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B783" t="s">
+        <v>21</v>
+      </c>
+      <c r="C783" t="s">
+        <v>38</v>
+      </c>
+      <c r="D783">
+        <v>51</v>
+      </c>
+      <c r="E783">
+        <v>2.418364777607649</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E783"/>
+  <dimension ref="A1:E800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13602,7 +13602,7 @@
         <v>25</v>
       </c>
       <c r="E771">
-        <v>3.695693629954631</v>
+        <v>3.695693629954632</v>
       </c>
     </row>
     <row r="772" spans="1:5">
@@ -13807,6 +13807,295 @@
       </c>
       <c r="E783">
         <v>2.418364777607649</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5">
+      <c r="A784" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B784" t="s">
+        <v>5</v>
+      </c>
+      <c r="C784" t="s">
+        <v>22</v>
+      </c>
+      <c r="D784">
+        <v>2567</v>
+      </c>
+      <c r="E784">
+        <v>3.083960469369412</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5">
+      <c r="A785" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B785" t="s">
+        <v>6</v>
+      </c>
+      <c r="C785" t="s">
+        <v>23</v>
+      </c>
+      <c r="D785">
+        <v>149</v>
+      </c>
+      <c r="E785">
+        <v>5.099238365437431</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5">
+      <c r="A786" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B786" t="s">
+        <v>7</v>
+      </c>
+      <c r="C786" t="s">
+        <v>24</v>
+      </c>
+      <c r="D786">
+        <v>80</v>
+      </c>
+      <c r="E786">
+        <v>4.315145892385655</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5">
+      <c r="A787" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B787" t="s">
+        <v>8</v>
+      </c>
+      <c r="C787" t="s">
+        <v>25</v>
+      </c>
+      <c r="D787">
+        <v>304</v>
+      </c>
+      <c r="E787">
+        <v>3.787203512730922</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5">
+      <c r="A788" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B788" t="s">
+        <v>9</v>
+      </c>
+      <c r="C788" t="s">
+        <v>26</v>
+      </c>
+      <c r="D788">
+        <v>21</v>
+      </c>
+      <c r="E788">
+        <v>3.104382649161891</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5">
+      <c r="A789" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B789" t="s">
+        <v>10</v>
+      </c>
+      <c r="C789" t="s">
+        <v>27</v>
+      </c>
+      <c r="D789">
+        <v>467</v>
+      </c>
+      <c r="E789">
+        <v>2.605359307780021</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5">
+      <c r="A790" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B790" t="s">
+        <v>11</v>
+      </c>
+      <c r="C790" t="s">
+        <v>28</v>
+      </c>
+      <c r="D790">
+        <v>216</v>
+      </c>
+      <c r="E790">
+        <v>3.431285411937728</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5">
+      <c r="A791" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B791" t="s">
+        <v>12</v>
+      </c>
+      <c r="C791" t="s">
+        <v>29</v>
+      </c>
+      <c r="D791">
+        <v>100</v>
+      </c>
+      <c r="E791">
+        <v>2.435172659829514</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5">
+      <c r="A792" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B792" t="s">
+        <v>13</v>
+      </c>
+      <c r="C792" t="s">
+        <v>30</v>
+      </c>
+      <c r="D792">
+        <v>236</v>
+      </c>
+      <c r="E792">
+        <v>2.121416581315605</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5">
+      <c r="A793" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B793" t="s">
+        <v>14</v>
+      </c>
+      <c r="C793" t="s">
+        <v>31</v>
+      </c>
+      <c r="D793">
+        <v>357</v>
+      </c>
+      <c r="E793">
+        <v>2.709268407221103</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5">
+      <c r="A794" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B794" t="s">
+        <v>15</v>
+      </c>
+      <c r="C794" t="s">
+        <v>32</v>
+      </c>
+      <c r="D794">
+        <v>43</v>
+      </c>
+      <c r="E794">
+        <v>4.377267526375582</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5">
+      <c r="A795" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B795" t="s">
+        <v>16</v>
+      </c>
+      <c r="C795" t="s">
+        <v>33</v>
+      </c>
+      <c r="D795">
+        <v>131</v>
+      </c>
+      <c r="E795">
+        <v>3.562229705623864</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5">
+      <c r="A796" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B796" t="s">
+        <v>17</v>
+      </c>
+      <c r="C796" t="s">
+        <v>34</v>
+      </c>
+      <c r="D796">
+        <v>80</v>
+      </c>
+      <c r="E796">
+        <v>3.152252205394449</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5">
+      <c r="A797" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B797" t="s">
+        <v>18</v>
+      </c>
+      <c r="C797" t="s">
+        <v>35</v>
+      </c>
+      <c r="D797">
+        <v>90</v>
+      </c>
+      <c r="E797">
+        <v>5.586037389210259</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5">
+      <c r="A798" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B798" t="s">
+        <v>19</v>
+      </c>
+      <c r="C798" t="s">
+        <v>36</v>
+      </c>
+      <c r="D798">
+        <v>145</v>
+      </c>
+      <c r="E798">
+        <v>3.586443934482348</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5">
+      <c r="A799" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B799" t="s">
+        <v>20</v>
+      </c>
+      <c r="C799" t="s">
+        <v>37</v>
+      </c>
+      <c r="D799">
+        <v>88</v>
+      </c>
+      <c r="E799">
+        <v>4.056696014711055</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5">
+      <c r="A800" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B800" t="s">
+        <v>21</v>
+      </c>
+      <c r="C800" t="s">
+        <v>38</v>
+      </c>
+      <c r="D800">
+        <v>60</v>
+      </c>
+      <c r="E800">
+        <v>2.845135032479587</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E800"/>
+  <dimension ref="A1:E817"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13976,7 +13976,7 @@
         <v>357</v>
       </c>
       <c r="E793">
-        <v>2.709268407221103</v>
+        <v>2.709268407221104</v>
       </c>
     </row>
     <row r="794" spans="1:5">
@@ -14095,6 +14095,295 @@
         <v>60</v>
       </c>
       <c r="E800">
+        <v>2.845135032479587</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5">
+      <c r="A801" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B801" t="s">
+        <v>5</v>
+      </c>
+      <c r="C801" t="s">
+        <v>22</v>
+      </c>
+      <c r="D801">
+        <v>2507</v>
+      </c>
+      <c r="E801">
+        <v>3.011877248425835</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5">
+      <c r="A802" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B802" t="s">
+        <v>6</v>
+      </c>
+      <c r="C802" t="s">
+        <v>23</v>
+      </c>
+      <c r="D802">
+        <v>145</v>
+      </c>
+      <c r="E802">
+        <v>4.962346060325016</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5">
+      <c r="A803" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B803" t="s">
+        <v>7</v>
+      </c>
+      <c r="C803" t="s">
+        <v>24</v>
+      </c>
+      <c r="D803">
+        <v>80</v>
+      </c>
+      <c r="E803">
+        <v>4.315145892385655</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5">
+      <c r="A804" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B804" t="s">
+        <v>8</v>
+      </c>
+      <c r="C804" t="s">
+        <v>25</v>
+      </c>
+      <c r="D804">
+        <v>287</v>
+      </c>
+      <c r="E804">
+        <v>3.575419105768995</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5">
+      <c r="A805" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B805" t="s">
+        <v>9</v>
+      </c>
+      <c r="C805" t="s">
+        <v>26</v>
+      </c>
+      <c r="D805">
+        <v>21</v>
+      </c>
+      <c r="E805">
+        <v>3.104382649161891</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5">
+      <c r="A806" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B806" t="s">
+        <v>10</v>
+      </c>
+      <c r="C806" t="s">
+        <v>27</v>
+      </c>
+      <c r="D806">
+        <v>454</v>
+      </c>
+      <c r="E806">
+        <v>2.532833245679079</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5">
+      <c r="A807" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B807" t="s">
+        <v>11</v>
+      </c>
+      <c r="C807" t="s">
+        <v>28</v>
+      </c>
+      <c r="D807">
+        <v>213</v>
+      </c>
+      <c r="E807">
+        <v>3.38362867010526</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5">
+      <c r="A808" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B808" t="s">
+        <v>12</v>
+      </c>
+      <c r="C808" t="s">
+        <v>29</v>
+      </c>
+      <c r="D808">
+        <v>98</v>
+      </c>
+      <c r="E808">
+        <v>2.386469206632923</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5">
+      <c r="A809" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B809" t="s">
+        <v>13</v>
+      </c>
+      <c r="C809" t="s">
+        <v>30</v>
+      </c>
+      <c r="D809">
+        <v>232</v>
+      </c>
+      <c r="E809">
+        <v>2.085460368072968</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5">
+      <c r="A810" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B810" t="s">
+        <v>14</v>
+      </c>
+      <c r="C810" t="s">
+        <v>31</v>
+      </c>
+      <c r="D810">
+        <v>346</v>
+      </c>
+      <c r="E810">
+        <v>2.625789548735299</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5">
+      <c r="A811" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B811" t="s">
+        <v>15</v>
+      </c>
+      <c r="C811" t="s">
+        <v>32</v>
+      </c>
+      <c r="D811">
+        <v>43</v>
+      </c>
+      <c r="E811">
+        <v>4.377267526375582</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5">
+      <c r="A812" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B812" t="s">
+        <v>16</v>
+      </c>
+      <c r="C812" t="s">
+        <v>33</v>
+      </c>
+      <c r="D812">
+        <v>131</v>
+      </c>
+      <c r="E812">
+        <v>3.562229705623864</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5">
+      <c r="A813" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B813" t="s">
+        <v>17</v>
+      </c>
+      <c r="C813" t="s">
+        <v>34</v>
+      </c>
+      <c r="D813">
+        <v>80</v>
+      </c>
+      <c r="E813">
+        <v>3.152252205394449</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5">
+      <c r="A814" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B814" t="s">
+        <v>18</v>
+      </c>
+      <c r="C814" t="s">
+        <v>35</v>
+      </c>
+      <c r="D814">
+        <v>90</v>
+      </c>
+      <c r="E814">
+        <v>5.586037389210259</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5">
+      <c r="A815" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B815" t="s">
+        <v>19</v>
+      </c>
+      <c r="C815" t="s">
+        <v>36</v>
+      </c>
+      <c r="D815">
+        <v>139</v>
+      </c>
+      <c r="E815">
+        <v>3.438039357883078</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5">
+      <c r="A816" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B816" t="s">
+        <v>20</v>
+      </c>
+      <c r="C816" t="s">
+        <v>37</v>
+      </c>
+      <c r="D816">
+        <v>88</v>
+      </c>
+      <c r="E816">
+        <v>4.056696014711055</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B817" t="s">
+        <v>21</v>
+      </c>
+      <c r="C817" t="s">
+        <v>38</v>
+      </c>
+      <c r="D817">
+        <v>60</v>
+      </c>
+      <c r="E817">
         <v>2.845135032479587</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E817"/>
+  <dimension ref="A1:E834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14387,6 +14387,295 @@
         <v>2.845135032479587</v>
       </c>
     </row>
+    <row r="818" spans="1:5">
+      <c r="A818" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B818" t="s">
+        <v>5</v>
+      </c>
+      <c r="C818" t="s">
+        <v>22</v>
+      </c>
+      <c r="D818">
+        <v>2470</v>
+      </c>
+      <c r="E818">
+        <v>2.967425928843961</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5">
+      <c r="A819" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B819" t="s">
+        <v>6</v>
+      </c>
+      <c r="C819" t="s">
+        <v>23</v>
+      </c>
+      <c r="D819">
+        <v>142</v>
+      </c>
+      <c r="E819">
+        <v>4.859676831490706</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B820" t="s">
+        <v>7</v>
+      </c>
+      <c r="C820" t="s">
+        <v>24</v>
+      </c>
+      <c r="D820">
+        <v>80</v>
+      </c>
+      <c r="E820">
+        <v>4.315145892385655</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="A821" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B821" t="s">
+        <v>8</v>
+      </c>
+      <c r="C821" t="s">
+        <v>25</v>
+      </c>
+      <c r="D821">
+        <v>281</v>
+      </c>
+      <c r="E821">
+        <v>3.500671668017727</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="A822" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B822" t="s">
+        <v>9</v>
+      </c>
+      <c r="C822" t="s">
+        <v>26</v>
+      </c>
+      <c r="D822">
+        <v>21</v>
+      </c>
+      <c r="E822">
+        <v>3.104382649161891</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5">
+      <c r="A823" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B823" t="s">
+        <v>10</v>
+      </c>
+      <c r="C823" t="s">
+        <v>27</v>
+      </c>
+      <c r="D823">
+        <v>445</v>
+      </c>
+      <c r="E823">
+        <v>2.482622894993811</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5">
+      <c r="A824" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B824" t="s">
+        <v>11</v>
+      </c>
+      <c r="C824" t="s">
+        <v>28</v>
+      </c>
+      <c r="D824">
+        <v>208</v>
+      </c>
+      <c r="E824">
+        <v>3.304200767051146</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B825" t="s">
+        <v>12</v>
+      </c>
+      <c r="C825" t="s">
+        <v>29</v>
+      </c>
+      <c r="D825">
+        <v>96</v>
+      </c>
+      <c r="E825">
+        <v>2.337765753436333</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B826" t="s">
+        <v>13</v>
+      </c>
+      <c r="C826" t="s">
+        <v>30</v>
+      </c>
+      <c r="D826">
+        <v>228</v>
+      </c>
+      <c r="E826">
+        <v>2.049504154830331</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B827" t="s">
+        <v>14</v>
+      </c>
+      <c r="C827" t="s">
+        <v>31</v>
+      </c>
+      <c r="D827">
+        <v>345</v>
+      </c>
+      <c r="E827">
+        <v>2.618200561600226</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="A828" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B828" t="s">
+        <v>15</v>
+      </c>
+      <c r="C828" t="s">
+        <v>32</v>
+      </c>
+      <c r="D828">
+        <v>42</v>
+      </c>
+      <c r="E828">
+        <v>4.275470607157545</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5">
+      <c r="A829" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B829" t="s">
+        <v>16</v>
+      </c>
+      <c r="C829" t="s">
+        <v>33</v>
+      </c>
+      <c r="D829">
+        <v>131</v>
+      </c>
+      <c r="E829">
+        <v>3.562229705623864</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5">
+      <c r="A830" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B830" t="s">
+        <v>17</v>
+      </c>
+      <c r="C830" t="s">
+        <v>34</v>
+      </c>
+      <c r="D830">
+        <v>80</v>
+      </c>
+      <c r="E830">
+        <v>3.152252205394449</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5">
+      <c r="A831" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B831" t="s">
+        <v>18</v>
+      </c>
+      <c r="C831" t="s">
+        <v>35</v>
+      </c>
+      <c r="D831">
+        <v>88</v>
+      </c>
+      <c r="E831">
+        <v>5.461903225005586</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5">
+      <c r="A832" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B832" t="s">
+        <v>19</v>
+      </c>
+      <c r="C832" t="s">
+        <v>36</v>
+      </c>
+      <c r="D832">
+        <v>137</v>
+      </c>
+      <c r="E832">
+        <v>3.388571165683322</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5">
+      <c r="A833" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B833" t="s">
+        <v>20</v>
+      </c>
+      <c r="C833" t="s">
+        <v>37</v>
+      </c>
+      <c r="D833">
+        <v>87</v>
+      </c>
+      <c r="E833">
+        <v>4.010597196362066</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5">
+      <c r="A834" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B834" t="s">
+        <v>21</v>
+      </c>
+      <c r="C834" t="s">
+        <v>38</v>
+      </c>
+      <c r="D834">
+        <v>59</v>
+      </c>
+      <c r="E834">
+        <v>2.797716115271594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E834"/>
+  <dimension ref="A1:E851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14503,7 +14503,7 @@
         <v>208</v>
       </c>
       <c r="E824">
-        <v>3.304200767051146</v>
+        <v>3.304200767051145</v>
       </c>
     </row>
     <row r="825" spans="1:5">
@@ -14639,7 +14639,7 @@
         <v>137</v>
       </c>
       <c r="E832">
-        <v>3.388571165683322</v>
+        <v>3.388571165683321</v>
       </c>
     </row>
     <row r="833" spans="1:5">
@@ -14674,6 +14674,295 @@
       </c>
       <c r="E834">
         <v>2.797716115271594</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5">
+      <c r="A835" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B835" t="s">
+        <v>5</v>
+      </c>
+      <c r="C835" t="s">
+        <v>22</v>
+      </c>
+      <c r="D835">
+        <v>3104</v>
+      </c>
+      <c r="E835">
+        <v>3.729105296814435</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5">
+      <c r="A836" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B836" t="s">
+        <v>6</v>
+      </c>
+      <c r="C836" t="s">
+        <v>23</v>
+      </c>
+      <c r="D836">
+        <v>188</v>
+      </c>
+      <c r="E836">
+        <v>6.43393834028347</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5">
+      <c r="A837" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B837" t="s">
+        <v>7</v>
+      </c>
+      <c r="C837" t="s">
+        <v>24</v>
+      </c>
+      <c r="D837">
+        <v>110</v>
+      </c>
+      <c r="E837">
+        <v>5.933325602030276</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5">
+      <c r="A838" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B838" t="s">
+        <v>8</v>
+      </c>
+      <c r="C838" t="s">
+        <v>25</v>
+      </c>
+      <c r="D838">
+        <v>316</v>
+      </c>
+      <c r="E838">
+        <v>3.936698388233458</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5">
+      <c r="A839" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B839" t="s">
+        <v>9</v>
+      </c>
+      <c r="C839" t="s">
+        <v>26</v>
+      </c>
+      <c r="D839">
+        <v>22</v>
+      </c>
+      <c r="E839">
+        <v>3.252210394360076</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5">
+      <c r="A840" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B840" t="s">
+        <v>10</v>
+      </c>
+      <c r="C840" t="s">
+        <v>27</v>
+      </c>
+      <c r="D840">
+        <v>588</v>
+      </c>
+      <c r="E840">
+        <v>3.280409578104181</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5">
+      <c r="A841" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B841" t="s">
+        <v>11</v>
+      </c>
+      <c r="C841" t="s">
+        <v>28</v>
+      </c>
+      <c r="D841">
+        <v>299</v>
+      </c>
+      <c r="E841">
+        <v>4.749788602636022</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5">
+      <c r="A842" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B842" t="s">
+        <v>12</v>
+      </c>
+      <c r="C842" t="s">
+        <v>29</v>
+      </c>
+      <c r="D842">
+        <v>125</v>
+      </c>
+      <c r="E842">
+        <v>3.043965824786892</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5">
+      <c r="A843" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B843" t="s">
+        <v>13</v>
+      </c>
+      <c r="C843" t="s">
+        <v>30</v>
+      </c>
+      <c r="D843">
+        <v>277</v>
+      </c>
+      <c r="E843">
+        <v>2.489967767052639</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5">
+      <c r="A844" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B844" t="s">
+        <v>14</v>
+      </c>
+      <c r="C844" t="s">
+        <v>31</v>
+      </c>
+      <c r="D844">
+        <v>440</v>
+      </c>
+      <c r="E844">
+        <v>3.339154339432172</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5">
+      <c r="A845" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B845" t="s">
+        <v>15</v>
+      </c>
+      <c r="C845" t="s">
+        <v>32</v>
+      </c>
+      <c r="D845">
+        <v>53</v>
+      </c>
+      <c r="E845">
+        <v>5.39523671855595</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5">
+      <c r="A846" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B846" t="s">
+        <v>16</v>
+      </c>
+      <c r="C846" t="s">
+        <v>33</v>
+      </c>
+      <c r="D846">
+        <v>163</v>
+      </c>
+      <c r="E846">
+        <v>4.432392687150303</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5">
+      <c r="A847" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B847" t="s">
+        <v>17</v>
+      </c>
+      <c r="C847" t="s">
+        <v>34</v>
+      </c>
+      <c r="D847">
+        <v>94</v>
+      </c>
+      <c r="E847">
+        <v>3.703896341338477</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5">
+      <c r="A848" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B848" t="s">
+        <v>18</v>
+      </c>
+      <c r="C848" t="s">
+        <v>35</v>
+      </c>
+      <c r="D848">
+        <v>86</v>
+      </c>
+      <c r="E848">
+        <v>5.337769060800913</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5">
+      <c r="A849" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B849" t="s">
+        <v>19</v>
+      </c>
+      <c r="C849" t="s">
+        <v>36</v>
+      </c>
+      <c r="D849">
+        <v>158</v>
+      </c>
+      <c r="E849">
+        <v>3.907987183780765</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5">
+      <c r="A850" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B850" t="s">
+        <v>20</v>
+      </c>
+      <c r="C850" t="s">
+        <v>37</v>
+      </c>
+      <c r="D850">
+        <v>102</v>
+      </c>
+      <c r="E850">
+        <v>4.702079471596904</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5">
+      <c r="A851" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B851" t="s">
+        <v>21</v>
+      </c>
+      <c r="C851" t="s">
+        <v>38</v>
+      </c>
+      <c r="D851">
+        <v>83</v>
+      </c>
+      <c r="E851">
+        <v>3.935770128263429</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E851"/>
+  <dimension ref="A1:E868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14965,6 +14965,295 @@
         <v>3.935770128263429</v>
       </c>
     </row>
+    <row r="852" spans="1:5">
+      <c r="A852" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B852" t="s">
+        <v>5</v>
+      </c>
+      <c r="C852" t="s">
+        <v>22</v>
+      </c>
+      <c r="D852">
+        <v>2663</v>
+      </c>
+      <c r="E852">
+        <v>3.199293622879137</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5">
+      <c r="A853" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B853" t="s">
+        <v>6</v>
+      </c>
+      <c r="C853" t="s">
+        <v>23</v>
+      </c>
+      <c r="D853">
+        <v>150</v>
+      </c>
+      <c r="E853">
+        <v>5.133461441715534</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5">
+      <c r="A854" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B854" t="s">
+        <v>7</v>
+      </c>
+      <c r="C854" t="s">
+        <v>24</v>
+      </c>
+      <c r="D854">
+        <v>79</v>
+      </c>
+      <c r="E854">
+        <v>4.261206568730834</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5">
+      <c r="A855" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B855" t="s">
+        <v>8</v>
+      </c>
+      <c r="C855" t="s">
+        <v>25</v>
+      </c>
+      <c r="D855">
+        <v>309</v>
+      </c>
+      <c r="E855">
+        <v>3.849493044190312</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5">
+      <c r="A856" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B856" t="s">
+        <v>9</v>
+      </c>
+      <c r="C856" t="s">
+        <v>26</v>
+      </c>
+      <c r="D856">
+        <v>17</v>
+      </c>
+      <c r="E856">
+        <v>2.51307166836915</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5">
+      <c r="A857" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B857" t="s">
+        <v>10</v>
+      </c>
+      <c r="C857" t="s">
+        <v>27</v>
+      </c>
+      <c r="D857">
+        <v>520</v>
+      </c>
+      <c r="E857">
+        <v>2.901042484037711</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5">
+      <c r="A858" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B858" t="s">
+        <v>11</v>
+      </c>
+      <c r="C858" t="s">
+        <v>28</v>
+      </c>
+      <c r="D858">
+        <v>248</v>
+      </c>
+      <c r="E858">
+        <v>3.939623991484058</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5">
+      <c r="A859" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B859" t="s">
+        <v>12</v>
+      </c>
+      <c r="C859" t="s">
+        <v>29</v>
+      </c>
+      <c r="D859">
+        <v>106</v>
+      </c>
+      <c r="E859">
+        <v>2.581283019419284</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5">
+      <c r="A860" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B860" t="s">
+        <v>13</v>
+      </c>
+      <c r="C860" t="s">
+        <v>30</v>
+      </c>
+      <c r="D860">
+        <v>233</v>
+      </c>
+      <c r="E860">
+        <v>2.094449421383628</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5">
+      <c r="A861" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B861" t="s">
+        <v>14</v>
+      </c>
+      <c r="C861" t="s">
+        <v>31</v>
+      </c>
+      <c r="D861">
+        <v>349</v>
+      </c>
+      <c r="E861">
+        <v>2.648556510140518</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5">
+      <c r="A862" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B862" t="s">
+        <v>15</v>
+      </c>
+      <c r="C862" t="s">
+        <v>32</v>
+      </c>
+      <c r="D862">
+        <v>44</v>
+      </c>
+      <c r="E862">
+        <v>4.479064445593618</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5">
+      <c r="A863" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B863" t="s">
+        <v>16</v>
+      </c>
+      <c r="C863" t="s">
+        <v>33</v>
+      </c>
+      <c r="D863">
+        <v>132</v>
+      </c>
+      <c r="E863">
+        <v>3.589422298796564</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5">
+      <c r="A864" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B864" t="s">
+        <v>17</v>
+      </c>
+      <c r="C864" t="s">
+        <v>34</v>
+      </c>
+      <c r="D864">
+        <v>100</v>
+      </c>
+      <c r="E864">
+        <v>3.940315256743061</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5">
+      <c r="A865" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B865" t="s">
+        <v>18</v>
+      </c>
+      <c r="C865" t="s">
+        <v>35</v>
+      </c>
+      <c r="D865">
+        <v>67</v>
+      </c>
+      <c r="E865">
+        <v>4.158494500856525</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5">
+      <c r="A866" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B866" t="s">
+        <v>19</v>
+      </c>
+      <c r="C866" t="s">
+        <v>36</v>
+      </c>
+      <c r="D866">
+        <v>140</v>
+      </c>
+      <c r="E866">
+        <v>3.462773453982956</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5">
+      <c r="A867" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B867" t="s">
+        <v>20</v>
+      </c>
+      <c r="C867" t="s">
+        <v>37</v>
+      </c>
+      <c r="D867">
+        <v>92</v>
+      </c>
+      <c r="E867">
+        <v>4.241091288107012</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5">
+      <c r="A868" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B868" t="s">
+        <v>21</v>
+      </c>
+      <c r="C868" t="s">
+        <v>38</v>
+      </c>
+      <c r="D868">
+        <v>77</v>
+      </c>
+      <c r="E868">
+        <v>3.65125662501547</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E868"/>
+  <dimension ref="A1:E885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15254,6 +15254,295 @@
         <v>3.65125662501547</v>
       </c>
     </row>
+    <row r="869" spans="1:5">
+      <c r="A869" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B869" t="s">
+        <v>5</v>
+      </c>
+      <c r="C869" t="s">
+        <v>22</v>
+      </c>
+      <c r="D869">
+        <v>2444</v>
+      </c>
+      <c r="E869">
+        <v>2.936189866435078</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5">
+      <c r="A870" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B870" t="s">
+        <v>6</v>
+      </c>
+      <c r="C870" t="s">
+        <v>23</v>
+      </c>
+      <c r="D870">
+        <v>132</v>
+      </c>
+      <c r="E870">
+        <v>4.51744606870967</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5">
+      <c r="A871" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B871" t="s">
+        <v>7</v>
+      </c>
+      <c r="C871" t="s">
+        <v>24</v>
+      </c>
+      <c r="D871">
+        <v>79</v>
+      </c>
+      <c r="E871">
+        <v>4.261206568730834</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5">
+      <c r="A872" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B872" t="s">
+        <v>8</v>
+      </c>
+      <c r="C872" t="s">
+        <v>25</v>
+      </c>
+      <c r="D872">
+        <v>288</v>
+      </c>
+      <c r="E872">
+        <v>3.587877012060873</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5">
+      <c r="A873" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B873" t="s">
+        <v>9</v>
+      </c>
+      <c r="C873" t="s">
+        <v>26</v>
+      </c>
+      <c r="D873">
+        <v>6</v>
+      </c>
+      <c r="E873">
+        <v>0.8869664711891116</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5">
+      <c r="A874" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B874" t="s">
+        <v>10</v>
+      </c>
+      <c r="C874" t="s">
+        <v>27</v>
+      </c>
+      <c r="D874">
+        <v>476</v>
+      </c>
+      <c r="E874">
+        <v>2.655569658465289</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5">
+      <c r="A875" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B875" t="s">
+        <v>11</v>
+      </c>
+      <c r="C875" t="s">
+        <v>28</v>
+      </c>
+      <c r="D875">
+        <v>230</v>
+      </c>
+      <c r="E875">
+        <v>3.653683540489247</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5">
+      <c r="A876" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B876" t="s">
+        <v>12</v>
+      </c>
+      <c r="C876" t="s">
+        <v>29</v>
+      </c>
+      <c r="D876">
+        <v>94</v>
+      </c>
+      <c r="E876">
+        <v>2.289062300239743</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5">
+      <c r="A877" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B877" t="s">
+        <v>13</v>
+      </c>
+      <c r="C877" t="s">
+        <v>30</v>
+      </c>
+      <c r="D877">
+        <v>184</v>
+      </c>
+      <c r="E877">
+        <v>1.65398580916132</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5">
+      <c r="A878" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B878" t="s">
+        <v>14</v>
+      </c>
+      <c r="C878" t="s">
+        <v>31</v>
+      </c>
+      <c r="D878">
+        <v>315</v>
+      </c>
+      <c r="E878">
+        <v>2.390530947548032</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5">
+      <c r="A879" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B879" t="s">
+        <v>15</v>
+      </c>
+      <c r="C879" t="s">
+        <v>32</v>
+      </c>
+      <c r="D879">
+        <v>46</v>
+      </c>
+      <c r="E879">
+        <v>4.682658284029692</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5">
+      <c r="A880" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B880" t="s">
+        <v>16</v>
+      </c>
+      <c r="C880" t="s">
+        <v>33</v>
+      </c>
+      <c r="D880">
+        <v>134</v>
+      </c>
+      <c r="E880">
+        <v>3.643807485141967</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5">
+      <c r="A881" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B881" t="s">
+        <v>17</v>
+      </c>
+      <c r="C881" t="s">
+        <v>34</v>
+      </c>
+      <c r="D881">
+        <v>96</v>
+      </c>
+      <c r="E881">
+        <v>3.782702646473339</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5">
+      <c r="A882" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B882" t="s">
+        <v>18</v>
+      </c>
+      <c r="C882" t="s">
+        <v>35</v>
+      </c>
+      <c r="D882">
+        <v>65</v>
+      </c>
+      <c r="E882">
+        <v>4.034360336651853</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5">
+      <c r="A883" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B883" t="s">
+        <v>19</v>
+      </c>
+      <c r="C883" t="s">
+        <v>36</v>
+      </c>
+      <c r="D883">
+        <v>143</v>
+      </c>
+      <c r="E883">
+        <v>3.536975742282591</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5">
+      <c r="A884" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B884" t="s">
+        <v>20</v>
+      </c>
+      <c r="C884" t="s">
+        <v>37</v>
+      </c>
+      <c r="D884">
+        <v>86</v>
+      </c>
+      <c r="E884">
+        <v>3.964498378013077</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5">
+      <c r="A885" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B885" t="s">
+        <v>21</v>
+      </c>
+      <c r="C885" t="s">
+        <v>38</v>
+      </c>
+      <c r="D885">
+        <v>70</v>
+      </c>
+      <c r="E885">
+        <v>3.319324204559519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E885"/>
+  <dimension ref="A1:E902"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15285,7 +15285,7 @@
         <v>132</v>
       </c>
       <c r="E870">
-        <v>4.51744606870967</v>
+        <v>4.517446068709671</v>
       </c>
     </row>
     <row r="871" spans="1:5">
@@ -15541,6 +15541,295 @@
       </c>
       <c r="E885">
         <v>3.319324204559519</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5">
+      <c r="A886" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B886" t="s">
+        <v>5</v>
+      </c>
+      <c r="C886" t="s">
+        <v>22</v>
+      </c>
+      <c r="D886">
+        <v>2076</v>
+      </c>
+      <c r="E886">
+        <v>2.494079444647799</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5">
+      <c r="A887" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B887" t="s">
+        <v>6</v>
+      </c>
+      <c r="C887" t="s">
+        <v>23</v>
+      </c>
+      <c r="D887">
+        <v>150</v>
+      </c>
+      <c r="E887">
+        <v>5.133461441715534</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5">
+      <c r="A888" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B888" t="s">
+        <v>7</v>
+      </c>
+      <c r="C888" t="s">
+        <v>24</v>
+      </c>
+      <c r="D888">
+        <v>71</v>
+      </c>
+      <c r="E888">
+        <v>3.829691979492269</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5">
+      <c r="A889" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B889" t="s">
+        <v>8</v>
+      </c>
+      <c r="C889" t="s">
+        <v>25</v>
+      </c>
+      <c r="D889">
+        <v>274</v>
+      </c>
+      <c r="E889">
+        <v>3.413466323974581</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5">
+      <c r="A890" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B890" t="s">
+        <v>9</v>
+      </c>
+      <c r="C890" t="s">
+        <v>26</v>
+      </c>
+      <c r="D890">
+        <v>4</v>
+      </c>
+      <c r="E890">
+        <v>0.591310980792741</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5">
+      <c r="A891" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B891" t="s">
+        <v>10</v>
+      </c>
+      <c r="C891" t="s">
+        <v>27</v>
+      </c>
+      <c r="D891">
+        <v>365</v>
+      </c>
+      <c r="E891">
+        <v>2.036308666680316</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5">
+      <c r="A892" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B892" t="s">
+        <v>11</v>
+      </c>
+      <c r="C892" t="s">
+        <v>28</v>
+      </c>
+      <c r="D892">
+        <v>175</v>
+      </c>
+      <c r="E892">
+        <v>2.779976606893992</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5">
+      <c r="A893" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B893" t="s">
+        <v>12</v>
+      </c>
+      <c r="C893" t="s">
+        <v>29</v>
+      </c>
+      <c r="D893">
+        <v>69</v>
+      </c>
+      <c r="E893">
+        <v>1.680269135282364</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5">
+      <c r="A894" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B894" t="s">
+        <v>13</v>
+      </c>
+      <c r="C894" t="s">
+        <v>30</v>
+      </c>
+      <c r="D894">
+        <v>132</v>
+      </c>
+      <c r="E894">
+        <v>1.186555037007034</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5">
+      <c r="A895" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B895" t="s">
+        <v>14</v>
+      </c>
+      <c r="C895" t="s">
+        <v>31</v>
+      </c>
+      <c r="D895">
+        <v>245</v>
+      </c>
+      <c r="E895">
+        <v>1.859301848092914</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5">
+      <c r="A896" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B896" t="s">
+        <v>15</v>
+      </c>
+      <c r="C896" t="s">
+        <v>32</v>
+      </c>
+      <c r="D896">
+        <v>38</v>
+      </c>
+      <c r="E896">
+        <v>3.868282930285398</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5">
+      <c r="A897" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B897" t="s">
+        <v>16</v>
+      </c>
+      <c r="C897" t="s">
+        <v>33</v>
+      </c>
+      <c r="D897">
+        <v>133</v>
+      </c>
+      <c r="E897">
+        <v>3.616614891969266</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5">
+      <c r="A898" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B898" t="s">
+        <v>17</v>
+      </c>
+      <c r="C898" t="s">
+        <v>34</v>
+      </c>
+      <c r="D898">
+        <v>91</v>
+      </c>
+      <c r="E898">
+        <v>3.585686883636186</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5">
+      <c r="A899" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B899" t="s">
+        <v>18</v>
+      </c>
+      <c r="C899" t="s">
+        <v>35</v>
+      </c>
+      <c r="D899">
+        <v>59</v>
+      </c>
+      <c r="E899">
+        <v>3.661957844037836</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5">
+      <c r="A900" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B900" t="s">
+        <v>19</v>
+      </c>
+      <c r="C900" t="s">
+        <v>36</v>
+      </c>
+      <c r="D900">
+        <v>124</v>
+      </c>
+      <c r="E900">
+        <v>3.067027916384904</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5">
+      <c r="A901" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B901" t="s">
+        <v>20</v>
+      </c>
+      <c r="C901" t="s">
+        <v>37</v>
+      </c>
+      <c r="D901">
+        <v>84</v>
+      </c>
+      <c r="E901">
+        <v>3.872300741315098</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5">
+      <c r="A902" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B902" t="s">
+        <v>21</v>
+      </c>
+      <c r="C902" t="s">
+        <v>38</v>
+      </c>
+      <c r="D902">
+        <v>62</v>
+      </c>
+      <c r="E902">
+        <v>2.939972866895574</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E902"/>
+  <dimension ref="A1:E919"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15832,6 +15832,295 @@
         <v>2.939972866895574</v>
       </c>
     </row>
+    <row r="903" spans="1:5">
+      <c r="A903" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B903" t="s">
+        <v>5</v>
+      </c>
+      <c r="C903" t="s">
+        <v>22</v>
+      </c>
+      <c r="D903">
+        <v>2140</v>
+      </c>
+      <c r="E903">
+        <v>2.570968213654282</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5">
+      <c r="A904" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B904" t="s">
+        <v>6</v>
+      </c>
+      <c r="C904" t="s">
+        <v>23</v>
+      </c>
+      <c r="D904">
+        <v>155</v>
+      </c>
+      <c r="E904">
+        <v>5.304576823106053</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5">
+      <c r="A905" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B905" t="s">
+        <v>7</v>
+      </c>
+      <c r="C905" t="s">
+        <v>24</v>
+      </c>
+      <c r="D905">
+        <v>72</v>
+      </c>
+      <c r="E905">
+        <v>3.88363130314709</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5">
+      <c r="A906" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B906" t="s">
+        <v>8</v>
+      </c>
+      <c r="C906" t="s">
+        <v>25</v>
+      </c>
+      <c r="D906">
+        <v>266</v>
+      </c>
+      <c r="E906">
+        <v>3.313803073639556</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5">
+      <c r="A907" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B907" t="s">
+        <v>9</v>
+      </c>
+      <c r="C907" t="s">
+        <v>26</v>
+      </c>
+      <c r="D907">
+        <v>3</v>
+      </c>
+      <c r="E907">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5">
+      <c r="A908" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B908" t="s">
+        <v>10</v>
+      </c>
+      <c r="C908" t="s">
+        <v>27</v>
+      </c>
+      <c r="D908">
+        <v>387</v>
+      </c>
+      <c r="E908">
+        <v>2.159045079466527</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5">
+      <c r="A909" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B909" t="s">
+        <v>11</v>
+      </c>
+      <c r="C909" t="s">
+        <v>28</v>
+      </c>
+      <c r="D909">
+        <v>182</v>
+      </c>
+      <c r="E909">
+        <v>2.891175671169752</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5">
+      <c r="A910" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B910" t="s">
+        <v>12</v>
+      </c>
+      <c r="C910" t="s">
+        <v>29</v>
+      </c>
+      <c r="D910">
+        <v>73</v>
+      </c>
+      <c r="E910">
+        <v>1.777676041675545</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5">
+      <c r="A911" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B911" t="s">
+        <v>13</v>
+      </c>
+      <c r="C911" t="s">
+        <v>30</v>
+      </c>
+      <c r="D911">
+        <v>185</v>
+      </c>
+      <c r="E911">
+        <v>1.662974862471979</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5">
+      <c r="A912" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B912" t="s">
+        <v>14</v>
+      </c>
+      <c r="C912" t="s">
+        <v>31</v>
+      </c>
+      <c r="D912">
+        <v>234</v>
+      </c>
+      <c r="E912">
+        <v>1.77582298960711</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5">
+      <c r="A913" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B913" t="s">
+        <v>15</v>
+      </c>
+      <c r="C913" t="s">
+        <v>32</v>
+      </c>
+      <c r="D913">
+        <v>34</v>
+      </c>
+      <c r="E913">
+        <v>3.461095253413251</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5">
+      <c r="A914" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B914" t="s">
+        <v>16</v>
+      </c>
+      <c r="C914" t="s">
+        <v>33</v>
+      </c>
+      <c r="D914">
+        <v>141</v>
+      </c>
+      <c r="E914">
+        <v>3.834155637350876</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5">
+      <c r="A915" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B915" t="s">
+        <v>17</v>
+      </c>
+      <c r="C915" t="s">
+        <v>34</v>
+      </c>
+      <c r="D915">
+        <v>83</v>
+      </c>
+      <c r="E915">
+        <v>3.270461663096741</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5">
+      <c r="A916" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B916" t="s">
+        <v>18</v>
+      </c>
+      <c r="C916" t="s">
+        <v>35</v>
+      </c>
+      <c r="D916">
+        <v>57</v>
+      </c>
+      <c r="E916">
+        <v>3.537823679833163</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5">
+      <c r="A917" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B917" t="s">
+        <v>19</v>
+      </c>
+      <c r="C917" t="s">
+        <v>36</v>
+      </c>
+      <c r="D917">
+        <v>130</v>
+      </c>
+      <c r="E917">
+        <v>3.215432492984174</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5">
+      <c r="A918" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B918" t="s">
+        <v>20</v>
+      </c>
+      <c r="C918" t="s">
+        <v>37</v>
+      </c>
+      <c r="D918">
+        <v>73</v>
+      </c>
+      <c r="E918">
+        <v>3.365213739476216</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5">
+      <c r="A919" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B919" t="s">
+        <v>21</v>
+      </c>
+      <c r="C919" t="s">
+        <v>38</v>
+      </c>
+      <c r="D919">
+        <v>65</v>
+      </c>
+      <c r="E919">
+        <v>3.082229618519553</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E919"/>
+  <dimension ref="A1:E936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16016,7 +16016,7 @@
         <v>34</v>
       </c>
       <c r="E913">
-        <v>3.461095253413251</v>
+        <v>3.46109525341325</v>
       </c>
     </row>
     <row r="914" spans="1:5">
@@ -16119,6 +16119,295 @@
       </c>
       <c r="E919">
         <v>3.082229618519553</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5">
+      <c r="A920" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B920" t="s">
+        <v>5</v>
+      </c>
+      <c r="C920" t="s">
+        <v>22</v>
+      </c>
+      <c r="D920">
+        <v>2092</v>
+      </c>
+      <c r="E920">
+        <v>2.51330163689942</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5">
+      <c r="A921" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B921" t="s">
+        <v>6</v>
+      </c>
+      <c r="C921" t="s">
+        <v>23</v>
+      </c>
+      <c r="D921">
+        <v>154</v>
+      </c>
+      <c r="E921">
+        <v>5.270353746827948</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5">
+      <c r="A922" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B922" t="s">
+        <v>7</v>
+      </c>
+      <c r="C922" t="s">
+        <v>24</v>
+      </c>
+      <c r="D922">
+        <v>72</v>
+      </c>
+      <c r="E922">
+        <v>3.88363130314709</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5">
+      <c r="A923" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B923" t="s">
+        <v>8</v>
+      </c>
+      <c r="C923" t="s">
+        <v>25</v>
+      </c>
+      <c r="D923">
+        <v>257</v>
+      </c>
+      <c r="E923">
+        <v>3.201681917012654</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5">
+      <c r="A924" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B924" t="s">
+        <v>9</v>
+      </c>
+      <c r="C924" t="s">
+        <v>26</v>
+      </c>
+      <c r="D924">
+        <v>3</v>
+      </c>
+      <c r="E924">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5">
+      <c r="A925" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B925" t="s">
+        <v>10</v>
+      </c>
+      <c r="C925" t="s">
+        <v>27</v>
+      </c>
+      <c r="D925">
+        <v>370</v>
+      </c>
+      <c r="E925">
+        <v>2.06420330594991</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5">
+      <c r="A926" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B926" t="s">
+        <v>11</v>
+      </c>
+      <c r="C926" t="s">
+        <v>28</v>
+      </c>
+      <c r="D926">
+        <v>180</v>
+      </c>
+      <c r="E926">
+        <v>2.859404509948106</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5">
+      <c r="A927" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B927" t="s">
+        <v>12</v>
+      </c>
+      <c r="C927" t="s">
+        <v>29</v>
+      </c>
+      <c r="D927">
+        <v>73</v>
+      </c>
+      <c r="E927">
+        <v>1.777676041675545</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5">
+      <c r="A928" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B928" t="s">
+        <v>13</v>
+      </c>
+      <c r="C928" t="s">
+        <v>30</v>
+      </c>
+      <c r="D928">
+        <v>178</v>
+      </c>
+      <c r="E928">
+        <v>1.600051489297363</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5">
+      <c r="A929" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B929" t="s">
+        <v>14</v>
+      </c>
+      <c r="C929" t="s">
+        <v>31</v>
+      </c>
+      <c r="D929">
+        <v>229</v>
+      </c>
+      <c r="E929">
+        <v>1.737878053931744</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5">
+      <c r="A930" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B930" t="s">
+        <v>15</v>
+      </c>
+      <c r="C930" t="s">
+        <v>32</v>
+      </c>
+      <c r="D930">
+        <v>34</v>
+      </c>
+      <c r="E930">
+        <v>3.461095253413251</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5">
+      <c r="A931" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B931" t="s">
+        <v>16</v>
+      </c>
+      <c r="C931" t="s">
+        <v>33</v>
+      </c>
+      <c r="D931">
+        <v>141</v>
+      </c>
+      <c r="E931">
+        <v>3.834155637350876</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5">
+      <c r="A932" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B932" t="s">
+        <v>17</v>
+      </c>
+      <c r="C932" t="s">
+        <v>34</v>
+      </c>
+      <c r="D932">
+        <v>83</v>
+      </c>
+      <c r="E932">
+        <v>3.270461663096741</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5">
+      <c r="A933" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B933" t="s">
+        <v>18</v>
+      </c>
+      <c r="C933" t="s">
+        <v>35</v>
+      </c>
+      <c r="D933">
+        <v>56</v>
+      </c>
+      <c r="E933">
+        <v>3.475756597730827</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5">
+      <c r="A934" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B934" t="s">
+        <v>19</v>
+      </c>
+      <c r="C934" t="s">
+        <v>36</v>
+      </c>
+      <c r="D934">
+        <v>125</v>
+      </c>
+      <c r="E934">
+        <v>3.091762012484782</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5">
+      <c r="A935" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B935" t="s">
+        <v>20</v>
+      </c>
+      <c r="C935" t="s">
+        <v>37</v>
+      </c>
+      <c r="D935">
+        <v>73</v>
+      </c>
+      <c r="E935">
+        <v>3.365213739476216</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5">
+      <c r="A936" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B936" t="s">
+        <v>21</v>
+      </c>
+      <c r="C936" t="s">
+        <v>38</v>
+      </c>
+      <c r="D936">
+        <v>64</v>
+      </c>
+      <c r="E936">
+        <v>3.03481070131156</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E936"/>
+  <dimension ref="A1:E953"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16305,7 +16305,7 @@
         <v>34</v>
       </c>
       <c r="E930">
-        <v>3.461095253413251</v>
+        <v>3.46109525341325</v>
       </c>
     </row>
     <row r="931" spans="1:5">
@@ -16408,6 +16408,295 @@
       </c>
       <c r="E936">
         <v>3.03481070131156</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5">
+      <c r="A937" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B937" t="s">
+        <v>5</v>
+      </c>
+      <c r="C937" t="s">
+        <v>22</v>
+      </c>
+      <c r="D937">
+        <v>2061</v>
+      </c>
+      <c r="E937">
+        <v>2.476058639411905</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5">
+      <c r="A938" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B938" t="s">
+        <v>6</v>
+      </c>
+      <c r="C938" t="s">
+        <v>23</v>
+      </c>
+      <c r="D938">
+        <v>152</v>
+      </c>
+      <c r="E938">
+        <v>5.201907594271741</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5">
+      <c r="A939" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B939" t="s">
+        <v>7</v>
+      </c>
+      <c r="C939" t="s">
+        <v>24</v>
+      </c>
+      <c r="D939">
+        <v>72</v>
+      </c>
+      <c r="E939">
+        <v>3.88363130314709</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5">
+      <c r="A940" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B940" t="s">
+        <v>8</v>
+      </c>
+      <c r="C940" t="s">
+        <v>25</v>
+      </c>
+      <c r="D940">
+        <v>251</v>
+      </c>
+      <c r="E940">
+        <v>3.126934479261386</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5">
+      <c r="A941" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B941" t="s">
+        <v>9</v>
+      </c>
+      <c r="C941" t="s">
+        <v>26</v>
+      </c>
+      <c r="D941">
+        <v>3</v>
+      </c>
+      <c r="E941">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5">
+      <c r="A942" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B942" t="s">
+        <v>10</v>
+      </c>
+      <c r="C942" t="s">
+        <v>27</v>
+      </c>
+      <c r="D942">
+        <v>360</v>
+      </c>
+      <c r="E942">
+        <v>2.008414027410723</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5">
+      <c r="A943" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B943" t="s">
+        <v>11</v>
+      </c>
+      <c r="C943" t="s">
+        <v>28</v>
+      </c>
+      <c r="D943">
+        <v>180</v>
+      </c>
+      <c r="E943">
+        <v>2.859404509948106</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5">
+      <c r="A944" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B944" t="s">
+        <v>12</v>
+      </c>
+      <c r="C944" t="s">
+        <v>29</v>
+      </c>
+      <c r="D944">
+        <v>73</v>
+      </c>
+      <c r="E944">
+        <v>1.777676041675545</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5">
+      <c r="A945" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B945" t="s">
+        <v>13</v>
+      </c>
+      <c r="C945" t="s">
+        <v>30</v>
+      </c>
+      <c r="D945">
+        <v>173</v>
+      </c>
+      <c r="E945">
+        <v>1.555106222744067</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5">
+      <c r="A946" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B946" t="s">
+        <v>14</v>
+      </c>
+      <c r="C946" t="s">
+        <v>31</v>
+      </c>
+      <c r="D946">
+        <v>223</v>
+      </c>
+      <c r="E946">
+        <v>1.692344131121305</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5">
+      <c r="A947" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B947" t="s">
+        <v>15</v>
+      </c>
+      <c r="C947" t="s">
+        <v>32</v>
+      </c>
+      <c r="D947">
+        <v>34</v>
+      </c>
+      <c r="E947">
+        <v>3.461095253413251</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5">
+      <c r="A948" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B948" t="s">
+        <v>16</v>
+      </c>
+      <c r="C948" t="s">
+        <v>33</v>
+      </c>
+      <c r="D948">
+        <v>141</v>
+      </c>
+      <c r="E948">
+        <v>3.834155637350876</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5">
+      <c r="A949" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B949" t="s">
+        <v>17</v>
+      </c>
+      <c r="C949" t="s">
+        <v>34</v>
+      </c>
+      <c r="D949">
+        <v>83</v>
+      </c>
+      <c r="E949">
+        <v>3.270461663096741</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5">
+      <c r="A950" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B950" t="s">
+        <v>18</v>
+      </c>
+      <c r="C950" t="s">
+        <v>35</v>
+      </c>
+      <c r="D950">
+        <v>56</v>
+      </c>
+      <c r="E950">
+        <v>3.475756597730827</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5">
+      <c r="A951" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B951" t="s">
+        <v>19</v>
+      </c>
+      <c r="C951" t="s">
+        <v>36</v>
+      </c>
+      <c r="D951">
+        <v>124</v>
+      </c>
+      <c r="E951">
+        <v>3.067027916384904</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5">
+      <c r="A952" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B952" t="s">
+        <v>20</v>
+      </c>
+      <c r="C952" t="s">
+        <v>37</v>
+      </c>
+      <c r="D952">
+        <v>73</v>
+      </c>
+      <c r="E952">
+        <v>3.365213739476216</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5">
+      <c r="A953" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B953" t="s">
+        <v>21</v>
+      </c>
+      <c r="C953" t="s">
+        <v>38</v>
+      </c>
+      <c r="D953">
+        <v>63</v>
+      </c>
+      <c r="E953">
+        <v>2.987391784103567</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E953"/>
+  <dimension ref="A1:E970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16594,7 +16594,7 @@
         <v>34</v>
       </c>
       <c r="E947">
-        <v>3.461095253413251</v>
+        <v>3.46109525341325</v>
       </c>
     </row>
     <row r="948" spans="1:5">
@@ -16696,7 +16696,296 @@
         <v>63</v>
       </c>
       <c r="E953">
-        <v>2.987391784103567</v>
+        <v>2.987391784103566</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5">
+      <c r="A954" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B954" t="s">
+        <v>5</v>
+      </c>
+      <c r="C954" t="s">
+        <v>22</v>
+      </c>
+      <c r="D954">
+        <v>1875</v>
+      </c>
+      <c r="E954">
+        <v>2.252600654486813</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5">
+      <c r="A955" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B955" t="s">
+        <v>6</v>
+      </c>
+      <c r="C955" t="s">
+        <v>23</v>
+      </c>
+      <c r="D955">
+        <v>148</v>
+      </c>
+      <c r="E955">
+        <v>5.065015289159327</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5">
+      <c r="A956" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B956" t="s">
+        <v>7</v>
+      </c>
+      <c r="C956" t="s">
+        <v>24</v>
+      </c>
+      <c r="D956">
+        <v>68</v>
+      </c>
+      <c r="E956">
+        <v>3.667874008527807</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5">
+      <c r="A957" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B957" t="s">
+        <v>8</v>
+      </c>
+      <c r="C957" t="s">
+        <v>25</v>
+      </c>
+      <c r="D957">
+        <v>193</v>
+      </c>
+      <c r="E957">
+        <v>2.40437591433246</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5">
+      <c r="A958" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B958" t="s">
+        <v>9</v>
+      </c>
+      <c r="C958" t="s">
+        <v>26</v>
+      </c>
+      <c r="D958">
+        <v>3</v>
+      </c>
+      <c r="E958">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5">
+      <c r="A959" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B959" t="s">
+        <v>10</v>
+      </c>
+      <c r="C959" t="s">
+        <v>27</v>
+      </c>
+      <c r="D959">
+        <v>340</v>
+      </c>
+      <c r="E959">
+        <v>1.89683547033235</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5">
+      <c r="A960" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B960" t="s">
+        <v>11</v>
+      </c>
+      <c r="C960" t="s">
+        <v>28</v>
+      </c>
+      <c r="D960">
+        <v>159</v>
+      </c>
+      <c r="E960">
+        <v>2.525807317120827</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5">
+      <c r="A961" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B961" t="s">
+        <v>12</v>
+      </c>
+      <c r="C961" t="s">
+        <v>29</v>
+      </c>
+      <c r="D961">
+        <v>52</v>
+      </c>
+      <c r="E961">
+        <v>1.266289783111347</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5">
+      <c r="A962" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B962" t="s">
+        <v>13</v>
+      </c>
+      <c r="C962" t="s">
+        <v>30</v>
+      </c>
+      <c r="D962">
+        <v>157</v>
+      </c>
+      <c r="E962">
+        <v>1.411281369773517</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5">
+      <c r="A963" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B963" t="s">
+        <v>14</v>
+      </c>
+      <c r="C963" t="s">
+        <v>31</v>
+      </c>
+      <c r="D963">
+        <v>211</v>
+      </c>
+      <c r="E963">
+        <v>1.601276285500428</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5">
+      <c r="A964" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B964" t="s">
+        <v>15</v>
+      </c>
+      <c r="C964" t="s">
+        <v>32</v>
+      </c>
+      <c r="D964">
+        <v>31</v>
+      </c>
+      <c r="E964">
+        <v>3.15570449575914</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5">
+      <c r="A965" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B965" t="s">
+        <v>16</v>
+      </c>
+      <c r="C965" t="s">
+        <v>33</v>
+      </c>
+      <c r="D965">
+        <v>137</v>
+      </c>
+      <c r="E965">
+        <v>3.725385264660071</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5">
+      <c r="A966" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B966" t="s">
+        <v>17</v>
+      </c>
+      <c r="C966" t="s">
+        <v>34</v>
+      </c>
+      <c r="D966">
+        <v>78</v>
+      </c>
+      <c r="E966">
+        <v>3.073445900259588</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5">
+      <c r="A967" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B967" t="s">
+        <v>18</v>
+      </c>
+      <c r="C967" t="s">
+        <v>35</v>
+      </c>
+      <c r="D967">
+        <v>48</v>
+      </c>
+      <c r="E967">
+        <v>2.979219940912138</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5">
+      <c r="A968" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B968" t="s">
+        <v>19</v>
+      </c>
+      <c r="C968" t="s">
+        <v>36</v>
+      </c>
+      <c r="D968">
+        <v>116</v>
+      </c>
+      <c r="E968">
+        <v>2.869155147585878</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5">
+      <c r="A969" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B969" t="s">
+        <v>20</v>
+      </c>
+      <c r="C969" t="s">
+        <v>37</v>
+      </c>
+      <c r="D969">
+        <v>73</v>
+      </c>
+      <c r="E969">
+        <v>3.365213739476216</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5">
+      <c r="A970" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B970" t="s">
+        <v>21</v>
+      </c>
+      <c r="C970" t="s">
+        <v>38</v>
+      </c>
+      <c r="D970">
+        <v>61</v>
+      </c>
+      <c r="E970">
+        <v>2.892553949687581</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E970"/>
+  <dimension ref="A1:E987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16815,7 +16815,7 @@
         <v>159</v>
       </c>
       <c r="E960">
-        <v>2.525807317120827</v>
+        <v>2.525807317120828</v>
       </c>
     </row>
     <row r="961" spans="1:5">
@@ -16986,6 +16986,295 @@
       </c>
       <c r="E970">
         <v>2.892553949687581</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5">
+      <c r="A971" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C971" t="s">
+        <v>22</v>
+      </c>
+      <c r="D971">
+        <v>1921</v>
+      </c>
+      <c r="E971">
+        <v>2.307864457210223</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5">
+      <c r="A972" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B972" t="s">
+        <v>6</v>
+      </c>
+      <c r="C972" t="s">
+        <v>23</v>
+      </c>
+      <c r="D972">
+        <v>155</v>
+      </c>
+      <c r="E972">
+        <v>5.304576823106053</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5">
+      <c r="A973" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B973" t="s">
+        <v>7</v>
+      </c>
+      <c r="C973" t="s">
+        <v>24</v>
+      </c>
+      <c r="D973">
+        <v>75</v>
+      </c>
+      <c r="E973">
+        <v>4.045449274111552</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5">
+      <c r="A974" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B974" t="s">
+        <v>8</v>
+      </c>
+      <c r="C974" t="s">
+        <v>25</v>
+      </c>
+      <c r="D974">
+        <v>177</v>
+      </c>
+      <c r="E974">
+        <v>2.205049413662412</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5">
+      <c r="A975" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B975" t="s">
+        <v>9</v>
+      </c>
+      <c r="C975" t="s">
+        <v>26</v>
+      </c>
+      <c r="D975">
+        <v>6</v>
+      </c>
+      <c r="E975">
+        <v>0.8869664711891116</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5">
+      <c r="A976" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B976" t="s">
+        <v>10</v>
+      </c>
+      <c r="C976" t="s">
+        <v>27</v>
+      </c>
+      <c r="D976">
+        <v>382</v>
+      </c>
+      <c r="E976">
+        <v>2.131150440196934</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5">
+      <c r="A977" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B977" t="s">
+        <v>11</v>
+      </c>
+      <c r="C977" t="s">
+        <v>28</v>
+      </c>
+      <c r="D977">
+        <v>152</v>
+      </c>
+      <c r="E977">
+        <v>2.414608252845068</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5">
+      <c r="A978" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B978" t="s">
+        <v>12</v>
+      </c>
+      <c r="C978" t="s">
+        <v>29</v>
+      </c>
+      <c r="D978">
+        <v>58</v>
+      </c>
+      <c r="E978">
+        <v>1.412400142701118</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5">
+      <c r="A979" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B979" t="s">
+        <v>13</v>
+      </c>
+      <c r="C979" t="s">
+        <v>30</v>
+      </c>
+      <c r="D979">
+        <v>162</v>
+      </c>
+      <c r="E979">
+        <v>1.456226636326814</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5">
+      <c r="A980" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B980" t="s">
+        <v>14</v>
+      </c>
+      <c r="C980" t="s">
+        <v>31</v>
+      </c>
+      <c r="D980">
+        <v>222</v>
+      </c>
+      <c r="E980">
+        <v>1.684755143986232</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5">
+      <c r="A981" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B981" t="s">
+        <v>15</v>
+      </c>
+      <c r="C981" t="s">
+        <v>32</v>
+      </c>
+      <c r="D981">
+        <v>39</v>
+      </c>
+      <c r="E981">
+        <v>3.970079849503434</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5">
+      <c r="A982" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B982" t="s">
+        <v>16</v>
+      </c>
+      <c r="C982" t="s">
+        <v>33</v>
+      </c>
+      <c r="D982">
+        <v>145</v>
+      </c>
+      <c r="E982">
+        <v>3.942926010041681</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5">
+      <c r="A983" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B983" t="s">
+        <v>17</v>
+      </c>
+      <c r="C983" t="s">
+        <v>34</v>
+      </c>
+      <c r="D983">
+        <v>68</v>
+      </c>
+      <c r="E983">
+        <v>2.679414374585282</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5">
+      <c r="A984" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B984" t="s">
+        <v>18</v>
+      </c>
+      <c r="C984" t="s">
+        <v>35</v>
+      </c>
+      <c r="D984">
+        <v>55</v>
+      </c>
+      <c r="E984">
+        <v>3.413689515628491</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5">
+      <c r="A985" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B985" t="s">
+        <v>19</v>
+      </c>
+      <c r="C985" t="s">
+        <v>36</v>
+      </c>
+      <c r="D985">
+        <v>104</v>
+      </c>
+      <c r="E985">
+        <v>2.572345994387339</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5">
+      <c r="A986" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B986" t="s">
+        <v>20</v>
+      </c>
+      <c r="C986" t="s">
+        <v>37</v>
+      </c>
+      <c r="D986">
+        <v>67</v>
+      </c>
+      <c r="E986">
+        <v>3.08862082938228</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5">
+      <c r="A987" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B987" t="s">
+        <v>21</v>
+      </c>
+      <c r="C987" t="s">
+        <v>38</v>
+      </c>
+      <c r="D987">
+        <v>54</v>
+      </c>
+      <c r="E987">
+        <v>2.560621529231629</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E987"/>
+  <dimension ref="A1:E1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17277,6 +17277,295 @@
         <v>2.560621529231629</v>
       </c>
     </row>
+    <row r="988" spans="1:5">
+      <c r="A988" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C988" t="s">
+        <v>22</v>
+      </c>
+      <c r="D988">
+        <v>1856</v>
+      </c>
+      <c r="E988">
+        <v>2.229774301188013</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5">
+      <c r="A989" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B989" t="s">
+        <v>6</v>
+      </c>
+      <c r="C989" t="s">
+        <v>23</v>
+      </c>
+      <c r="D989">
+        <v>140</v>
+      </c>
+      <c r="E989">
+        <v>4.791230678934498</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5">
+      <c r="A990" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B990" t="s">
+        <v>7</v>
+      </c>
+      <c r="C990" t="s">
+        <v>24</v>
+      </c>
+      <c r="D990">
+        <v>84</v>
+      </c>
+      <c r="E990">
+        <v>4.530903187004938</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5">
+      <c r="A991" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B991" t="s">
+        <v>8</v>
+      </c>
+      <c r="C991" t="s">
+        <v>25</v>
+      </c>
+      <c r="D991">
+        <v>145</v>
+      </c>
+      <c r="E991">
+        <v>1.806396412322314</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5">
+      <c r="A992" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B992" t="s">
+        <v>9</v>
+      </c>
+      <c r="C992" t="s">
+        <v>26</v>
+      </c>
+      <c r="D992">
+        <v>6</v>
+      </c>
+      <c r="E992">
+        <v>0.8869664711891116</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5">
+      <c r="A993" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B993" t="s">
+        <v>10</v>
+      </c>
+      <c r="C993" t="s">
+        <v>27</v>
+      </c>
+      <c r="D993">
+        <v>370</v>
+      </c>
+      <c r="E993">
+        <v>2.06420330594991</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5">
+      <c r="A994" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B994" t="s">
+        <v>11</v>
+      </c>
+      <c r="C994" t="s">
+        <v>28</v>
+      </c>
+      <c r="D994">
+        <v>152</v>
+      </c>
+      <c r="E994">
+        <v>2.414608252845068</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5">
+      <c r="A995" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B995" t="s">
+        <v>12</v>
+      </c>
+      <c r="C995" t="s">
+        <v>29</v>
+      </c>
+      <c r="D995">
+        <v>63</v>
+      </c>
+      <c r="E995">
+        <v>1.534158775692593</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5">
+      <c r="A996" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B996" t="s">
+        <v>13</v>
+      </c>
+      <c r="C996" t="s">
+        <v>30</v>
+      </c>
+      <c r="D996">
+        <v>170</v>
+      </c>
+      <c r="E996">
+        <v>1.528139062812089</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5">
+      <c r="A997" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B997" t="s">
+        <v>14</v>
+      </c>
+      <c r="C997" t="s">
+        <v>31</v>
+      </c>
+      <c r="D997">
+        <v>244</v>
+      </c>
+      <c r="E997">
+        <v>1.851712860957841</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5">
+      <c r="A998" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B998" t="s">
+        <v>15</v>
+      </c>
+      <c r="C998" t="s">
+        <v>32</v>
+      </c>
+      <c r="D998">
+        <v>28</v>
+      </c>
+      <c r="E998">
+        <v>2.85031373810503</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5">
+      <c r="A999" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B999" t="s">
+        <v>16</v>
+      </c>
+      <c r="C999" t="s">
+        <v>33</v>
+      </c>
+      <c r="D999">
+        <v>132</v>
+      </c>
+      <c r="E999">
+        <v>3.589422298796564</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5">
+      <c r="A1000" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1000">
+        <v>49</v>
+      </c>
+      <c r="E1000">
+        <v>1.9307544758041</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5">
+      <c r="A1001" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1001">
+        <v>69</v>
+      </c>
+      <c r="E1001">
+        <v>4.282628665061198</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5">
+      <c r="A1002" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1002">
+        <v>96</v>
+      </c>
+      <c r="E1002">
+        <v>2.374473225588313</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5">
+      <c r="A1003" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1003">
+        <v>56</v>
+      </c>
+      <c r="E1003">
+        <v>2.581533827543399</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5">
+      <c r="A1004" s="2">
+        <v>45092</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1004">
+        <v>52</v>
+      </c>
+      <c r="E1004">
+        <v>2.465783694815642</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1004"/>
+  <dimension ref="A1:E1021"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17566,6 +17566,295 @@
         <v>2.465783694815642</v>
       </c>
     </row>
+    <row r="1005" spans="1:5">
+      <c r="A1005" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1005">
+        <v>2031</v>
+      </c>
+      <c r="E1005">
+        <v>2.440017028940116</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5">
+      <c r="A1006" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1006">
+        <v>153</v>
+      </c>
+      <c r="E1006">
+        <v>5.236130670549845</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5">
+      <c r="A1007" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1007">
+        <v>84</v>
+      </c>
+      <c r="E1007">
+        <v>4.530903187004938</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5">
+      <c r="A1008" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1008">
+        <v>135</v>
+      </c>
+      <c r="E1008">
+        <v>1.681817349403534</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5">
+      <c r="A1009" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1009">
+        <v>7</v>
+      </c>
+      <c r="E1009">
+        <v>1.034794216387297</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5">
+      <c r="A1010" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1010">
+        <v>416</v>
+      </c>
+      <c r="E1010">
+        <v>2.320833987230169</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5">
+      <c r="A1011" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1011">
+        <v>171</v>
+      </c>
+      <c r="E1011">
+        <v>2.716434284450701</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5">
+      <c r="A1012" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1012">
+        <v>82</v>
+      </c>
+      <c r="E1012">
+        <v>1.996841581060201</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5">
+      <c r="A1013" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1013">
+        <v>232</v>
+      </c>
+      <c r="E1013">
+        <v>2.085460368072968</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5">
+      <c r="A1014" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1014">
+        <v>279</v>
+      </c>
+      <c r="E1014">
+        <v>2.1173274106854</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5">
+      <c r="A1015" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1015">
+        <v>33</v>
+      </c>
+      <c r="E1015">
+        <v>3.359298334195214</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5">
+      <c r="A1016" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1016">
+        <v>130</v>
+      </c>
+      <c r="E1016">
+        <v>3.535037112451162</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5">
+      <c r="A1017" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1017">
+        <v>47</v>
+      </c>
+      <c r="E1017">
+        <v>1.851948170669239</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5">
+      <c r="A1018" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1018">
+        <v>70</v>
+      </c>
+      <c r="E1018">
+        <v>4.344695747163534</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5">
+      <c r="A1019" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1019">
+        <v>82</v>
+      </c>
+      <c r="E1019">
+        <v>2.028195880190017</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5">
+      <c r="A1020" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1020">
+        <v>53</v>
+      </c>
+      <c r="E1020">
+        <v>2.443237372496431</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5">
+      <c r="A1021" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1021">
+        <v>57</v>
+      </c>
+      <c r="E1021">
+        <v>2.702878280855608</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1021"/>
+  <dimension ref="A1:E1038"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -17855,6 +17855,295 @@
         <v>2.702878280855608</v>
       </c>
     </row>
+    <row r="1022" spans="1:5">
+      <c r="A1022" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1022">
+        <v>1900</v>
+      </c>
+      <c r="E1022">
+        <v>2.28263532987997</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5">
+      <c r="A1023" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1023">
+        <v>147</v>
+      </c>
+      <c r="E1023">
+        <v>5.030792212881224</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5">
+      <c r="A1024" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1024">
+        <v>77</v>
+      </c>
+      <c r="E1024">
+        <v>4.153327921421194</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5">
+      <c r="A1025" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1025">
+        <v>142</v>
+      </c>
+      <c r="E1025">
+        <v>1.769022693446681</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5">
+      <c r="A1026" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1026">
+        <v>7</v>
+      </c>
+      <c r="E1026">
+        <v>1.034794216387297</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5">
+      <c r="A1027" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1027">
+        <v>383</v>
+      </c>
+      <c r="E1027">
+        <v>2.136729368050852</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5">
+      <c r="A1028" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1028">
+        <v>151</v>
+      </c>
+      <c r="E1028">
+        <v>2.398722672234245</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5">
+      <c r="A1029" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1029">
+        <v>77</v>
+      </c>
+      <c r="E1029">
+        <v>1.875082948068725</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5">
+      <c r="A1030" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1030">
+        <v>183</v>
+      </c>
+      <c r="E1030">
+        <v>1.64499675585066</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5">
+      <c r="A1031" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1031">
+        <v>257</v>
+      </c>
+      <c r="E1031">
+        <v>1.950369693713792</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5">
+      <c r="A1032" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1032">
+        <v>28</v>
+      </c>
+      <c r="E1032">
+        <v>2.85031373810503</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5">
+      <c r="A1033" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1033">
+        <v>145</v>
+      </c>
+      <c r="E1033">
+        <v>3.942926010041681</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5">
+      <c r="A1034" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1034">
+        <v>50</v>
+      </c>
+      <c r="E1034">
+        <v>1.970157628371531</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5">
+      <c r="A1035" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1035">
+        <v>66</v>
+      </c>
+      <c r="E1035">
+        <v>4.09642741875419</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5">
+      <c r="A1036" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1036">
+        <v>75</v>
+      </c>
+      <c r="E1036">
+        <v>1.85505720749087</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5">
+      <c r="A1037" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1037">
+        <v>59</v>
+      </c>
+      <c r="E1037">
+        <v>2.719830282590367</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5">
+      <c r="A1038" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1038">
+        <v>53</v>
+      </c>
+      <c r="E1038">
+        <v>2.513202612023635</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1038"/>
+  <dimension ref="A1:E1055"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18124,7 +18124,7 @@
         <v>59</v>
       </c>
       <c r="E1037">
-        <v>2.719830282590367</v>
+        <v>2.719830282590366</v>
       </c>
     </row>
     <row r="1038" spans="1:5">
@@ -18141,6 +18141,295 @@
         <v>53</v>
       </c>
       <c r="E1038">
+        <v>2.513202612023635</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5">
+      <c r="A1039" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1039">
+        <v>1864</v>
+      </c>
+      <c r="E1039">
+        <v>2.239385397313824</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5">
+      <c r="A1040" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1040">
+        <v>146</v>
+      </c>
+      <c r="E1040">
+        <v>4.996569136603121</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5">
+      <c r="A1041" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1041">
+        <v>77</v>
+      </c>
+      <c r="E1041">
+        <v>4.153327921421194</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5">
+      <c r="A1042" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1042">
+        <v>138</v>
+      </c>
+      <c r="E1042">
+        <v>1.719191068279168</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5">
+      <c r="A1043" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1043">
+        <v>7</v>
+      </c>
+      <c r="E1043">
+        <v>1.034794216387297</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5">
+      <c r="A1044" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1044">
+        <v>366</v>
+      </c>
+      <c r="E1044">
+        <v>2.041887594534235</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5">
+      <c r="A1045" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1045">
+        <v>150</v>
+      </c>
+      <c r="E1045">
+        <v>2.382837091623422</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5">
+      <c r="A1046" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1046">
+        <v>76</v>
+      </c>
+      <c r="E1046">
+        <v>1.85073122147043</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5">
+      <c r="A1047" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1047">
+        <v>177</v>
+      </c>
+      <c r="E1047">
+        <v>1.591062435986704</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5">
+      <c r="A1048" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1048">
+        <v>254</v>
+      </c>
+      <c r="E1048">
+        <v>1.927602732308572</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5">
+      <c r="A1049" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1049">
+        <v>28</v>
+      </c>
+      <c r="E1049">
+        <v>2.85031373810503</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5">
+      <c r="A1050" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1050">
+        <v>145</v>
+      </c>
+      <c r="E1050">
+        <v>3.942926010041681</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5">
+      <c r="A1051" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1051">
+        <v>50</v>
+      </c>
+      <c r="E1051">
+        <v>1.970157628371531</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5">
+      <c r="A1052" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1052">
+        <v>66</v>
+      </c>
+      <c r="E1052">
+        <v>4.09642741875419</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5">
+      <c r="A1053" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1053">
+        <v>72</v>
+      </c>
+      <c r="E1053">
+        <v>1.780854919191235</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5">
+      <c r="A1054" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1054">
+        <v>59</v>
+      </c>
+      <c r="E1054">
+        <v>2.719830282590367</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5">
+      <c r="A1055" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1055">
+        <v>53</v>
+      </c>
+      <c r="E1055">
         <v>2.513202612023635</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1055"/>
+  <dimension ref="A1:E1072"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18413,7 +18413,7 @@
         <v>59</v>
       </c>
       <c r="E1054">
-        <v>2.719830282590367</v>
+        <v>2.719830282590366</v>
       </c>
     </row>
     <row r="1055" spans="1:5">
@@ -18431,6 +18431,295 @@
       </c>
       <c r="E1055">
         <v>2.513202612023635</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5">
+      <c r="A1056" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1056">
+        <v>1821</v>
+      </c>
+      <c r="E1056">
+        <v>2.187725755637592</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5">
+      <c r="A1057" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1057">
+        <v>141</v>
+      </c>
+      <c r="E1057">
+        <v>4.825453755212602</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5">
+      <c r="A1058" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1058">
+        <v>75</v>
+      </c>
+      <c r="E1058">
+        <v>4.045449274111552</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5">
+      <c r="A1059" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1059">
+        <v>133</v>
+      </c>
+      <c r="E1059">
+        <v>1.656901536819778</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5">
+      <c r="A1060" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1060">
+        <v>7</v>
+      </c>
+      <c r="E1060">
+        <v>1.034794216387297</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5">
+      <c r="A1061" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1061">
+        <v>353</v>
+      </c>
+      <c r="E1061">
+        <v>1.969361532433292</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5">
+      <c r="A1062" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1062">
+        <v>148</v>
+      </c>
+      <c r="E1062">
+        <v>2.351065930401777</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5">
+      <c r="A1063" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1063">
+        <v>75</v>
+      </c>
+      <c r="E1063">
+        <v>1.826379494872135</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5">
+      <c r="A1064" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1064">
+        <v>171</v>
+      </c>
+      <c r="E1064">
+        <v>1.537128116122748</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5">
+      <c r="A1065" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1065">
+        <v>252</v>
+      </c>
+      <c r="E1065">
+        <v>1.912424758038426</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5">
+      <c r="A1066" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1066">
+        <v>28</v>
+      </c>
+      <c r="E1066">
+        <v>2.85031373810503</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5">
+      <c r="A1067" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1067">
+        <v>145</v>
+      </c>
+      <c r="E1067">
+        <v>3.942926010041681</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5">
+      <c r="A1068" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1068">
+        <v>50</v>
+      </c>
+      <c r="E1068">
+        <v>1.970157628371531</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5">
+      <c r="A1069" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1069">
+        <v>63</v>
+      </c>
+      <c r="E1069">
+        <v>3.910226172447181</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5">
+      <c r="A1070" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1070">
+        <v>69</v>
+      </c>
+      <c r="E1070">
+        <v>1.7066526308916</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5">
+      <c r="A1071" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1071">
+        <v>59</v>
+      </c>
+      <c r="E1071">
+        <v>2.719830282590367</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5">
+      <c r="A1072" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1072">
+        <v>52</v>
+      </c>
+      <c r="E1072">
+        <v>2.465783694815642</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1072"/>
+  <dimension ref="A1:E1089"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18702,7 +18702,7 @@
         <v>59</v>
       </c>
       <c r="E1071">
-        <v>2.719830282590367</v>
+        <v>2.719830282590366</v>
       </c>
     </row>
     <row r="1072" spans="1:5">
@@ -18720,6 +18720,295 @@
       </c>
       <c r="E1072">
         <v>2.465783694815642</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5">
+      <c r="A1073" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1073">
+        <v>1643</v>
+      </c>
+      <c r="E1073">
+        <v>1.973878866838311</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5">
+      <c r="A1074" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1074">
+        <v>136</v>
+      </c>
+      <c r="E1074">
+        <v>4.654338373822084</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5">
+      <c r="A1075" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1075">
+        <v>59</v>
+      </c>
+      <c r="E1075">
+        <v>3.182420095634421</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5">
+      <c r="A1076" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1076">
+        <v>104</v>
+      </c>
+      <c r="E1076">
+        <v>1.295622254355315</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5">
+      <c r="A1077" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1077">
+        <v>7</v>
+      </c>
+      <c r="E1077">
+        <v>1.034794216387297</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5">
+      <c r="A1078" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1078">
+        <v>317</v>
+      </c>
+      <c r="E1078">
+        <v>1.76852012969222</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5">
+      <c r="A1079" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1079">
+        <v>116</v>
+      </c>
+      <c r="E1079">
+        <v>1.842727350855446</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5">
+      <c r="A1080" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1080">
+        <v>77</v>
+      </c>
+      <c r="E1080">
+        <v>1.875082948068725</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5">
+      <c r="A1081" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1081">
+        <v>163</v>
+      </c>
+      <c r="E1081">
+        <v>1.465215689637473</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5">
+      <c r="A1082" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1082">
+        <v>216</v>
+      </c>
+      <c r="E1082">
+        <v>1.639221221175794</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5">
+      <c r="A1083" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1083">
+        <v>21</v>
+      </c>
+      <c r="E1083">
+        <v>2.137735303578773</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5">
+      <c r="A1084" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1084">
+        <v>172</v>
+      </c>
+      <c r="E1084">
+        <v>4.677126025704614</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5">
+      <c r="A1085" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1085">
+        <v>52</v>
+      </c>
+      <c r="E1085">
+        <v>2.048963933506392</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5">
+      <c r="A1086" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1086">
+        <v>43</v>
+      </c>
+      <c r="E1086">
+        <v>2.668884530400457</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5">
+      <c r="A1087" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1087">
+        <v>62</v>
+      </c>
+      <c r="E1087">
+        <v>1.533513958192452</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5">
+      <c r="A1088" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1088">
+        <v>57</v>
+      </c>
+      <c r="E1088">
+        <v>2.627632645892388</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5">
+      <c r="A1089" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1089">
+        <v>41</v>
+      </c>
+      <c r="E1089">
+        <v>1.944175605527718</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1089"/>
+  <dimension ref="A1:E1106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18736,7 +18736,7 @@
         <v>1643</v>
       </c>
       <c r="E1073">
-        <v>1.973878866838311</v>
+        <v>1.973878866838312</v>
       </c>
     </row>
     <row r="1074" spans="1:5">
@@ -18889,7 +18889,7 @@
         <v>216</v>
       </c>
       <c r="E1082">
-        <v>1.639221221175794</v>
+        <v>1.639221221175793</v>
       </c>
     </row>
     <row r="1083" spans="1:5">
@@ -19009,6 +19009,295 @@
       </c>
       <c r="E1089">
         <v>1.944175605527718</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5">
+      <c r="A1090" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1090">
+        <v>1551</v>
+      </c>
+      <c r="E1090">
+        <v>1.863351261391492</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5">
+      <c r="A1091" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1091">
+        <v>98</v>
+      </c>
+      <c r="E1091">
+        <v>3.353861475254149</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5">
+      <c r="A1092" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1092">
+        <v>53</v>
+      </c>
+      <c r="E1092">
+        <v>2.858784153705497</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5">
+      <c r="A1093" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1093">
+        <v>123</v>
+      </c>
+      <c r="E1093">
+        <v>1.532322473900998</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5">
+      <c r="A1094" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1094">
+        <v>8</v>
+      </c>
+      <c r="E1094">
+        <v>1.182621961585482</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5">
+      <c r="A1095" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1095">
+        <v>282</v>
+      </c>
+      <c r="E1095">
+        <v>1.573257654805066</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5">
+      <c r="A1096" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1096">
+        <v>89</v>
+      </c>
+      <c r="E1096">
+        <v>1.413816674363231</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5">
+      <c r="A1097" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1097">
+        <v>78</v>
+      </c>
+      <c r="E1097">
+        <v>1.899434674667021</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5">
+      <c r="A1098" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1098">
+        <v>156</v>
+      </c>
+      <c r="E1098">
+        <v>1.402292316462858</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5">
+      <c r="A1099" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1099">
+        <v>197</v>
+      </c>
+      <c r="E1099">
+        <v>1.495030465609404</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5">
+      <c r="A1100" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1100">
+        <v>25</v>
+      </c>
+      <c r="E1100">
+        <v>2.54492298045092</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5">
+      <c r="A1101" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1101">
+        <v>187</v>
+      </c>
+      <c r="E1101">
+        <v>5.085014923295133</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5">
+      <c r="A1102" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1102">
+        <v>54</v>
+      </c>
+      <c r="E1102">
+        <v>2.127770238641253</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5">
+      <c r="A1103" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1103">
+        <v>44</v>
+      </c>
+      <c r="E1103">
+        <v>2.730951612502793</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5">
+      <c r="A1104" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1104">
+        <v>62</v>
+      </c>
+      <c r="E1104">
+        <v>1.533513958192452</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5">
+      <c r="A1105" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1105">
+        <v>53</v>
+      </c>
+      <c r="E1105">
+        <v>2.443237372496431</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5">
+      <c r="A1106" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1106">
+        <v>42</v>
+      </c>
+      <c r="E1106">
+        <v>1.991594522735711</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1106"/>
+  <dimension ref="A1:E1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19300,6 +19300,295 @@
         <v>1.991594522735711</v>
       </c>
     </row>
+    <row r="1107" spans="1:5">
+      <c r="A1107" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1107">
+        <v>1492</v>
+      </c>
+      <c r="E1107">
+        <v>1.79246942746364</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5">
+      <c r="A1108" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1108">
+        <v>87</v>
+      </c>
+      <c r="E1108">
+        <v>2.97740763619501</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5">
+      <c r="A1109" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1109">
+        <v>51</v>
+      </c>
+      <c r="E1109">
+        <v>2.750905506395855</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5">
+      <c r="A1110" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1110">
+        <v>133</v>
+      </c>
+      <c r="E1110">
+        <v>1.656901536819778</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5">
+      <c r="A1111" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1111">
+        <v>10</v>
+      </c>
+      <c r="E1111">
+        <v>1.478277451981853</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5">
+      <c r="A1112" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1112">
+        <v>273</v>
+      </c>
+      <c r="E1112">
+        <v>1.523047304119798</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5">
+      <c r="A1113" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1113">
+        <v>74</v>
+      </c>
+      <c r="E1113">
+        <v>1.175532965200888</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5">
+      <c r="A1114" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1114">
+        <v>81</v>
+      </c>
+      <c r="E1114">
+        <v>1.972489854461906</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5">
+      <c r="A1115" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1115">
+        <v>120</v>
+      </c>
+      <c r="E1115">
+        <v>1.078686397279121</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5">
+      <c r="A1116" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1116">
+        <v>181</v>
+      </c>
+      <c r="E1116">
+        <v>1.373606671448234</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5">
+      <c r="A1117" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1117">
+        <v>24</v>
+      </c>
+      <c r="E1117">
+        <v>2.443126061232883</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5">
+      <c r="A1118" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1118">
+        <v>177</v>
+      </c>
+      <c r="E1118">
+        <v>4.813088991568121</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5">
+      <c r="A1119" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1119">
+        <v>51</v>
+      </c>
+      <c r="E1119">
+        <v>2.009560780938962</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5">
+      <c r="A1120" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1120">
+        <v>42</v>
+      </c>
+      <c r="E1120">
+        <v>2.606817448298121</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5">
+      <c r="A1121" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1121">
+        <v>71</v>
+      </c>
+      <c r="E1121">
+        <v>1.756120823091356</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5">
+      <c r="A1122" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1122">
+        <v>67</v>
+      </c>
+      <c r="E1122">
+        <v>3.08862082938228</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5">
+      <c r="A1123" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1123">
+        <v>50</v>
+      </c>
+      <c r="E1123">
+        <v>2.370945860399656</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1123"/>
+  <dimension ref="A1:E1140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19518,7 +19518,7 @@
         <v>51</v>
       </c>
       <c r="E1119">
-        <v>2.009560780938962</v>
+        <v>2.009560780938961</v>
       </c>
     </row>
     <row r="1120" spans="1:5">
@@ -19587,6 +19587,295 @@
       </c>
       <c r="E1123">
         <v>2.370945860399656</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5">
+      <c r="A1124" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1124">
+        <v>1420</v>
+      </c>
+      <c r="E1124">
+        <v>1.705969562331346</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5">
+      <c r="A1125" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1125">
+        <v>77</v>
+      </c>
+      <c r="E1125">
+        <v>2.635176873413974</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5">
+      <c r="A1126" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1126">
+        <v>43</v>
+      </c>
+      <c r="E1126">
+        <v>2.31939091715729</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5">
+      <c r="A1127" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1127">
+        <v>124</v>
+      </c>
+      <c r="E1127">
+        <v>1.544780380192876</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5">
+      <c r="A1128" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1128">
+        <v>9</v>
+      </c>
+      <c r="E1128">
+        <v>1.330449706783667</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5">
+      <c r="A1129" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1129">
+        <v>264</v>
+      </c>
+      <c r="E1129">
+        <v>1.47283695343453</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5">
+      <c r="A1130" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1130">
+        <v>78</v>
+      </c>
+      <c r="E1130">
+        <v>1.23907528764418</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5">
+      <c r="A1131" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1131">
+        <v>78</v>
+      </c>
+      <c r="E1131">
+        <v>1.899434674667021</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5">
+      <c r="A1132" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1132">
+        <v>102</v>
+      </c>
+      <c r="E1132">
+        <v>0.9168834376872531</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5">
+      <c r="A1133" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1133">
+        <v>178</v>
+      </c>
+      <c r="E1133">
+        <v>1.350839710043015</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5">
+      <c r="A1134" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1134">
+        <v>23</v>
+      </c>
+      <c r="E1134">
+        <v>2.341329142014846</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5">
+      <c r="A1135" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1135">
+        <v>169</v>
+      </c>
+      <c r="E1135">
+        <v>4.59554824618651</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5">
+      <c r="A1136" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1136">
+        <v>52</v>
+      </c>
+      <c r="E1136">
+        <v>2.048963933506392</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5">
+      <c r="A1137" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1137">
+        <v>42</v>
+      </c>
+      <c r="E1137">
+        <v>2.606817448298121</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5">
+      <c r="A1138" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1138">
+        <v>72</v>
+      </c>
+      <c r="E1138">
+        <v>1.780854919191235</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5">
+      <c r="A1139" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1139">
+        <v>68</v>
+      </c>
+      <c r="E1139">
+        <v>3.13471964773127</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5">
+      <c r="A1140" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1140">
+        <v>41</v>
+      </c>
+      <c r="E1140">
+        <v>1.944175605527718</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1140"/>
+  <dimension ref="A1:E1157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19637,7 +19637,7 @@
         <v>43</v>
       </c>
       <c r="E1126">
-        <v>2.31939091715729</v>
+        <v>2.319390917157289</v>
       </c>
     </row>
     <row r="1127" spans="1:5">
@@ -19739,7 +19739,7 @@
         <v>102</v>
       </c>
       <c r="E1132">
-        <v>0.9168834376872531</v>
+        <v>0.9168834376872532</v>
       </c>
     </row>
     <row r="1133" spans="1:5">
@@ -19858,7 +19858,7 @@
         <v>68</v>
       </c>
       <c r="E1139">
-        <v>3.13471964773127</v>
+        <v>3.134719647731269</v>
       </c>
     </row>
     <row r="1140" spans="1:5">
@@ -19875,6 +19875,295 @@
         <v>41</v>
       </c>
       <c r="E1140">
+        <v>1.944175605527718</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5">
+      <c r="A1141" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1141">
+        <v>1398</v>
+      </c>
+      <c r="E1141">
+        <v>1.679539047985368</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5">
+      <c r="A1142" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1142">
+        <v>79</v>
+      </c>
+      <c r="E1142">
+        <v>2.703623025970181</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5">
+      <c r="A1143" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1143">
+        <v>41</v>
+      </c>
+      <c r="E1143">
+        <v>2.211512269847649</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5">
+      <c r="A1144" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1144">
+        <v>113</v>
+      </c>
+      <c r="E1144">
+        <v>1.407743410982218</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5">
+      <c r="A1145" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1145">
+        <v>9</v>
+      </c>
+      <c r="E1145">
+        <v>1.330449706783667</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5">
+      <c r="A1146" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1146">
+        <v>276</v>
+      </c>
+      <c r="E1146">
+        <v>1.539784087681554</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5">
+      <c r="A1147" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1147">
+        <v>83</v>
+      </c>
+      <c r="E1147">
+        <v>1.318503190698294</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5">
+      <c r="A1148" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1148">
+        <v>68</v>
+      </c>
+      <c r="E1148">
+        <v>1.655917408684069</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5">
+      <c r="A1149" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1149">
+        <v>111</v>
+      </c>
+      <c r="E1149">
+        <v>0.9977849174831873</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5">
+      <c r="A1150" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1150">
+        <v>165</v>
+      </c>
+      <c r="E1150">
+        <v>1.252182877287065</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5">
+      <c r="A1151" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1151">
+        <v>27</v>
+      </c>
+      <c r="E1151">
+        <v>2.748516818886993</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5">
+      <c r="A1152" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1152">
+        <v>147</v>
+      </c>
+      <c r="E1152">
+        <v>3.997311196387083</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5">
+      <c r="A1153" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1153">
+        <v>50</v>
+      </c>
+      <c r="E1153">
+        <v>1.970157628371531</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5">
+      <c r="A1154" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1154">
+        <v>51</v>
+      </c>
+      <c r="E1154">
+        <v>3.165421187219146</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5">
+      <c r="A1155" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1155">
+        <v>70</v>
+      </c>
+      <c r="E1155">
+        <v>1.731386726991478</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5">
+      <c r="A1156" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1156">
+        <v>67</v>
+      </c>
+      <c r="E1156">
+        <v>3.08862082938228</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5">
+      <c r="A1157" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1157">
+        <v>41</v>
+      </c>
+      <c r="E1157">
         <v>1.944175605527718</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1157"/>
+  <dimension ref="A1:E1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -19977,7 +19977,7 @@
         <v>276</v>
       </c>
       <c r="E1146">
-        <v>1.539784087681554</v>
+        <v>1.539784087681555</v>
       </c>
     </row>
     <row r="1147" spans="1:5">
@@ -20028,7 +20028,7 @@
         <v>111</v>
       </c>
       <c r="E1149">
-        <v>0.9977849174831873</v>
+        <v>0.9977849174831872</v>
       </c>
     </row>
     <row r="1150" spans="1:5">
@@ -20164,6 +20164,295 @@
         <v>41</v>
       </c>
       <c r="E1157">
+        <v>1.944175605527718</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5">
+      <c r="A1158" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1158">
+        <v>1376</v>
+      </c>
+      <c r="E1158">
+        <v>1.653108533639389</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5">
+      <c r="A1159" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1159">
+        <v>78</v>
+      </c>
+      <c r="E1159">
+        <v>2.669399949692078</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5">
+      <c r="A1160" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1160">
+        <v>41</v>
+      </c>
+      <c r="E1160">
+        <v>2.211512269847649</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5">
+      <c r="A1161" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1161">
+        <v>108</v>
+      </c>
+      <c r="E1161">
+        <v>1.345453879522827</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5">
+      <c r="A1162" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1162">
+        <v>9</v>
+      </c>
+      <c r="E1162">
+        <v>1.330449706783667</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5">
+      <c r="A1163" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1163">
+        <v>269</v>
+      </c>
+      <c r="E1163">
+        <v>1.500731592704124</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5">
+      <c r="A1164" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1164">
+        <v>80</v>
+      </c>
+      <c r="E1164">
+        <v>1.270846448865825</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5">
+      <c r="A1165" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1165">
+        <v>66</v>
+      </c>
+      <c r="E1165">
+        <v>1.607213955487479</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5">
+      <c r="A1166" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1166">
+        <v>109</v>
+      </c>
+      <c r="E1166">
+        <v>0.9798068108618687</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5">
+      <c r="A1167" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1167">
+        <v>165</v>
+      </c>
+      <c r="E1167">
+        <v>1.252182877287065</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5">
+      <c r="A1168" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1168">
+        <v>27</v>
+      </c>
+      <c r="E1168">
+        <v>2.748516818886993</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5">
+      <c r="A1169" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1169">
+        <v>147</v>
+      </c>
+      <c r="E1169">
+        <v>3.997311196387083</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5">
+      <c r="A1170" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1170">
+        <v>50</v>
+      </c>
+      <c r="E1170">
+        <v>1.970157628371531</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5">
+      <c r="A1171" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1171">
+        <v>49</v>
+      </c>
+      <c r="E1171">
+        <v>3.041287023014474</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5">
+      <c r="A1172" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1172">
+        <v>70</v>
+      </c>
+      <c r="E1172">
+        <v>1.731386726991478</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5">
+      <c r="A1173" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1173">
+        <v>67</v>
+      </c>
+      <c r="E1173">
+        <v>3.08862082938228</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5">
+      <c r="A1174" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1174">
+        <v>41</v>
+      </c>
+      <c r="E1174">
         <v>1.944175605527718</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2351" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1174"/>
+  <dimension ref="A1:E1191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20232,7 +20232,7 @@
         <v>108</v>
       </c>
       <c r="E1161">
-        <v>1.345453879522827</v>
+        <v>1.345453879522828</v>
       </c>
     </row>
     <row r="1162" spans="1:5">
@@ -20317,7 +20317,7 @@
         <v>109</v>
       </c>
       <c r="E1166">
-        <v>0.9798068108618687</v>
+        <v>0.9798068108618688</v>
       </c>
     </row>
     <row r="1167" spans="1:5">
@@ -20453,6 +20453,295 @@
         <v>41</v>
       </c>
       <c r="E1174">
+        <v>1.944175605527718</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5">
+      <c r="A1175" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1175">
+        <v>1360</v>
+      </c>
+      <c r="E1175">
+        <v>1.633886341387768</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5">
+      <c r="A1176" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1176">
+        <v>78</v>
+      </c>
+      <c r="E1176">
+        <v>2.669399949692078</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5">
+      <c r="A1177" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1177">
+        <v>41</v>
+      </c>
+      <c r="E1177">
+        <v>2.211512269847649</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5">
+      <c r="A1178" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1178">
+        <v>102</v>
+      </c>
+      <c r="E1178">
+        <v>1.270706441771559</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5">
+      <c r="A1179" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1179">
+        <v>9</v>
+      </c>
+      <c r="E1179">
+        <v>1.330449706783667</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5">
+      <c r="A1180" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1180">
+        <v>267</v>
+      </c>
+      <c r="E1180">
+        <v>1.489573736996286</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5">
+      <c r="A1181" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1181">
+        <v>80</v>
+      </c>
+      <c r="E1181">
+        <v>1.270846448865825</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5">
+      <c r="A1182" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1182">
+        <v>66</v>
+      </c>
+      <c r="E1182">
+        <v>1.607213955487479</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5">
+      <c r="A1183" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1183">
+        <v>108</v>
+      </c>
+      <c r="E1183">
+        <v>0.9708177575512092</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5">
+      <c r="A1184" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1184">
+        <v>162</v>
+      </c>
+      <c r="E1184">
+        <v>1.229415915881845</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5">
+      <c r="A1185" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1185">
+        <v>27</v>
+      </c>
+      <c r="E1185">
+        <v>2.748516818886993</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5">
+      <c r="A1186" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1186">
+        <v>147</v>
+      </c>
+      <c r="E1186">
+        <v>3.997311196387083</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5">
+      <c r="A1187" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1187">
+        <v>50</v>
+      </c>
+      <c r="E1187">
+        <v>1.970157628371531</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5">
+      <c r="A1188" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1188">
+        <v>48</v>
+      </c>
+      <c r="E1188">
+        <v>2.979219940912138</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5">
+      <c r="A1189" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1189">
+        <v>67</v>
+      </c>
+      <c r="E1189">
+        <v>1.657184438691843</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5">
+      <c r="A1190" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1190">
+        <v>67</v>
+      </c>
+      <c r="E1190">
+        <v>3.08862082938228</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5">
+      <c r="A1191" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1191">
+        <v>41</v>
+      </c>
+      <c r="E1191">
         <v>1.944175605527718</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1191"/>
+  <dimension ref="A1:E1208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20745,6 +20745,295 @@
         <v>1.944175605527718</v>
       </c>
     </row>
+    <row r="1192" spans="1:5">
+      <c r="A1192" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1192">
+        <v>1204</v>
+      </c>
+      <c r="E1192">
+        <v>1.446469966934465</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5">
+      <c r="A1193" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1193">
+        <v>57</v>
+      </c>
+      <c r="E1193">
+        <v>1.950715347851903</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5">
+      <c r="A1194" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1194">
+        <v>39</v>
+      </c>
+      <c r="E1194">
+        <v>2.103633622538007</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5">
+      <c r="A1195" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1195">
+        <v>112</v>
+      </c>
+      <c r="E1195">
+        <v>1.395285504690339</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5">
+      <c r="A1196" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1196">
+        <v>9</v>
+      </c>
+      <c r="E1196">
+        <v>1.330449706783667</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5">
+      <c r="A1197" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1197">
+        <v>248</v>
+      </c>
+      <c r="E1197">
+        <v>1.383574107771832</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5">
+      <c r="A1198" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1198">
+        <v>78</v>
+      </c>
+      <c r="E1198">
+        <v>1.23907528764418</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5">
+      <c r="A1199" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1199">
+        <v>40</v>
+      </c>
+      <c r="E1199">
+        <v>0.9740690639318054</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5">
+      <c r="A1200" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1200">
+        <v>110</v>
+      </c>
+      <c r="E1200">
+        <v>0.9887958641725278</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5">
+      <c r="A1201" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1201">
+        <v>155</v>
+      </c>
+      <c r="E1201">
+        <v>1.176293005936333</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5">
+      <c r="A1202" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1202">
+        <v>20</v>
+      </c>
+      <c r="E1202">
+        <v>2.035938384360735</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5">
+      <c r="A1203" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1203">
+        <v>83</v>
+      </c>
+      <c r="E1203">
+        <v>2.256985233334203</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5">
+      <c r="A1204" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1204">
+        <v>42</v>
+      </c>
+      <c r="E1204">
+        <v>1.654932407832086</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5">
+      <c r="A1205" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1205">
+        <v>45</v>
+      </c>
+      <c r="E1205">
+        <v>2.793018694605129</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5">
+      <c r="A1206" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1206">
+        <v>64</v>
+      </c>
+      <c r="E1206">
+        <v>1.582982150392209</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5">
+      <c r="A1207" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1207">
+        <v>65</v>
+      </c>
+      <c r="E1207">
+        <v>2.996423192684302</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5">
+      <c r="A1208" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1208">
+        <v>37</v>
+      </c>
+      <c r="E1208">
+        <v>1.754499936695745</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1208"/>
+  <dimension ref="A1:E1225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20912,7 +20912,7 @@
         <v>155</v>
       </c>
       <c r="E1201">
-        <v>1.176293005936333</v>
+        <v>1.176293005936334</v>
       </c>
     </row>
     <row r="1202" spans="1:5">
@@ -20946,7 +20946,7 @@
         <v>83</v>
       </c>
       <c r="E1203">
-        <v>2.256985233334203</v>
+        <v>2.256985233334204</v>
       </c>
     </row>
     <row r="1204" spans="1:5">
@@ -21032,6 +21032,295 @@
       </c>
       <c r="E1208">
         <v>1.754499936695745</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5">
+      <c r="A1209" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1209">
+        <v>1073</v>
+      </c>
+      <c r="E1209">
+        <v>1.28908826787432</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5">
+      <c r="A1210" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1210">
+        <v>48</v>
+      </c>
+      <c r="E1210">
+        <v>1.642707661348971</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5">
+      <c r="A1211" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1211">
+        <v>40</v>
+      </c>
+      <c r="E1211">
+        <v>2.157572946192828</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5">
+      <c r="A1212" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1212">
+        <v>97</v>
+      </c>
+      <c r="E1212">
+        <v>1.208416910312169</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5">
+      <c r="A1213" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1213">
+        <v>7</v>
+      </c>
+      <c r="E1213">
+        <v>1.034794216387297</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5">
+      <c r="A1214" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1214">
+        <v>231</v>
+      </c>
+      <c r="E1214">
+        <v>1.288732334255214</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5">
+      <c r="A1215" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1215">
+        <v>82</v>
+      </c>
+      <c r="E1215">
+        <v>1.302617610087471</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5">
+      <c r="A1216" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1216">
+        <v>37</v>
+      </c>
+      <c r="E1216">
+        <v>0.90101388413692</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5">
+      <c r="A1217" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1217">
+        <v>110</v>
+      </c>
+      <c r="E1217">
+        <v>0.9887958641725278</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5">
+      <c r="A1218" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1218">
+        <v>131</v>
+      </c>
+      <c r="E1218">
+        <v>0.9941573146945786</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5">
+      <c r="A1219" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1219">
+        <v>12</v>
+      </c>
+      <c r="E1219">
+        <v>1.221563030616442</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5">
+      <c r="A1220" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1220">
+        <v>72</v>
+      </c>
+      <c r="E1220">
+        <v>1.95786670843449</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5">
+      <c r="A1221" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1221">
+        <v>36</v>
+      </c>
+      <c r="E1221">
+        <v>1.418513492427502</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5">
+      <c r="A1222" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1222">
+        <v>40</v>
+      </c>
+      <c r="E1222">
+        <v>2.482683284093448</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5">
+      <c r="A1223" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1223">
+        <v>48</v>
+      </c>
+      <c r="E1223">
+        <v>1.187236612794156</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5">
+      <c r="A1224" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1224">
+        <v>48</v>
+      </c>
+      <c r="E1224">
+        <v>2.212743280751484</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5">
+      <c r="A1225" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1225">
+        <v>34</v>
+      </c>
+      <c r="E1225">
+        <v>1.612243185071766</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1225"/>
+  <dimension ref="A1:E1242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21323,6 +21323,295 @@
         <v>1.612243185071766</v>
       </c>
     </row>
+    <row r="1226" spans="1:5">
+      <c r="A1226" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1226">
+        <v>1076</v>
+      </c>
+      <c r="E1226">
+        <v>1.292692428921499</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5">
+      <c r="A1227" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1227">
+        <v>52</v>
+      </c>
+      <c r="E1227">
+        <v>1.779599966461385</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5">
+      <c r="A1228" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1228">
+        <v>46</v>
+      </c>
+      <c r="E1228">
+        <v>2.481208888121752</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5">
+      <c r="A1229" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1229">
+        <v>98</v>
+      </c>
+      <c r="E1229">
+        <v>1.220874816604047</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5">
+      <c r="A1230" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1230">
+        <v>6</v>
+      </c>
+      <c r="E1230">
+        <v>0.8869664711891116</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5">
+      <c r="A1231" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1231">
+        <v>226</v>
+      </c>
+      <c r="E1231">
+        <v>1.260837694985621</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5">
+      <c r="A1232" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1232">
+        <v>79</v>
+      </c>
+      <c r="E1232">
+        <v>1.254960868255002</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5">
+      <c r="A1233" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1233">
+        <v>44</v>
+      </c>
+      <c r="E1233">
+        <v>1.071475970324986</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5">
+      <c r="A1234" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1234">
+        <v>111</v>
+      </c>
+      <c r="E1234">
+        <v>0.9977849174831873</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5">
+      <c r="A1235" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1235">
+        <v>145</v>
+      </c>
+      <c r="E1235">
+        <v>1.100403134585602</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5">
+      <c r="A1236" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1236">
+        <v>15</v>
+      </c>
+      <c r="E1236">
+        <v>1.526953788270552</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5">
+      <c r="A1237" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1237">
+        <v>69</v>
+      </c>
+      <c r="E1237">
+        <v>1.876288928916386</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:5">
+      <c r="A1238" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1238">
+        <v>34</v>
+      </c>
+      <c r="E1238">
+        <v>1.339707187292641</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5">
+      <c r="A1239" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1239">
+        <v>39</v>
+      </c>
+      <c r="E1239">
+        <v>2.420616201991112</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5">
+      <c r="A1240" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1240">
+        <v>43</v>
+      </c>
+      <c r="E1240">
+        <v>1.063566132294765</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5">
+      <c r="A1241" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1241">
+        <v>43</v>
+      </c>
+      <c r="E1241">
+        <v>1.982249189006538</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5">
+      <c r="A1242" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1242">
+        <v>26</v>
+      </c>
+      <c r="E1242">
+        <v>1.232891847407821</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1242"/>
+  <dimension ref="A1:E1259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21473,7 +21473,7 @@
         <v>111</v>
       </c>
       <c r="E1234">
-        <v>0.9977849174831873</v>
+        <v>0.9977849174831872</v>
       </c>
     </row>
     <row r="1235" spans="1:5">
@@ -21610,6 +21610,295 @@
       </c>
       <c r="E1242">
         <v>1.232891847407821</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5">
+      <c r="A1243" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1243">
+        <v>1000</v>
+      </c>
+      <c r="E1243">
+        <v>1.2013870157263</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5">
+      <c r="A1244" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1244">
+        <v>42</v>
+      </c>
+      <c r="E1244">
+        <v>1.43736920368035</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5">
+      <c r="A1245" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1245">
+        <v>49</v>
+      </c>
+      <c r="E1245">
+        <v>2.643026859086214</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5">
+      <c r="A1246" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1246">
+        <v>88</v>
+      </c>
+      <c r="E1246">
+        <v>1.096295753685267</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5">
+      <c r="A1247" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1247">
+        <v>6</v>
+      </c>
+      <c r="E1247">
+        <v>0.8869664711891116</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5">
+      <c r="A1248" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1248">
+        <v>211</v>
+      </c>
+      <c r="E1248">
+        <v>1.177153777176841</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5">
+      <c r="A1249" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1249">
+        <v>81</v>
+      </c>
+      <c r="E1249">
+        <v>1.286732029476648</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5">
+      <c r="A1250" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1250">
+        <v>40</v>
+      </c>
+      <c r="E1250">
+        <v>0.9740690639318054</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5">
+      <c r="A1251" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1251">
+        <v>105</v>
+      </c>
+      <c r="E1251">
+        <v>0.9438505976192312</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5">
+      <c r="A1252" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1252">
+        <v>133</v>
+      </c>
+      <c r="E1252">
+        <v>1.009335288964725</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5">
+      <c r="A1253" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1253">
+        <v>16</v>
+      </c>
+      <c r="E1253">
+        <v>1.628750707488589</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5">
+      <c r="A1254" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1254">
+        <v>71</v>
+      </c>
+      <c r="E1254">
+        <v>1.930674115261789</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5">
+      <c r="A1255" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1255">
+        <v>36</v>
+      </c>
+      <c r="E1255">
+        <v>1.418513492427502</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5">
+      <c r="A1256" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1256">
+        <v>27</v>
+      </c>
+      <c r="E1256">
+        <v>1.675811216763078</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5">
+      <c r="A1257" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1257">
+        <v>39</v>
+      </c>
+      <c r="E1257">
+        <v>0.9646297478952521</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5">
+      <c r="A1258" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1258">
+        <v>33</v>
+      </c>
+      <c r="E1258">
+        <v>1.521261005516646</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5">
+      <c r="A1259" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1259">
+        <v>23</v>
+      </c>
+      <c r="E1259">
+        <v>1.090635095783842</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2521" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1259"/>
+  <dimension ref="A1:E1276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21864,7 +21864,7 @@
         <v>39</v>
       </c>
       <c r="E1257">
-        <v>0.9646297478952521</v>
+        <v>0.964629747895252</v>
       </c>
     </row>
     <row r="1258" spans="1:5">
@@ -21899,6 +21899,295 @@
       </c>
       <c r="E1259">
         <v>1.090635095783842</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5">
+      <c r="A1260" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1260">
+        <v>1024</v>
+      </c>
+      <c r="E1260">
+        <v>1.230220304103731</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5">
+      <c r="A1261" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1261">
+        <v>39</v>
+      </c>
+      <c r="E1261">
+        <v>1.334699974846039</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5">
+      <c r="A1262" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1262">
+        <v>44</v>
+      </c>
+      <c r="E1262">
+        <v>2.37333024081211</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5">
+      <c r="A1263" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1263">
+        <v>91</v>
+      </c>
+      <c r="E1263">
+        <v>1.133669472560901</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5">
+      <c r="A1264" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1264">
+        <v>6</v>
+      </c>
+      <c r="E1264">
+        <v>0.8869664711891116</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5">
+      <c r="A1265" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1265">
+        <v>229</v>
+      </c>
+      <c r="E1265">
+        <v>1.277574478547377</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5">
+      <c r="A1266" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1266">
+        <v>93</v>
+      </c>
+      <c r="E1266">
+        <v>1.477358996806522</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5">
+      <c r="A1267" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1267">
+        <v>48</v>
+      </c>
+      <c r="E1267">
+        <v>1.168882876718166</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5">
+      <c r="A1268" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1268">
+        <v>107</v>
+      </c>
+      <c r="E1268">
+        <v>0.96182870424055</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5">
+      <c r="A1269" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1269">
+        <v>141</v>
+      </c>
+      <c r="E1269">
+        <v>1.07004718604531</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5">
+      <c r="A1270" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1270">
+        <v>13</v>
+      </c>
+      <c r="E1270">
+        <v>1.323359949834478</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5">
+      <c r="A1271" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1271">
+        <v>61</v>
+      </c>
+      <c r="E1271">
+        <v>1.658748183534776</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5">
+      <c r="A1272" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1272">
+        <v>36</v>
+      </c>
+      <c r="E1272">
+        <v>1.418513492427502</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5">
+      <c r="A1273" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1273">
+        <v>24</v>
+      </c>
+      <c r="E1273">
+        <v>1.489609970456069</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5">
+      <c r="A1274" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1274">
+        <v>36</v>
+      </c>
+      <c r="E1274">
+        <v>0.8904274595956174</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5">
+      <c r="A1275" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1275">
+        <v>30</v>
+      </c>
+      <c r="E1275">
+        <v>1.382964550469678</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5">
+      <c r="A1276" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1276">
+        <v>26</v>
+      </c>
+      <c r="E1276">
+        <v>1.232891847407821</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1276"/>
+  <dimension ref="A1:E1293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22017,7 +22017,7 @@
         <v>93</v>
       </c>
       <c r="E1266">
-        <v>1.477358996806522</v>
+        <v>1.477358996806521</v>
       </c>
     </row>
     <row r="1267" spans="1:5">
@@ -22187,6 +22187,295 @@
         <v>26</v>
       </c>
       <c r="E1276">
+        <v>1.232891847407821</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5">
+      <c r="A1277" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1277">
+        <v>1005</v>
+      </c>
+      <c r="E1277">
+        <v>1.207393950804932</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5">
+      <c r="A1278" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1278">
+        <v>39</v>
+      </c>
+      <c r="E1278">
+        <v>1.334699974846039</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5">
+      <c r="A1279" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1279">
+        <v>43</v>
+      </c>
+      <c r="E1279">
+        <v>2.31939091715729</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5">
+      <c r="A1280" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1280">
+        <v>87</v>
+      </c>
+      <c r="E1280">
+        <v>1.083837847393389</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5">
+      <c r="A1281" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1281">
+        <v>6</v>
+      </c>
+      <c r="E1281">
+        <v>0.8869664711891116</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5">
+      <c r="A1282" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1282">
+        <v>219</v>
+      </c>
+      <c r="E1282">
+        <v>1.22178520000819</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5">
+      <c r="A1283" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1283">
+        <v>93</v>
+      </c>
+      <c r="E1283">
+        <v>1.477358996806522</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5">
+      <c r="A1284" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1284">
+        <v>48</v>
+      </c>
+      <c r="E1284">
+        <v>1.168882876718166</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5">
+      <c r="A1285" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1285" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1285">
+        <v>106</v>
+      </c>
+      <c r="E1285">
+        <v>0.9528396509298906</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5">
+      <c r="A1286" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1286" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1286">
+        <v>139</v>
+      </c>
+      <c r="E1286">
+        <v>1.054869211775163</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5">
+      <c r="A1287" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1287" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1287">
+        <v>13</v>
+      </c>
+      <c r="E1287">
+        <v>1.323359949834478</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5">
+      <c r="A1288" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1288" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1288">
+        <v>61</v>
+      </c>
+      <c r="E1288">
+        <v>1.658748183534776</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5">
+      <c r="A1289" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1289" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1289">
+        <v>36</v>
+      </c>
+      <c r="E1289">
+        <v>1.418513492427502</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5">
+      <c r="A1290" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1290" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1290">
+        <v>24</v>
+      </c>
+      <c r="E1290">
+        <v>1.489609970456069</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5">
+      <c r="A1291" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1291" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1291">
+        <v>36</v>
+      </c>
+      <c r="E1291">
+        <v>0.8904274595956174</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5">
+      <c r="A1292" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1292" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1292">
+        <v>29</v>
+      </c>
+      <c r="E1292">
+        <v>1.336865732120689</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5">
+      <c r="A1293" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B1293" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1293">
+        <v>26</v>
+      </c>
+      <c r="E1293">
         <v>1.232891847407821</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1293"/>
+  <dimension ref="A1:E1310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22238,7 +22238,7 @@
         <v>43</v>
       </c>
       <c r="E1279">
-        <v>2.31939091715729</v>
+        <v>2.319390917157289</v>
       </c>
     </row>
     <row r="1280" spans="1:5">
@@ -22306,7 +22306,7 @@
         <v>93</v>
       </c>
       <c r="E1283">
-        <v>1.477358996806522</v>
+        <v>1.477358996806521</v>
       </c>
     </row>
     <row r="1284" spans="1:5">
@@ -22357,7 +22357,7 @@
         <v>139</v>
       </c>
       <c r="E1286">
-        <v>1.054869211775163</v>
+        <v>1.054869211775164</v>
       </c>
     </row>
     <row r="1287" spans="1:5">
@@ -22476,6 +22476,295 @@
         <v>26</v>
       </c>
       <c r="E1293">
+        <v>1.232891847407821</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5">
+      <c r="A1294" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1294" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1294">
+        <v>986</v>
+      </c>
+      <c r="E1294">
+        <v>1.184567597506132</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5">
+      <c r="A1295" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1295" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1295">
+        <v>37</v>
+      </c>
+      <c r="E1295">
+        <v>1.266253822289832</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5">
+      <c r="A1296" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1296">
+        <v>43</v>
+      </c>
+      <c r="E1296">
+        <v>2.31939091715729</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5">
+      <c r="A1297" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1297" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1297">
+        <v>81</v>
+      </c>
+      <c r="E1297">
+        <v>1.00909040964212</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5">
+      <c r="A1298" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1298" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1298">
+        <v>6</v>
+      </c>
+      <c r="E1298">
+        <v>0.8869664711891116</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5">
+      <c r="A1299" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1299" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1299">
+        <v>214</v>
+      </c>
+      <c r="E1299">
+        <v>1.193890560738597</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5">
+      <c r="A1300" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1300">
+        <v>92</v>
+      </c>
+      <c r="E1300">
+        <v>1.461473416195699</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5">
+      <c r="A1301" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1301">
+        <v>48</v>
+      </c>
+      <c r="E1301">
+        <v>1.168882876718166</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5">
+      <c r="A1302" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1302" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1302">
+        <v>103</v>
+      </c>
+      <c r="E1302">
+        <v>0.9258724909979126</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5">
+      <c r="A1303" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1303" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1303">
+        <v>138</v>
+      </c>
+      <c r="E1303">
+        <v>1.04728022464009</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5">
+      <c r="A1304" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1304">
+        <v>13</v>
+      </c>
+      <c r="E1304">
+        <v>1.323359949834478</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5">
+      <c r="A1305" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1305" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1305">
+        <v>61</v>
+      </c>
+      <c r="E1305">
+        <v>1.658748183534776</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5">
+      <c r="A1306" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1306" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1306">
+        <v>35</v>
+      </c>
+      <c r="E1306">
+        <v>1.379110339860071</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5">
+      <c r="A1307" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1307" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1307">
+        <v>24</v>
+      </c>
+      <c r="E1307">
+        <v>1.489609970456069</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5">
+      <c r="A1308" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1308" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1308">
+        <v>36</v>
+      </c>
+      <c r="E1308">
+        <v>0.8904274595956174</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5">
+      <c r="A1309" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1309" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1309">
+        <v>29</v>
+      </c>
+      <c r="E1309">
+        <v>1.336865732120689</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5">
+      <c r="A1310" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B1310" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1310">
+        <v>26</v>
+      </c>
+      <c r="E1310">
         <v>1.232891847407821</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1310"/>
+  <dimension ref="A1:E1327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22527,7 +22527,7 @@
         <v>43</v>
       </c>
       <c r="E1296">
-        <v>2.31939091715729</v>
+        <v>2.319390917157289</v>
       </c>
     </row>
     <row r="1297" spans="1:5">
@@ -22697,7 +22697,7 @@
         <v>35</v>
       </c>
       <c r="E1306">
-        <v>1.379110339860071</v>
+        <v>1.379110339860072</v>
       </c>
     </row>
     <row r="1307" spans="1:5">
@@ -22765,6 +22765,295 @@
         <v>26</v>
       </c>
       <c r="E1310">
+        <v>1.232891847407821</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5">
+      <c r="A1311" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1311">
+        <v>957</v>
+      </c>
+      <c r="E1311">
+        <v>1.149727374050069</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5">
+      <c r="A1312" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1312">
+        <v>35</v>
+      </c>
+      <c r="E1312">
+        <v>1.197807669733625</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5">
+      <c r="A1313" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1313">
+        <v>38</v>
+      </c>
+      <c r="E1313">
+        <v>2.049694298883186</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5">
+      <c r="A1314" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1314" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1314">
+        <v>71</v>
+      </c>
+      <c r="E1314">
+        <v>0.8845113467233403</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5">
+      <c r="A1315" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1315" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1315">
+        <v>4</v>
+      </c>
+      <c r="E1315">
+        <v>0.591310980792741</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5">
+      <c r="A1316" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1316" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1316">
+        <v>213</v>
+      </c>
+      <c r="E1316">
+        <v>1.188311632884678</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5">
+      <c r="A1317" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1317" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1317">
+        <v>95</v>
+      </c>
+      <c r="E1317">
+        <v>1.509130158028167</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5">
+      <c r="A1318" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1318" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1318">
+        <v>47</v>
+      </c>
+      <c r="E1318">
+        <v>1.144531150119871</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5">
+      <c r="A1319" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1319" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1319">
+        <v>86</v>
+      </c>
+      <c r="E1319">
+        <v>0.7730585847167036</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5">
+      <c r="A1320" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1320" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1320">
+        <v>145</v>
+      </c>
+      <c r="E1320">
+        <v>1.100403134585602</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5">
+      <c r="A1321" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1321" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1321">
+        <v>12</v>
+      </c>
+      <c r="E1321">
+        <v>1.221563030616442</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5">
+      <c r="A1322" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1322" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1322">
+        <v>81</v>
+      </c>
+      <c r="E1322">
+        <v>2.202600046988801</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5">
+      <c r="A1323" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1323" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1323">
+        <v>36</v>
+      </c>
+      <c r="E1323">
+        <v>1.418513492427502</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5">
+      <c r="A1324" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1324" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1324">
+        <v>16</v>
+      </c>
+      <c r="E1324">
+        <v>0.9930733136373794</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5">
+      <c r="A1325" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1325" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1325">
+        <v>30</v>
+      </c>
+      <c r="E1325">
+        <v>0.7420228829963478</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5">
+      <c r="A1326" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1326" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1326">
+        <v>22</v>
+      </c>
+      <c r="E1326">
+        <v>1.014174003677764</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5">
+      <c r="A1327" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B1327" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1327">
+        <v>26</v>
+      </c>
+      <c r="E1327">
         <v>1.232891847407821</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1327"/>
+  <dimension ref="A1:E1344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23057,6 +23057,295 @@
         <v>1.232891847407821</v>
       </c>
     </row>
+    <row r="1328" spans="1:5">
+      <c r="A1328" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1328" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1328">
+        <v>967</v>
+      </c>
+      <c r="E1328">
+        <v>1.161741244207332</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5">
+      <c r="A1329" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1329">
+        <v>38</v>
+      </c>
+      <c r="E1329">
+        <v>1.300476898567935</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5">
+      <c r="A1330" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1330">
+        <v>33</v>
+      </c>
+      <c r="E1330">
+        <v>1.779997680609083</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5">
+      <c r="A1331" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1331" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1331">
+        <v>72</v>
+      </c>
+      <c r="E1331">
+        <v>0.8969692530152182</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5">
+      <c r="A1332" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1332" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1332">
+        <v>3</v>
+      </c>
+      <c r="E1332">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5">
+      <c r="A1333" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1333" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1333">
+        <v>216</v>
+      </c>
+      <c r="E1333">
+        <v>1.205048416446434</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5">
+      <c r="A1334" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1334" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1334">
+        <v>93</v>
+      </c>
+      <c r="E1334">
+        <v>1.477358996806522</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5">
+      <c r="A1335" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1335" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1335">
+        <v>55</v>
+      </c>
+      <c r="E1335">
+        <v>1.339344962906233</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5">
+      <c r="A1336" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1336" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1336">
+        <v>83</v>
+      </c>
+      <c r="E1336">
+        <v>0.7460914247847257</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5">
+      <c r="A1337" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1337" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1337">
+        <v>159</v>
+      </c>
+      <c r="E1337">
+        <v>1.206648954476626</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5">
+      <c r="A1338" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1338" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1338">
+        <v>11</v>
+      </c>
+      <c r="E1338">
+        <v>1.119766111398405</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5">
+      <c r="A1339" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1339" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1339">
+        <v>81</v>
+      </c>
+      <c r="E1339">
+        <v>2.202600046988801</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5">
+      <c r="A1340" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1340" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1340">
+        <v>38</v>
+      </c>
+      <c r="E1340">
+        <v>1.497319797562363</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5">
+      <c r="A1341" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1341" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1341">
+        <v>9</v>
+      </c>
+      <c r="E1341">
+        <v>0.5586037389210259</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5">
+      <c r="A1342" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1342" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1342">
+        <v>27</v>
+      </c>
+      <c r="E1342">
+        <v>0.667820594696713</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5">
+      <c r="A1343" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1343" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1343">
+        <v>26</v>
+      </c>
+      <c r="E1343">
+        <v>1.198569277073721</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5">
+      <c r="A1344" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B1344" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1344">
+        <v>23</v>
+      </c>
+      <c r="E1344">
+        <v>1.090635095783842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1344"/>
+  <dimension ref="A1:E1361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23173,7 +23173,7 @@
         <v>93</v>
       </c>
       <c r="E1334">
-        <v>1.477358996806522</v>
+        <v>1.477358996806521</v>
       </c>
     </row>
     <row r="1335" spans="1:5">
@@ -23241,7 +23241,7 @@
         <v>11</v>
       </c>
       <c r="E1338">
-        <v>1.119766111398405</v>
+        <v>1.119766111398404</v>
       </c>
     </row>
     <row r="1339" spans="1:5">
@@ -23344,6 +23344,295 @@
       </c>
       <c r="E1344">
         <v>1.090635095783842</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5">
+      <c r="A1345" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1345" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1345">
+        <v>914</v>
+      </c>
+      <c r="E1345">
+        <v>1.098067732373838</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5">
+      <c r="A1346" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1346" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1346">
+        <v>29</v>
+      </c>
+      <c r="E1346">
+        <v>0.9924692120650033</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5">
+      <c r="A1347" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1347">
+        <v>29</v>
+      </c>
+      <c r="E1347">
+        <v>1.5642403859898</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5">
+      <c r="A1348" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1348" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1348">
+        <v>68</v>
+      </c>
+      <c r="E1348">
+        <v>0.8471376278477061</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5">
+      <c r="A1349" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1349" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1349">
+        <v>10</v>
+      </c>
+      <c r="E1349">
+        <v>1.478277451981853</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5">
+      <c r="A1350" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1350">
+        <v>210</v>
+      </c>
+      <c r="E1350">
+        <v>1.171574849322922</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5">
+      <c r="A1351" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1351" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1351">
+        <v>80</v>
+      </c>
+      <c r="E1351">
+        <v>1.270846448865825</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5">
+      <c r="A1352" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1352" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1352">
+        <v>60</v>
+      </c>
+      <c r="E1352">
+        <v>1.461103595897708</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5">
+      <c r="A1353" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1353" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1353">
+        <v>76</v>
+      </c>
+      <c r="E1353">
+        <v>0.6831680516101102</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5">
+      <c r="A1354" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1354" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1354">
+        <v>149</v>
+      </c>
+      <c r="E1354">
+        <v>1.130759083125895</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5">
+      <c r="A1355" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1355">
+        <v>8</v>
+      </c>
+      <c r="E1355">
+        <v>0.8143753537442944</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5">
+      <c r="A1356" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1356">
+        <v>68</v>
+      </c>
+      <c r="E1356">
+        <v>1.849096335743685</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5">
+      <c r="A1357" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1357">
+        <v>41</v>
+      </c>
+      <c r="E1357">
+        <v>1.615529255264655</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5">
+      <c r="A1358" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1358">
+        <v>8</v>
+      </c>
+      <c r="E1358">
+        <v>0.4965366568186897</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5">
+      <c r="A1359" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1359">
+        <v>29</v>
+      </c>
+      <c r="E1359">
+        <v>0.7172887868964695</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5">
+      <c r="A1360" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1360">
+        <v>28</v>
+      </c>
+      <c r="E1360">
+        <v>1.290766913771699</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5">
+      <c r="A1361" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1361">
+        <v>21</v>
+      </c>
+      <c r="E1361">
+        <v>0.9957972613678555</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1361"/>
+  <dimension ref="A1:E1378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23377,7 +23377,7 @@
         <v>29</v>
       </c>
       <c r="E1346">
-        <v>0.9924692120650033</v>
+        <v>0.9924692120650032</v>
       </c>
     </row>
     <row r="1347" spans="1:5">
@@ -23632,7 +23632,296 @@
         <v>21</v>
       </c>
       <c r="E1361">
-        <v>0.9957972613678555</v>
+        <v>0.9957972613678556</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5">
+      <c r="A1362" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1362">
+        <v>934</v>
+      </c>
+      <c r="E1362">
+        <v>1.122095472688364</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5">
+      <c r="A1363" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1363">
+        <v>30</v>
+      </c>
+      <c r="E1363">
+        <v>1.026692288343107</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5">
+      <c r="A1364" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1364">
+        <v>29</v>
+      </c>
+      <c r="E1364">
+        <v>1.5642403859898</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5">
+      <c r="A1365" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1365">
+        <v>83</v>
+      </c>
+      <c r="E1365">
+        <v>1.034006222225877</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5">
+      <c r="A1366" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1366">
+        <v>11</v>
+      </c>
+      <c r="E1366">
+        <v>1.626105197180038</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5">
+      <c r="A1367" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1367">
+        <v>215</v>
+      </c>
+      <c r="E1367">
+        <v>1.199469488592515</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5">
+      <c r="A1368" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1368">
+        <v>80</v>
+      </c>
+      <c r="E1368">
+        <v>1.270846448865825</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5">
+      <c r="A1369" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1369">
+        <v>50</v>
+      </c>
+      <c r="E1369">
+        <v>1.217586329914757</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5">
+      <c r="A1370" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1370">
+        <v>70</v>
+      </c>
+      <c r="E1370">
+        <v>0.6292337317461542</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5">
+      <c r="A1371" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1371">
+        <v>145</v>
+      </c>
+      <c r="E1371">
+        <v>1.100403134585602</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5">
+      <c r="A1372" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1372">
+        <v>8</v>
+      </c>
+      <c r="E1372">
+        <v>0.8143753537442944</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5">
+      <c r="A1373" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1373">
+        <v>79</v>
+      </c>
+      <c r="E1373">
+        <v>2.148214860643399</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5">
+      <c r="A1374" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1374">
+        <v>41</v>
+      </c>
+      <c r="E1374">
+        <v>1.615529255264655</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5">
+      <c r="A1375" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1375">
+        <v>11</v>
+      </c>
+      <c r="E1375">
+        <v>0.6827379031256983</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5">
+      <c r="A1376" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1376">
+        <v>28</v>
+      </c>
+      <c r="E1376">
+        <v>0.6925546907965913</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5">
+      <c r="A1377" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1377">
+        <v>30</v>
+      </c>
+      <c r="E1377">
+        <v>1.382964550469678</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5">
+      <c r="A1378" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1378">
+        <v>24</v>
+      </c>
+      <c r="E1378">
+        <v>1.138054012991835</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1378"/>
+  <dimension ref="A1:E1395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23924,6 +23924,295 @@
         <v>1.138054012991835</v>
       </c>
     </row>
+    <row r="1379" spans="1:5">
+      <c r="A1379" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1379">
+        <v>938</v>
+      </c>
+      <c r="E1379">
+        <v>1.12690102075127</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5">
+      <c r="A1380" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1380">
+        <v>26</v>
+      </c>
+      <c r="E1380">
+        <v>0.8897999832306926</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5">
+      <c r="A1381" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1381">
+        <v>31</v>
+      </c>
+      <c r="E1381">
+        <v>1.672119033299442</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5">
+      <c r="A1382" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1382">
+        <v>89</v>
+      </c>
+      <c r="E1382">
+        <v>1.108753659977145</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5">
+      <c r="A1383" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1383">
+        <v>10</v>
+      </c>
+      <c r="E1383">
+        <v>1.478277451981853</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5">
+      <c r="A1384" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1384">
+        <v>205</v>
+      </c>
+      <c r="E1384">
+        <v>1.143680210053328</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5">
+      <c r="A1385" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1385">
+        <v>67</v>
+      </c>
+      <c r="E1385">
+        <v>1.064333900925128</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5">
+      <c r="A1386" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1386">
+        <v>63</v>
+      </c>
+      <c r="E1386">
+        <v>1.534158775692593</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5">
+      <c r="A1387" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1387">
+        <v>77</v>
+      </c>
+      <c r="E1387">
+        <v>0.6921571049207697</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5">
+      <c r="A1388" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1388">
+        <v>146</v>
+      </c>
+      <c r="E1388">
+        <v>1.107992121720675</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5">
+      <c r="A1389" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1389">
+        <v>10</v>
+      </c>
+      <c r="E1389">
+        <v>1.017969192180368</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5">
+      <c r="A1390" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1390">
+        <v>79</v>
+      </c>
+      <c r="E1390">
+        <v>2.148214860643399</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5">
+      <c r="A1391" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1391">
+        <v>38</v>
+      </c>
+      <c r="E1391">
+        <v>1.497319797562363</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5">
+      <c r="A1392" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1392">
+        <v>12</v>
+      </c>
+      <c r="E1392">
+        <v>0.7448049852280345</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5">
+      <c r="A1393" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1393">
+        <v>34</v>
+      </c>
+      <c r="E1393">
+        <v>0.8409592673958608</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5">
+      <c r="A1394" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1394">
+        <v>27</v>
+      </c>
+      <c r="E1394">
+        <v>1.24466809542271</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5">
+      <c r="A1395" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1395">
+        <v>24</v>
+      </c>
+      <c r="E1395">
+        <v>1.138054012991835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1395"/>
+  <dimension ref="A1:E1412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24213,6 +24213,295 @@
         <v>1.138054012991835</v>
       </c>
     </row>
+    <row r="1396" spans="1:5">
+      <c r="A1396" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1396">
+        <v>917</v>
+      </c>
+      <c r="E1396">
+        <v>1.101671893421017</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5">
+      <c r="A1397" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1397">
+        <v>25</v>
+      </c>
+      <c r="E1397">
+        <v>0.8555769069525891</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5">
+      <c r="A1398" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1398">
+        <v>31</v>
+      </c>
+      <c r="E1398">
+        <v>1.672119033299442</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5">
+      <c r="A1399" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1399">
+        <v>87</v>
+      </c>
+      <c r="E1399">
+        <v>1.083837847393389</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5">
+      <c r="A1400" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1400">
+        <v>10</v>
+      </c>
+      <c r="E1400">
+        <v>1.478277451981853</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5">
+      <c r="A1401" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1401">
+        <v>194</v>
+      </c>
+      <c r="E1401">
+        <v>1.082312003660223</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5">
+      <c r="A1402" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1402">
+        <v>66</v>
+      </c>
+      <c r="E1402">
+        <v>1.048448320314306</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5">
+      <c r="A1403" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1403">
+        <v>63</v>
+      </c>
+      <c r="E1403">
+        <v>1.534158775692593</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5">
+      <c r="A1404" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1404">
+        <v>75</v>
+      </c>
+      <c r="E1404">
+        <v>0.6741789982994509</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5">
+      <c r="A1405" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1405">
+        <v>142</v>
+      </c>
+      <c r="E1405">
+        <v>1.077636173180383</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5">
+      <c r="A1406" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1406">
+        <v>10</v>
+      </c>
+      <c r="E1406">
+        <v>1.017969192180368</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5">
+      <c r="A1407" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1407">
+        <v>79</v>
+      </c>
+      <c r="E1407">
+        <v>2.148214860643399</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5">
+      <c r="A1408" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1408">
+        <v>38</v>
+      </c>
+      <c r="E1408">
+        <v>1.497319797562363</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5">
+      <c r="A1409" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1409">
+        <v>12</v>
+      </c>
+      <c r="E1409">
+        <v>0.7448049852280345</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5">
+      <c r="A1410" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1410">
+        <v>34</v>
+      </c>
+      <c r="E1410">
+        <v>0.8409592673958608</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5">
+      <c r="A1411" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1411">
+        <v>27</v>
+      </c>
+      <c r="E1411">
+        <v>1.24466809542271</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5">
+      <c r="A1412" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1412">
+        <v>24</v>
+      </c>
+      <c r="E1412">
+        <v>1.138054012991835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2827" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1412"/>
+  <dimension ref="A1:E1429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24502,6 +24502,295 @@
         <v>1.138054012991835</v>
       </c>
     </row>
+    <row r="1413" spans="1:5">
+      <c r="A1413" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1413">
+        <v>908</v>
+      </c>
+      <c r="E1413">
+        <v>1.090859410279481</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5">
+      <c r="A1414" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1414">
+        <v>24</v>
+      </c>
+      <c r="E1414">
+        <v>0.8213538306744854</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5">
+      <c r="A1415" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1415">
+        <v>31</v>
+      </c>
+      <c r="E1415">
+        <v>1.672119033299442</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5">
+      <c r="A1416" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1416">
+        <v>87</v>
+      </c>
+      <c r="E1416">
+        <v>1.083837847393389</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5">
+      <c r="A1417" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1417">
+        <v>10</v>
+      </c>
+      <c r="E1417">
+        <v>1.478277451981853</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5">
+      <c r="A1418" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1418">
+        <v>191</v>
+      </c>
+      <c r="E1418">
+        <v>1.065575220098467</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5">
+      <c r="A1419" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1419">
+        <v>66</v>
+      </c>
+      <c r="E1419">
+        <v>1.048448320314306</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5">
+      <c r="A1420" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1420">
+        <v>63</v>
+      </c>
+      <c r="E1420">
+        <v>1.534158775692593</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5">
+      <c r="A1421" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1421">
+        <v>73</v>
+      </c>
+      <c r="E1421">
+        <v>0.6562008916781322</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5">
+      <c r="A1422" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1422">
+        <v>139</v>
+      </c>
+      <c r="E1422">
+        <v>1.054869211775163</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5">
+      <c r="A1423" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1423">
+        <v>10</v>
+      </c>
+      <c r="E1423">
+        <v>1.017969192180368</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5">
+      <c r="A1424" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1424">
+        <v>79</v>
+      </c>
+      <c r="E1424">
+        <v>2.148214860643399</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5">
+      <c r="A1425" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1425">
+        <v>38</v>
+      </c>
+      <c r="E1425">
+        <v>1.497319797562363</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5">
+      <c r="A1426" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1426">
+        <v>12</v>
+      </c>
+      <c r="E1426">
+        <v>0.7448049852280345</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5">
+      <c r="A1427" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1427">
+        <v>34</v>
+      </c>
+      <c r="E1427">
+        <v>0.8409592673958608</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5">
+      <c r="A1428" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1428">
+        <v>27</v>
+      </c>
+      <c r="E1428">
+        <v>1.24466809542271</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5">
+      <c r="A1429" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1429">
+        <v>24</v>
+      </c>
+      <c r="E1429">
+        <v>1.138054012991835</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1429"/>
+  <dimension ref="A1:E1446"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24669,7 +24669,7 @@
         <v>139</v>
       </c>
       <c r="E1422">
-        <v>1.054869211775163</v>
+        <v>1.054869211775164</v>
       </c>
     </row>
     <row r="1423" spans="1:5">
@@ -24789,6 +24789,295 @@
       </c>
       <c r="E1429">
         <v>1.138054012991835</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5">
+      <c r="A1430" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1430">
+        <v>898</v>
+      </c>
+      <c r="E1430">
+        <v>1.078845540122217</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5">
+      <c r="A1431" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1431">
+        <v>31</v>
+      </c>
+      <c r="E1431">
+        <v>1.06091536462121</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5">
+      <c r="A1432" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1432">
+        <v>37</v>
+      </c>
+      <c r="E1432">
+        <v>1.995754975228366</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5">
+      <c r="A1433" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1433">
+        <v>85</v>
+      </c>
+      <c r="E1433">
+        <v>1.058922034809633</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5">
+      <c r="A1434" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1434">
+        <v>11</v>
+      </c>
+      <c r="E1434">
+        <v>1.626105197180038</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5">
+      <c r="A1435" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1435">
+        <v>175</v>
+      </c>
+      <c r="E1435">
+        <v>0.9763123744357681</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5">
+      <c r="A1436" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1436">
+        <v>66</v>
+      </c>
+      <c r="E1436">
+        <v>1.048448320314306</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5">
+      <c r="A1437" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1437">
+        <v>73</v>
+      </c>
+      <c r="E1437">
+        <v>1.777676041675545</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5">
+      <c r="A1438" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1438">
+        <v>77</v>
+      </c>
+      <c r="E1438">
+        <v>0.6921571049207697</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5">
+      <c r="A1439" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1439">
+        <v>145</v>
+      </c>
+      <c r="E1439">
+        <v>1.100403134585602</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5">
+      <c r="A1440" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1440">
+        <v>10</v>
+      </c>
+      <c r="E1440">
+        <v>1.017969192180368</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5">
+      <c r="A1441" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1441">
+        <v>59</v>
+      </c>
+      <c r="E1441">
+        <v>1.604362997189373</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5">
+      <c r="A1442" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1442">
+        <v>34</v>
+      </c>
+      <c r="E1442">
+        <v>1.339707187292641</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5">
+      <c r="A1443" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1443">
+        <v>12</v>
+      </c>
+      <c r="E1443">
+        <v>0.7448049852280345</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5">
+      <c r="A1444" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1444">
+        <v>35</v>
+      </c>
+      <c r="E1444">
+        <v>0.865693363495739</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5">
+      <c r="A1445" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1445">
+        <v>25</v>
+      </c>
+      <c r="E1445">
+        <v>1.152470458724731</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5">
+      <c r="A1446" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1446">
+        <v>23</v>
+      </c>
+      <c r="E1446">
+        <v>1.090635095783842</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1446"/>
+  <dimension ref="A1:E1463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24805,7 +24805,7 @@
         <v>898</v>
       </c>
       <c r="E1430">
-        <v>1.078845540122217</v>
+        <v>1.078845540122218</v>
       </c>
     </row>
     <row r="1431" spans="1:5">
@@ -24890,7 +24890,7 @@
         <v>175</v>
       </c>
       <c r="E1435">
-        <v>0.9763123744357681</v>
+        <v>0.976312374435768</v>
       </c>
     </row>
     <row r="1436" spans="1:5">
@@ -25078,6 +25078,295 @@
       </c>
       <c r="E1446">
         <v>1.090635095783842</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5">
+      <c r="A1447" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1447">
+        <v>921</v>
+      </c>
+      <c r="E1447">
+        <v>1.106477441483922</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5">
+      <c r="A1448" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1448">
+        <v>39</v>
+      </c>
+      <c r="E1448">
+        <v>1.334699974846039</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5">
+      <c r="A1449" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1449">
+        <v>35</v>
+      </c>
+      <c r="E1449">
+        <v>1.887876327918724</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5">
+      <c r="A1450" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1450">
+        <v>85</v>
+      </c>
+      <c r="E1450">
+        <v>1.058922034809633</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5">
+      <c r="A1451" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1451">
+        <v>11</v>
+      </c>
+      <c r="E1451">
+        <v>1.626105197180038</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5">
+      <c r="A1452" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1452">
+        <v>185</v>
+      </c>
+      <c r="E1452">
+        <v>1.032101652974955</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5">
+      <c r="A1453" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1453">
+        <v>67</v>
+      </c>
+      <c r="E1453">
+        <v>1.064333900925128</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5">
+      <c r="A1454" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1454">
+        <v>75</v>
+      </c>
+      <c r="E1454">
+        <v>1.826379494872135</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5">
+      <c r="A1455" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1455">
+        <v>86</v>
+      </c>
+      <c r="E1455">
+        <v>0.7730585847167036</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5">
+      <c r="A1456" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1456">
+        <v>137</v>
+      </c>
+      <c r="E1456">
+        <v>1.039691237505017</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5">
+      <c r="A1457" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1457">
+        <v>9</v>
+      </c>
+      <c r="E1457">
+        <v>0.9161722729623311</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5">
+      <c r="A1458" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1458">
+        <v>59</v>
+      </c>
+      <c r="E1458">
+        <v>1.604362997189373</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5">
+      <c r="A1459" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1459">
+        <v>46</v>
+      </c>
+      <c r="E1459">
+        <v>1.812545018101808</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5">
+      <c r="A1460" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1460">
+        <v>14</v>
+      </c>
+      <c r="E1460">
+        <v>0.8689391494327068</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5">
+      <c r="A1461" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1461">
+        <v>32</v>
+      </c>
+      <c r="E1461">
+        <v>0.7914910751961043</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5">
+      <c r="A1462" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1462">
+        <v>17</v>
+      </c>
+      <c r="E1462">
+        <v>0.7836799119328174</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5">
+      <c r="A1463" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1463">
+        <v>24</v>
+      </c>
+      <c r="E1463">
+        <v>1.138054012991835</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2929" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1463"/>
+  <dimension ref="A1:E1480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25264,7 +25264,7 @@
         <v>9</v>
       </c>
       <c r="E1457">
-        <v>0.9161722729623311</v>
+        <v>0.9161722729623312</v>
       </c>
     </row>
     <row r="1458" spans="1:5">
@@ -25367,6 +25367,295 @@
       </c>
       <c r="E1463">
         <v>1.138054012991835</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5">
+      <c r="A1464" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1464">
+        <v>971</v>
+      </c>
+      <c r="E1464">
+        <v>1.166546792270237</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5">
+      <c r="A1465" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1465">
+        <v>45</v>
+      </c>
+      <c r="E1465">
+        <v>1.54003843251466</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5">
+      <c r="A1466" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1466">
+        <v>37</v>
+      </c>
+      <c r="E1466">
+        <v>1.995754975228366</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5">
+      <c r="A1467" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1467">
+        <v>75</v>
+      </c>
+      <c r="E1467">
+        <v>0.9343429718908524</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5">
+      <c r="A1468" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1468">
+        <v>5</v>
+      </c>
+      <c r="E1468">
+        <v>0.7391387259909263</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5">
+      <c r="A1469" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1469">
+        <v>207</v>
+      </c>
+      <c r="E1469">
+        <v>1.154838065761166</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5">
+      <c r="A1470" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1470">
+        <v>85</v>
+      </c>
+      <c r="E1470">
+        <v>1.350274351919939</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5">
+      <c r="A1471" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1471">
+        <v>68</v>
+      </c>
+      <c r="E1471">
+        <v>1.655917408684069</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5">
+      <c r="A1472" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1472">
+        <v>89</v>
+      </c>
+      <c r="E1472">
+        <v>0.8000257446486817</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5">
+      <c r="A1473" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1473">
+        <v>148</v>
+      </c>
+      <c r="E1473">
+        <v>1.123170095990822</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5">
+      <c r="A1474" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1474">
+        <v>9</v>
+      </c>
+      <c r="E1474">
+        <v>0.9161722729623311</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5">
+      <c r="A1475" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1475">
+        <v>60</v>
+      </c>
+      <c r="E1475">
+        <v>1.631555590362075</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5">
+      <c r="A1476" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1476">
+        <v>43</v>
+      </c>
+      <c r="E1476">
+        <v>1.694335560399516</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5">
+      <c r="A1477" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1477">
+        <v>18</v>
+      </c>
+      <c r="E1477">
+        <v>1.117207477842052</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5">
+      <c r="A1478" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1478">
+        <v>38</v>
+      </c>
+      <c r="E1478">
+        <v>0.9398956517953738</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5">
+      <c r="A1479" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1479">
+        <v>19</v>
+      </c>
+      <c r="E1479">
+        <v>0.8758775486307959</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5">
+      <c r="A1480" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1480">
+        <v>25</v>
+      </c>
+      <c r="E1480">
+        <v>1.185472930199828</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1480"/>
+  <dimension ref="A1:E1497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25553,7 +25553,7 @@
         <v>9</v>
       </c>
       <c r="E1474">
-        <v>0.9161722729623311</v>
+        <v>0.9161722729623312</v>
       </c>
     </row>
     <row r="1475" spans="1:5">
@@ -25656,6 +25656,295 @@
       </c>
       <c r="E1480">
         <v>1.185472930199828</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5">
+      <c r="A1481" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1481">
+        <v>1033</v>
+      </c>
+      <c r="E1481">
+        <v>1.241032787245268</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5">
+      <c r="A1482" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1482">
+        <v>57</v>
+      </c>
+      <c r="E1482">
+        <v>1.950715347851903</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5">
+      <c r="A1483" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1483">
+        <v>34</v>
+      </c>
+      <c r="E1483">
+        <v>1.833937004263904</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5">
+      <c r="A1484" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1484">
+        <v>79</v>
+      </c>
+      <c r="E1484">
+        <v>0.9841745970583644</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5">
+      <c r="A1485" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1485">
+        <v>3</v>
+      </c>
+      <c r="E1485">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5">
+      <c r="A1486" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1486">
+        <v>227</v>
+      </c>
+      <c r="E1486">
+        <v>1.266416622839539</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5">
+      <c r="A1487" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1487">
+        <v>109</v>
+      </c>
+      <c r="E1487">
+        <v>1.731528286579687</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5">
+      <c r="A1488" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1488">
+        <v>67</v>
+      </c>
+      <c r="E1488">
+        <v>1.631565682085774</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5">
+      <c r="A1489" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1489">
+        <v>99</v>
+      </c>
+      <c r="E1489">
+        <v>0.8899162777552752</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5">
+      <c r="A1490" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1490">
+        <v>143</v>
+      </c>
+      <c r="E1490">
+        <v>1.085225160315456</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5">
+      <c r="A1491" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1491">
+        <v>10</v>
+      </c>
+      <c r="E1491">
+        <v>1.017969192180368</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5">
+      <c r="A1492" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1492">
+        <v>66</v>
+      </c>
+      <c r="E1492">
+        <v>1.794711149398282</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5">
+      <c r="A1493" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1493">
+        <v>43</v>
+      </c>
+      <c r="E1493">
+        <v>1.694335560399516</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5">
+      <c r="A1494" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1494">
+        <v>21</v>
+      </c>
+      <c r="E1494">
+        <v>1.30340872414906</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5">
+      <c r="A1495" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1495">
+        <v>38</v>
+      </c>
+      <c r="E1495">
+        <v>0.9398956517953738</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5">
+      <c r="A1496" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1496">
+        <v>18</v>
+      </c>
+      <c r="E1496">
+        <v>0.8297787302818066</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5">
+      <c r="A1497" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1497">
+        <v>19</v>
+      </c>
+      <c r="E1497">
+        <v>0.9009594269518694</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1497"/>
+  <dimension ref="A1:E1514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25947,6 +25947,295 @@
         <v>0.9009594269518694</v>
       </c>
     </row>
+    <row r="1498" spans="1:5">
+      <c r="A1498" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1498">
+        <v>1090</v>
+      </c>
+      <c r="E1498">
+        <v>1.309511847141667</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5">
+      <c r="A1499" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1499">
+        <v>63</v>
+      </c>
+      <c r="E1499">
+        <v>2.156053805520525</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5">
+      <c r="A1500" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1500">
+        <v>27</v>
+      </c>
+      <c r="E1500">
+        <v>1.456361738680159</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5">
+      <c r="A1501" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1501">
+        <v>105</v>
+      </c>
+      <c r="E1501">
+        <v>1.308080160647193</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5">
+      <c r="A1502" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1502">
+        <v>3</v>
+      </c>
+      <c r="E1502">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5">
+      <c r="A1503" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1503">
+        <v>230</v>
+      </c>
+      <c r="E1503">
+        <v>1.283153406401295</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5">
+      <c r="A1504" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1504">
+        <v>116</v>
+      </c>
+      <c r="E1504">
+        <v>1.842727350855446</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5">
+      <c r="A1505" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1505">
+        <v>81</v>
+      </c>
+      <c r="E1505">
+        <v>1.972489854461906</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5">
+      <c r="A1506" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1506">
+        <v>96</v>
+      </c>
+      <c r="E1506">
+        <v>0.8629491178232972</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5">
+      <c r="A1507" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1507">
+        <v>146</v>
+      </c>
+      <c r="E1507">
+        <v>1.107992121720675</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5">
+      <c r="A1508" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1508">
+        <v>7</v>
+      </c>
+      <c r="E1508">
+        <v>0.7125784345262575</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5">
+      <c r="A1509" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1509">
+        <v>67</v>
+      </c>
+      <c r="E1509">
+        <v>1.821903742570984</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5">
+      <c r="A1510" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1510">
+        <v>46</v>
+      </c>
+      <c r="E1510">
+        <v>1.812545018101808</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5">
+      <c r="A1511" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1511">
+        <v>17</v>
+      </c>
+      <c r="E1511">
+        <v>1.055140395739715</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5">
+      <c r="A1512" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1512">
+        <v>42</v>
+      </c>
+      <c r="E1512">
+        <v>1.038832036194887</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5">
+      <c r="A1513" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1513">
+        <v>17</v>
+      </c>
+      <c r="E1513">
+        <v>0.7836799119328174</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5">
+      <c r="A1514" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1514">
+        <v>27</v>
+      </c>
+      <c r="E1514">
+        <v>1.280310764615814</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1514"/>
+  <dimension ref="A1:E1531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26233,6 +26233,295 @@
         <v>27</v>
       </c>
       <c r="E1514">
+        <v>1.280310764615815</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5">
+      <c r="A1515" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1515">
+        <v>1072</v>
+      </c>
+      <c r="E1515">
+        <v>1.287886880858594</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5">
+      <c r="A1516" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1516">
+        <v>63</v>
+      </c>
+      <c r="E1516">
+        <v>2.156053805520525</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5">
+      <c r="A1517" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1517">
+        <v>27</v>
+      </c>
+      <c r="E1517">
+        <v>1.456361738680159</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5">
+      <c r="A1518" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1518">
+        <v>100</v>
+      </c>
+      <c r="E1518">
+        <v>1.245790629187803</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5">
+      <c r="A1519" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1519">
+        <v>3</v>
+      </c>
+      <c r="E1519">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5">
+      <c r="A1520" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1520">
+        <v>222</v>
+      </c>
+      <c r="E1520">
+        <v>1.238521983569946</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5">
+      <c r="A1521" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1521">
+        <v>115</v>
+      </c>
+      <c r="E1521">
+        <v>1.826841770244624</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5">
+      <c r="A1522" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1522">
+        <v>81</v>
+      </c>
+      <c r="E1522">
+        <v>1.972489854461906</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5">
+      <c r="A1523" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1523">
+        <v>93</v>
+      </c>
+      <c r="E1523">
+        <v>0.8359819578913191</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5">
+      <c r="A1524" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1524">
+        <v>145</v>
+      </c>
+      <c r="E1524">
+        <v>1.100403134585602</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5">
+      <c r="A1525" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1525">
+        <v>7</v>
+      </c>
+      <c r="E1525">
+        <v>0.7125784345262575</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5">
+      <c r="A1526" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1526">
+        <v>67</v>
+      </c>
+      <c r="E1526">
+        <v>1.821903742570984</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5">
+      <c r="A1527" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1527">
+        <v>46</v>
+      </c>
+      <c r="E1527">
+        <v>1.812545018101808</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5">
+      <c r="A1528" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1528">
+        <v>17</v>
+      </c>
+      <c r="E1528">
+        <v>1.055140395739715</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5">
+      <c r="A1529" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1529">
+        <v>42</v>
+      </c>
+      <c r="E1529">
+        <v>1.038832036194887</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5">
+      <c r="A1530" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1530">
+        <v>17</v>
+      </c>
+      <c r="E1530">
+        <v>0.7836799119328174</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5">
+      <c r="A1531" s="2">
+        <v>45123</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1531">
+        <v>27</v>
+      </c>
+      <c r="E1531">
         <v>1.280310764615814</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1531"/>
+  <dimension ref="A1:E1548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26522,6 +26522,295 @@
         <v>27</v>
       </c>
       <c r="E1531">
+        <v>1.280310764615815</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5">
+      <c r="A1532" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1532">
+        <v>1065</v>
+      </c>
+      <c r="E1532">
+        <v>1.27947717174851</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5">
+      <c r="A1533" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1533">
+        <v>62</v>
+      </c>
+      <c r="E1533">
+        <v>2.121830729242421</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5">
+      <c r="A1534" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1534">
+        <v>27</v>
+      </c>
+      <c r="E1534">
+        <v>1.456361738680159</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5">
+      <c r="A1535" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1535">
+        <v>99</v>
+      </c>
+      <c r="E1535">
+        <v>1.233332722895925</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5">
+      <c r="A1536" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1536">
+        <v>3</v>
+      </c>
+      <c r="E1536">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5">
+      <c r="A1537" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1537">
+        <v>220</v>
+      </c>
+      <c r="E1537">
+        <v>1.227364127862109</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5">
+      <c r="A1538" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1538">
+        <v>113</v>
+      </c>
+      <c r="E1538">
+        <v>1.795070609022978</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5">
+      <c r="A1539" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1539">
+        <v>81</v>
+      </c>
+      <c r="E1539">
+        <v>1.972489854461906</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5">
+      <c r="A1540" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1540">
+        <v>93</v>
+      </c>
+      <c r="E1540">
+        <v>0.8359819578913191</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5">
+      <c r="A1541" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1541">
+        <v>144</v>
+      </c>
+      <c r="E1541">
+        <v>1.092814147450529</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5">
+      <c r="A1542" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1542">
+        <v>7</v>
+      </c>
+      <c r="E1542">
+        <v>0.7125784345262575</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5">
+      <c r="A1543" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1543">
+        <v>67</v>
+      </c>
+      <c r="E1543">
+        <v>1.821903742570984</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5">
+      <c r="A1544" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1544">
+        <v>46</v>
+      </c>
+      <c r="E1544">
+        <v>1.812545018101808</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5">
+      <c r="A1545" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1545">
+        <v>17</v>
+      </c>
+      <c r="E1545">
+        <v>1.055140395739715</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5">
+      <c r="A1546" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1546">
+        <v>42</v>
+      </c>
+      <c r="E1546">
+        <v>1.038832036194887</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5">
+      <c r="A1547" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1547">
+        <v>17</v>
+      </c>
+      <c r="E1547">
+        <v>0.7836799119328174</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5">
+      <c r="A1548" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1548">
+        <v>27</v>
+      </c>
+      <c r="E1548">
         <v>1.280310764615814</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1548"/>
+  <dimension ref="A1:E1565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26811,7 +26811,296 @@
         <v>27</v>
       </c>
       <c r="E1548">
-        <v>1.280310764615814</v>
+        <v>1.280310764615815</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5">
+      <c r="A1549" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1549">
+        <v>1070</v>
+      </c>
+      <c r="E1549">
+        <v>1.285484106827141</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5">
+      <c r="A1550" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1550">
+        <v>62</v>
+      </c>
+      <c r="E1550">
+        <v>2.121830729242421</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5">
+      <c r="A1551" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1551">
+        <v>41</v>
+      </c>
+      <c r="E1551">
+        <v>2.211512269847649</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5">
+      <c r="A1552" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1552">
+        <v>116</v>
+      </c>
+      <c r="E1552">
+        <v>1.445117129857852</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5">
+      <c r="A1553" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1553">
+        <v>1</v>
+      </c>
+      <c r="E1553">
+        <v>0.1478277451981853</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5">
+      <c r="A1554" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1554">
+        <v>219</v>
+      </c>
+      <c r="E1554">
+        <v>1.22178520000819</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5">
+      <c r="A1555" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1555">
+        <v>119</v>
+      </c>
+      <c r="E1555">
+        <v>1.890384092687915</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5">
+      <c r="A1556" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1556">
+        <v>60</v>
+      </c>
+      <c r="E1556">
+        <v>1.461103595897708</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5">
+      <c r="A1557" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1557">
+        <v>94</v>
+      </c>
+      <c r="E1557">
+        <v>0.8449710112019784</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5">
+      <c r="A1558" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1558">
+        <v>136</v>
+      </c>
+      <c r="E1558">
+        <v>1.032102250369944</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5">
+      <c r="A1559" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1559">
+        <v>11</v>
+      </c>
+      <c r="E1559">
+        <v>1.119766111398405</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5">
+      <c r="A1560" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1560">
+        <v>67</v>
+      </c>
+      <c r="E1560">
+        <v>1.821903742570984</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5">
+      <c r="A1561" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1561">
+        <v>36</v>
+      </c>
+      <c r="E1561">
+        <v>1.418513492427502</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5">
+      <c r="A1562" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1562">
+        <v>21</v>
+      </c>
+      <c r="E1562">
+        <v>1.30340872414906</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5">
+      <c r="A1563" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1563">
+        <v>43</v>
+      </c>
+      <c r="E1563">
+        <v>1.063566132294765</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5">
+      <c r="A1564" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1564">
+        <v>16</v>
+      </c>
+      <c r="E1564">
+        <v>0.7375810935838282</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5">
+      <c r="A1565" s="2">
+        <v>45125</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1565">
+        <v>28</v>
+      </c>
+      <c r="E1565">
+        <v>1.327729681823807</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3133" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1565"/>
+  <dimension ref="A1:E1582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -26896,7 +26896,7 @@
         <v>1</v>
       </c>
       <c r="E1553">
-        <v>0.1478277451981853</v>
+        <v>0.1478277451981852</v>
       </c>
     </row>
     <row r="1554" spans="1:5">
@@ -26998,7 +26998,7 @@
         <v>11</v>
       </c>
       <c r="E1559">
-        <v>1.119766111398405</v>
+        <v>1.119766111398404</v>
       </c>
     </row>
     <row r="1560" spans="1:5">
@@ -27101,6 +27101,295 @@
       </c>
       <c r="E1565">
         <v>1.327729681823807</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5">
+      <c r="A1566" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1566">
+        <v>1074</v>
+      </c>
+      <c r="E1566">
+        <v>1.290289654890046</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5">
+      <c r="A1567" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1567">
+        <v>57</v>
+      </c>
+      <c r="E1567">
+        <v>1.950715347851903</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5">
+      <c r="A1568" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1568">
+        <v>38</v>
+      </c>
+      <c r="E1568">
+        <v>2.049694298883186</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5">
+      <c r="A1569" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1569">
+        <v>115</v>
+      </c>
+      <c r="E1569">
+        <v>1.432659223565974</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:5">
+      <c r="A1570" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1570">
+        <v>1</v>
+      </c>
+      <c r="E1570">
+        <v>0.1478277451981853</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5">
+      <c r="A1571" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1571">
+        <v>212</v>
+      </c>
+      <c r="E1571">
+        <v>1.182732705030759</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5">
+      <c r="A1572" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1572">
+        <v>120</v>
+      </c>
+      <c r="E1572">
+        <v>1.906269673298738</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5">
+      <c r="A1573" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1573">
+        <v>68</v>
+      </c>
+      <c r="E1573">
+        <v>1.655917408684069</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5">
+      <c r="A1574" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1574">
+        <v>97</v>
+      </c>
+      <c r="E1574">
+        <v>0.8719381711339564</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5">
+      <c r="A1575" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1575">
+        <v>141</v>
+      </c>
+      <c r="E1575">
+        <v>1.07004718604531</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5">
+      <c r="A1576" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1576">
+        <v>14</v>
+      </c>
+      <c r="E1576">
+        <v>1.425156869052515</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5">
+      <c r="A1577" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1577">
+        <v>70</v>
+      </c>
+      <c r="E1577">
+        <v>1.903481522089087</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5">
+      <c r="A1578" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1578">
+        <v>32</v>
+      </c>
+      <c r="E1578">
+        <v>1.26090088215778</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5">
+      <c r="A1579" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1579">
+        <v>22</v>
+      </c>
+      <c r="E1579">
+        <v>1.365475806251397</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5">
+      <c r="A1580" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1580">
+        <v>40</v>
+      </c>
+      <c r="E1580">
+        <v>0.9893638439951303</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5">
+      <c r="A1581" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1581">
+        <v>16</v>
+      </c>
+      <c r="E1581">
+        <v>0.7375810935838282</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5">
+      <c r="A1582" s="2">
+        <v>45126</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1582">
+        <v>31</v>
+      </c>
+      <c r="E1582">
+        <v>1.469986433447787</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3167" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1582"/>
+  <dimension ref="A1:E1599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27185,7 +27185,7 @@
         <v>1</v>
       </c>
       <c r="E1570">
-        <v>0.1478277451981853</v>
+        <v>0.1478277451981852</v>
       </c>
     </row>
     <row r="1571" spans="1:5">
@@ -27338,7 +27338,7 @@
         <v>22</v>
       </c>
       <c r="E1579">
-        <v>1.365475806251397</v>
+        <v>1.365475806251396</v>
       </c>
     </row>
     <row r="1580" spans="1:5">
@@ -27355,7 +27355,7 @@
         <v>40</v>
       </c>
       <c r="E1580">
-        <v>0.9893638439951303</v>
+        <v>0.9893638439951304</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -27390,6 +27390,295 @@
       </c>
       <c r="E1582">
         <v>1.469986433447787</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:5">
+      <c r="A1583" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1583">
+        <v>1083</v>
+      </c>
+      <c r="E1583">
+        <v>1.301102138031583</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:5">
+      <c r="A1584" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1584">
+        <v>41</v>
+      </c>
+      <c r="E1584">
+        <v>1.403146127402246</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:5">
+      <c r="A1585" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1585">
+        <v>43</v>
+      </c>
+      <c r="E1585">
+        <v>2.31939091715729</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:5">
+      <c r="A1586" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1586">
+        <v>111</v>
+      </c>
+      <c r="E1586">
+        <v>1.382827598398461</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:5">
+      <c r="A1587" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1587">
+        <v>0</v>
+      </c>
+      <c r="E1587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:5">
+      <c r="A1588" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1588">
+        <v>207</v>
+      </c>
+      <c r="E1588">
+        <v>1.154838065761166</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:5">
+      <c r="A1589" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1589">
+        <v>107</v>
+      </c>
+      <c r="E1589">
+        <v>1.699757125358041</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:5">
+      <c r="A1590" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1590">
+        <v>71</v>
+      </c>
+      <c r="E1590">
+        <v>1.728972588478955</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:5">
+      <c r="A1591" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1591">
+        <v>106</v>
+      </c>
+      <c r="E1591">
+        <v>0.9528396509298906</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:5">
+      <c r="A1592" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1592">
+        <v>148</v>
+      </c>
+      <c r="E1592">
+        <v>1.123170095990822</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:5">
+      <c r="A1593" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1593">
+        <v>17</v>
+      </c>
+      <c r="E1593">
+        <v>1.730547626706625</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:5">
+      <c r="A1594" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1594">
+        <v>76</v>
+      </c>
+      <c r="E1594">
+        <v>2.066637081125295</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:5">
+      <c r="A1595" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1595">
+        <v>29</v>
+      </c>
+      <c r="E1595">
+        <v>1.142691424455488</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:5">
+      <c r="A1596" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1596">
+        <v>33</v>
+      </c>
+      <c r="E1596">
+        <v>2.048213709377095</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:5">
+      <c r="A1597" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1597">
+        <v>45</v>
+      </c>
+      <c r="E1597">
+        <v>1.113034324494522</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:5">
+      <c r="A1598" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1598" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1598">
+        <v>15</v>
+      </c>
+      <c r="E1598">
+        <v>0.6914822752348389</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:5">
+      <c r="A1599" s="2">
+        <v>45127</v>
+      </c>
+      <c r="B1599" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1599">
+        <v>34</v>
+      </c>
+      <c r="E1599">
+        <v>1.612243185071766</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3201" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1599"/>
+  <dimension ref="A1:E1616"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27440,7 +27440,7 @@
         <v>43</v>
       </c>
       <c r="E1585">
-        <v>2.31939091715729</v>
+        <v>2.319390917157289</v>
       </c>
     </row>
     <row r="1586" spans="1:5">
@@ -27679,6 +27679,295 @@
       </c>
       <c r="E1599">
         <v>1.612243185071766</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:5">
+      <c r="A1600" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1600" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1600">
+        <v>1094</v>
+      </c>
+      <c r="E1600">
+        <v>1.314317395204573</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:5">
+      <c r="A1601" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1601" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1601">
+        <v>43</v>
+      </c>
+      <c r="E1601">
+        <v>1.471592279958453</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:5">
+      <c r="A1602" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1602" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1602">
+        <v>48</v>
+      </c>
+      <c r="E1602">
+        <v>2.589087535431393</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:5">
+      <c r="A1603" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1603" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1603">
+        <v>112</v>
+      </c>
+      <c r="E1603">
+        <v>1.395285504690339</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:5">
+      <c r="A1604" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1604" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1604" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1604">
+        <v>0</v>
+      </c>
+      <c r="E1604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:5">
+      <c r="A1605" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1605" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1605" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1605">
+        <v>200</v>
+      </c>
+      <c r="E1605">
+        <v>1.115785570783735</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:5">
+      <c r="A1606" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1606" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1606" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1606">
+        <v>95</v>
+      </c>
+      <c r="E1606">
+        <v>1.509130158028167</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:5">
+      <c r="A1607" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1607" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1607" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1607">
+        <v>77</v>
+      </c>
+      <c r="E1607">
+        <v>1.875082948068725</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:5">
+      <c r="A1608" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1608" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1608" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1608">
+        <v>109</v>
+      </c>
+      <c r="E1608">
+        <v>0.9798068108618687</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:5">
+      <c r="A1609" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1609" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1609" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1609">
+        <v>171</v>
+      </c>
+      <c r="E1609">
+        <v>1.297716800097503</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:5">
+      <c r="A1610" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1610" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1610" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1610">
+        <v>17</v>
+      </c>
+      <c r="E1610">
+        <v>1.730547626706625</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:5">
+      <c r="A1611" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1611" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1611" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1611">
+        <v>83</v>
+      </c>
+      <c r="E1611">
+        <v>2.256985233334203</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:5">
+      <c r="A1612" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1612">
+        <v>26</v>
+      </c>
+      <c r="E1612">
+        <v>1.024481966753196</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:5">
+      <c r="A1613" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1613" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1613" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1613">
+        <v>37</v>
+      </c>
+      <c r="E1613">
+        <v>2.296482037786439</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:5">
+      <c r="A1614" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1614" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1614" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1614">
+        <v>37</v>
+      </c>
+      <c r="E1614">
+        <v>0.9151615556954956</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:5">
+      <c r="A1615" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1615" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1615" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1615">
+        <v>12</v>
+      </c>
+      <c r="E1615">
+        <v>0.5531858201878711</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:5">
+      <c r="A1616" s="2">
+        <v>45128</v>
+      </c>
+      <c r="B1616" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1616" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1616">
+        <v>27</v>
+      </c>
+      <c r="E1616">
+        <v>1.280310764615814</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1616"/>
+  <dimension ref="A1:E1633"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27831,7 +27831,7 @@
         <v>109</v>
       </c>
       <c r="E1608">
-        <v>0.9798068108618687</v>
+        <v>0.9798068108618688</v>
       </c>
     </row>
     <row r="1609" spans="1:5">
@@ -27882,7 +27882,7 @@
         <v>83</v>
       </c>
       <c r="E1611">
-        <v>2.256985233334203</v>
+        <v>2.256985233334204</v>
       </c>
     </row>
     <row r="1612" spans="1:5">
@@ -27967,7 +27967,296 @@
         <v>27</v>
       </c>
       <c r="E1616">
-        <v>1.280310764615814</v>
+        <v>1.280310764615815</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:5">
+      <c r="A1617" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1617" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1617" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1617">
+        <v>1101</v>
+      </c>
+      <c r="E1617">
+        <v>1.322727104314657</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:5">
+      <c r="A1618" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1618" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1618" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1618">
+        <v>44</v>
+      </c>
+      <c r="E1618">
+        <v>1.505815356236557</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:5">
+      <c r="A1619" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1619" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1619" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1619">
+        <v>40</v>
+      </c>
+      <c r="E1619">
+        <v>2.157572946192828</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:5">
+      <c r="A1620" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1620" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1620" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1620">
+        <v>89</v>
+      </c>
+      <c r="E1620">
+        <v>1.108753659977145</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:5">
+      <c r="A1621" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1621" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1621" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1621">
+        <v>3</v>
+      </c>
+      <c r="E1621">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:5">
+      <c r="A1622" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1622" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1622" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1622">
+        <v>219</v>
+      </c>
+      <c r="E1622">
+        <v>1.22178520000819</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:5">
+      <c r="A1623" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1623" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1623" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1623">
+        <v>100</v>
+      </c>
+      <c r="E1623">
+        <v>1.588558061082282</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:5">
+      <c r="A1624" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1624" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1624" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1624">
+        <v>76</v>
+      </c>
+      <c r="E1624">
+        <v>1.85073122147043</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:5">
+      <c r="A1625" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1625" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1625" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1625">
+        <v>125</v>
+      </c>
+      <c r="E1625">
+        <v>1.123631663832418</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:5">
+      <c r="A1626" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1626" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1626" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1626">
+        <v>153</v>
+      </c>
+      <c r="E1626">
+        <v>1.161115031666187</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:5">
+      <c r="A1627" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1627" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1627" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1627">
+        <v>21</v>
+      </c>
+      <c r="E1627">
+        <v>2.137735303578773</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:5">
+      <c r="A1628" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1628" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1628" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1628">
+        <v>89</v>
+      </c>
+      <c r="E1628">
+        <v>2.420140792370411</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:5">
+      <c r="A1629" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1629" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1629" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1629">
+        <v>24</v>
+      </c>
+      <c r="E1629">
+        <v>0.9456756616183347</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:5">
+      <c r="A1630" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1630" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1630" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1630">
+        <v>30</v>
+      </c>
+      <c r="E1630">
+        <v>1.862012463070086</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:5">
+      <c r="A1631" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1631" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1631" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1631">
+        <v>43</v>
+      </c>
+      <c r="E1631">
+        <v>1.063566132294765</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:5">
+      <c r="A1632" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1632" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1632" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1632">
+        <v>15</v>
+      </c>
+      <c r="E1632">
+        <v>0.6914822752348389</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:5">
+      <c r="A1633" s="2">
+        <v>45129</v>
+      </c>
+      <c r="B1633" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1633" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1633">
+        <v>30</v>
+      </c>
+      <c r="E1633">
+        <v>1.422567516239794</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1633"/>
+  <dimension ref="A1:E1650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28188,7 +28188,7 @@
         <v>24</v>
       </c>
       <c r="E1629">
-        <v>0.9456756616183347</v>
+        <v>0.9456756616183348</v>
       </c>
     </row>
     <row r="1630" spans="1:5">
@@ -28256,7 +28256,296 @@
         <v>30</v>
       </c>
       <c r="E1633">
-        <v>1.422567516239794</v>
+        <v>1.422567516239793</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:5">
+      <c r="A1634" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1634" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1634" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1634">
+        <v>1075</v>
+      </c>
+      <c r="E1634">
+        <v>1.291491041905773</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:5">
+      <c r="A1635" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1635" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1635" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1635">
+        <v>44</v>
+      </c>
+      <c r="E1635">
+        <v>1.505815356236557</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:5">
+      <c r="A1636" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1636" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1636" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1636">
+        <v>39</v>
+      </c>
+      <c r="E1636">
+        <v>2.103633622538007</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:5">
+      <c r="A1637" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1637" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1637" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1637">
+        <v>82</v>
+      </c>
+      <c r="E1637">
+        <v>1.021548315933998</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:5">
+      <c r="A1638" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1638" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1638" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1638">
+        <v>3</v>
+      </c>
+      <c r="E1638">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:5">
+      <c r="A1639" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1639" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1639" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1639">
+        <v>213</v>
+      </c>
+      <c r="E1639">
+        <v>1.188311632884678</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:5">
+      <c r="A1640" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1640" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1640">
+        <v>98</v>
+      </c>
+      <c r="E1640">
+        <v>1.556786899860636</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:5">
+      <c r="A1641" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1641" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1641" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1641">
+        <v>76</v>
+      </c>
+      <c r="E1641">
+        <v>1.85073122147043</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:5">
+      <c r="A1642" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1642" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1642" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1642">
+        <v>122</v>
+      </c>
+      <c r="E1642">
+        <v>1.09666450390044</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:5">
+      <c r="A1643" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1643" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1643" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1643">
+        <v>150</v>
+      </c>
+      <c r="E1643">
+        <v>1.138348070260968</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:5">
+      <c r="A1644" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1644" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1644" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1644">
+        <v>21</v>
+      </c>
+      <c r="E1644">
+        <v>2.137735303578773</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:5">
+      <c r="A1645" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1645" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1645" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1645">
+        <v>89</v>
+      </c>
+      <c r="E1645">
+        <v>2.420140792370411</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:5">
+      <c r="A1646" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1646" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1646" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1646">
+        <v>23</v>
+      </c>
+      <c r="E1646">
+        <v>0.9062725090509042</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:5">
+      <c r="A1647" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1647" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1647" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1647">
+        <v>30</v>
+      </c>
+      <c r="E1647">
+        <v>1.862012463070086</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:5">
+      <c r="A1648" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1648" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1648" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1648">
+        <v>41</v>
+      </c>
+      <c r="E1648">
+        <v>1.014097940095009</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:5">
+      <c r="A1649" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1649" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1649">
+        <v>15</v>
+      </c>
+      <c r="E1649">
+        <v>0.6914822752348389</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:5">
+      <c r="A1650" s="2">
+        <v>45130</v>
+      </c>
+      <c r="B1650" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1650" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1650">
+        <v>29</v>
+      </c>
+      <c r="E1650">
+        <v>1.375148599031801</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3303" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1650"/>
+  <dimension ref="A1:E1667"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28511,7 +28511,7 @@
         <v>41</v>
       </c>
       <c r="E1648">
-        <v>1.014097940095009</v>
+        <v>1.014097940095008</v>
       </c>
     </row>
     <row r="1649" spans="1:5">
@@ -28545,6 +28545,295 @@
         <v>29</v>
       </c>
       <c r="E1650">
+        <v>1.375148599031801</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:5">
+      <c r="A1651" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1651" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1651" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1651">
+        <v>1064</v>
+      </c>
+      <c r="E1651">
+        <v>1.278275784732783</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:5">
+      <c r="A1652" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1652" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1652" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1652">
+        <v>42</v>
+      </c>
+      <c r="E1652">
+        <v>1.43736920368035</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:5">
+      <c r="A1653" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1653" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1653" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1653">
+        <v>39</v>
+      </c>
+      <c r="E1653">
+        <v>2.103633622538007</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:5">
+      <c r="A1654" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1654" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1654" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1654">
+        <v>81</v>
+      </c>
+      <c r="E1654">
+        <v>1.00909040964212</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:5">
+      <c r="A1655" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1655" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1655" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1655">
+        <v>3</v>
+      </c>
+      <c r="E1655">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:5">
+      <c r="A1656" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1656">
+        <v>212</v>
+      </c>
+      <c r="E1656">
+        <v>1.182732705030759</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:5">
+      <c r="A1657" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1657">
+        <v>97</v>
+      </c>
+      <c r="E1657">
+        <v>1.540901319249813</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:5">
+      <c r="A1658" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1658">
+        <v>74</v>
+      </c>
+      <c r="E1658">
+        <v>1.80202776827384</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:5">
+      <c r="A1659" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1659">
+        <v>121</v>
+      </c>
+      <c r="E1659">
+        <v>1.087675450589781</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:5">
+      <c r="A1660" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1660">
+        <v>149</v>
+      </c>
+      <c r="E1660">
+        <v>1.130759083125895</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:5">
+      <c r="A1661" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1661">
+        <v>21</v>
+      </c>
+      <c r="E1661">
+        <v>2.137735303578773</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:5">
+      <c r="A1662" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1662">
+        <v>89</v>
+      </c>
+      <c r="E1662">
+        <v>2.420140792370411</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:5">
+      <c r="A1663" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1663">
+        <v>23</v>
+      </c>
+      <c r="E1663">
+        <v>0.9062725090509042</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:5">
+      <c r="A1664" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1664">
+        <v>29</v>
+      </c>
+      <c r="E1664">
+        <v>1.79994538096775</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:5">
+      <c r="A1665" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1665">
+        <v>40</v>
+      </c>
+      <c r="E1665">
+        <v>0.9893638439951303</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5">
+      <c r="A1666" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1666">
+        <v>15</v>
+      </c>
+      <c r="E1666">
+        <v>0.6914822752348389</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:5">
+      <c r="A1667" s="2">
+        <v>45131</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1667">
+        <v>29</v>
+      </c>
+      <c r="E1667">
         <v>1.375148599031801</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3337" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1667"/>
+  <dimension ref="A1:E1684"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28562,7 +28562,7 @@
         <v>1064</v>
       </c>
       <c r="E1651">
-        <v>1.278275784732783</v>
+        <v>1.278275784732784</v>
       </c>
     </row>
     <row r="1652" spans="1:5">
@@ -28800,7 +28800,7 @@
         <v>40</v>
       </c>
       <c r="E1665">
-        <v>0.9893638439951303</v>
+        <v>0.9893638439951304</v>
       </c>
     </row>
     <row r="1666" spans="1:5">
@@ -28834,6 +28834,295 @@
         <v>29</v>
       </c>
       <c r="E1667">
+        <v>1.375148599031801</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:5">
+      <c r="A1668" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1668">
+        <v>1102</v>
+      </c>
+      <c r="E1668">
+        <v>1.323928491330383</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:5">
+      <c r="A1669" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1669">
+        <v>45</v>
+      </c>
+      <c r="E1669">
+        <v>1.54003843251466</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:5">
+      <c r="A1670" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1670">
+        <v>40</v>
+      </c>
+      <c r="E1670">
+        <v>2.157572946192828</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:5">
+      <c r="A1671" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1671">
+        <v>70</v>
+      </c>
+      <c r="E1671">
+        <v>0.8720534404314622</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5">
+      <c r="A1672" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1672">
+        <v>3</v>
+      </c>
+      <c r="E1672">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:5">
+      <c r="A1673" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1673">
+        <v>195</v>
+      </c>
+      <c r="E1673">
+        <v>1.087890931514142</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:5">
+      <c r="A1674" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1674">
+        <v>107</v>
+      </c>
+      <c r="E1674">
+        <v>1.699757125358041</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:5">
+      <c r="A1675" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1675">
+        <v>68</v>
+      </c>
+      <c r="E1675">
+        <v>1.655917408684069</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:5">
+      <c r="A1676" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1676">
+        <v>120</v>
+      </c>
+      <c r="E1676">
+        <v>1.078686397279121</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:5">
+      <c r="A1677" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1677">
+        <v>158</v>
+      </c>
+      <c r="E1677">
+        <v>1.199059967341553</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:5">
+      <c r="A1678" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1678">
+        <v>19</v>
+      </c>
+      <c r="E1678">
+        <v>1.934141465142699</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5">
+      <c r="A1679" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1679">
+        <v>101</v>
+      </c>
+      <c r="E1679">
+        <v>2.746451910442826</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:5">
+      <c r="A1680" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1680">
+        <v>29</v>
+      </c>
+      <c r="E1680">
+        <v>1.142691424455488</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:5">
+      <c r="A1681" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1681">
+        <v>28</v>
+      </c>
+      <c r="E1681">
+        <v>1.737878298865414</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:5">
+      <c r="A1682" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1682">
+        <v>46</v>
+      </c>
+      <c r="E1682">
+        <v>1.1377684205944</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:5">
+      <c r="A1683" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1683">
+        <v>44</v>
+      </c>
+      <c r="E1683">
+        <v>2.028348007355528</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:5">
+      <c r="A1684" s="2">
+        <v>45132</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1684">
+        <v>29</v>
+      </c>
+      <c r="E1684">
         <v>1.375148599031801</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3371" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1684"/>
+  <dimension ref="A1:E1701"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29126,6 +29126,295 @@
         <v>1.375148599031801</v>
       </c>
     </row>
+    <row r="1685" spans="1:5">
+      <c r="A1685" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1685">
+        <v>1159</v>
+      </c>
+      <c r="E1685">
+        <v>1.392407551226782</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:5">
+      <c r="A1686" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1686">
+        <v>59</v>
+      </c>
+      <c r="E1686">
+        <v>2.01916150040811</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:5">
+      <c r="A1687" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1687">
+        <v>42</v>
+      </c>
+      <c r="E1687">
+        <v>2.265451593502469</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:5">
+      <c r="A1688" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1688">
+        <v>75</v>
+      </c>
+      <c r="E1688">
+        <v>0.9343429718908524</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:5">
+      <c r="A1689" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1689">
+        <v>4</v>
+      </c>
+      <c r="E1689">
+        <v>0.591310980792741</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:5">
+      <c r="A1690" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1690">
+        <v>226</v>
+      </c>
+      <c r="E1690">
+        <v>1.260837694985621</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:5">
+      <c r="A1691" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1691">
+        <v>110</v>
+      </c>
+      <c r="E1691">
+        <v>1.74741386719051</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:5">
+      <c r="A1692" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1692">
+        <v>64</v>
+      </c>
+      <c r="E1692">
+        <v>1.558510502290889</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:5">
+      <c r="A1693" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1693">
+        <v>120</v>
+      </c>
+      <c r="E1693">
+        <v>1.078686397279121</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5">
+      <c r="A1694" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1694">
+        <v>147</v>
+      </c>
+      <c r="E1694">
+        <v>1.115581108855749</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5">
+      <c r="A1695" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1695">
+        <v>19</v>
+      </c>
+      <c r="E1695">
+        <v>1.934141465142699</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5">
+      <c r="A1696" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1696">
+        <v>115</v>
+      </c>
+      <c r="E1696">
+        <v>3.127148214860643</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:5">
+      <c r="A1697" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1697">
+        <v>36</v>
+      </c>
+      <c r="E1697">
+        <v>1.418513492427502</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:5">
+      <c r="A1698" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1698">
+        <v>16</v>
+      </c>
+      <c r="E1698">
+        <v>0.9930733136373794</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:5">
+      <c r="A1699" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1699">
+        <v>56</v>
+      </c>
+      <c r="E1699">
+        <v>1.385109381593183</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:5">
+      <c r="A1700" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1700">
+        <v>42</v>
+      </c>
+      <c r="E1700">
+        <v>1.936150370657549</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5">
+      <c r="A1701" s="2">
+        <v>45133</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1701">
+        <v>28</v>
+      </c>
+      <c r="E1701">
+        <v>1.327729681823807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1701"/>
+  <dimension ref="A1:E1718"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29378,7 +29378,7 @@
         <v>56</v>
       </c>
       <c r="E1699">
-        <v>1.385109381593183</v>
+        <v>1.385109381593182</v>
       </c>
     </row>
     <row r="1700" spans="1:5">
@@ -29413,6 +29413,295 @@
       </c>
       <c r="E1701">
         <v>1.327729681823807</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5">
+      <c r="A1702" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1702">
+        <v>1293</v>
+      </c>
+      <c r="E1702">
+        <v>1.553393411334106</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5">
+      <c r="A1703" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1703">
+        <v>66</v>
+      </c>
+      <c r="E1703">
+        <v>2.258723034354835</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:5">
+      <c r="A1704" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1704">
+        <v>50</v>
+      </c>
+      <c r="E1704">
+        <v>2.696966182741035</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:5">
+      <c r="A1705" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1705">
+        <v>82</v>
+      </c>
+      <c r="E1705">
+        <v>1.021548315933998</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:5">
+      <c r="A1706" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1706">
+        <v>6</v>
+      </c>
+      <c r="E1706">
+        <v>0.8869664711891116</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:5">
+      <c r="A1707" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1707">
+        <v>224</v>
+      </c>
+      <c r="E1707">
+        <v>1.249679839277783</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:5">
+      <c r="A1708" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1708">
+        <v>118</v>
+      </c>
+      <c r="E1708">
+        <v>1.874498512077092</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:5">
+      <c r="A1709" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1709">
+        <v>73</v>
+      </c>
+      <c r="E1709">
+        <v>1.777676041675545</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:5">
+      <c r="A1710" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1710">
+        <v>137</v>
+      </c>
+      <c r="E1710">
+        <v>1.23150030356033</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:5">
+      <c r="A1711" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1711">
+        <v>199</v>
+      </c>
+      <c r="E1711">
+        <v>1.510208439879551</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:5">
+      <c r="A1712" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1712">
+        <v>18</v>
+      </c>
+      <c r="E1712">
+        <v>1.832344545924662</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:5">
+      <c r="A1713" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1713">
+        <v>118</v>
+      </c>
+      <c r="E1713">
+        <v>3.208725994378747</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:5">
+      <c r="A1714" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1714">
+        <v>42</v>
+      </c>
+      <c r="E1714">
+        <v>1.654932407832086</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:5">
+      <c r="A1715" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1715">
+        <v>28</v>
+      </c>
+      <c r="E1715">
+        <v>1.737878298865414</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:5">
+      <c r="A1716" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1716">
+        <v>55</v>
+      </c>
+      <c r="E1716">
+        <v>1.360375285493304</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5">
+      <c r="A1717" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1717">
+        <v>43</v>
+      </c>
+      <c r="E1717">
+        <v>1.982249189006538</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:5">
+      <c r="A1718" s="2">
+        <v>45134</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1718">
+        <v>34</v>
+      </c>
+      <c r="E1718">
+        <v>1.612243185071766</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3439" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1718"/>
+  <dimension ref="A1:E1735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29704,6 +29704,295 @@
         <v>1.612243185071766</v>
       </c>
     </row>
+    <row r="1719" spans="1:5">
+      <c r="A1719" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1719">
+        <v>1476</v>
+      </c>
+      <c r="E1719">
+        <v>1.773247235212019</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:5">
+      <c r="A1720" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1720">
+        <v>60</v>
+      </c>
+      <c r="E1720">
+        <v>2.053384576686214</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:5">
+      <c r="A1721" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1721">
+        <v>141</v>
+      </c>
+      <c r="E1721">
+        <v>7.605444635329718</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:5">
+      <c r="A1722" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1722">
+        <v>125</v>
+      </c>
+      <c r="E1722">
+        <v>1.557238286484754</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:5">
+      <c r="A1723" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1723">
+        <v>7</v>
+      </c>
+      <c r="E1723">
+        <v>1.034794216387297</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5">
+      <c r="A1724" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1724">
+        <v>232</v>
+      </c>
+      <c r="E1724">
+        <v>1.294311262109133</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:5">
+      <c r="A1725" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1725">
+        <v>127</v>
+      </c>
+      <c r="E1725">
+        <v>2.017468737574498</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:5">
+      <c r="A1726" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1726">
+        <v>75</v>
+      </c>
+      <c r="E1726">
+        <v>1.826379494872135</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:5">
+      <c r="A1727" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1727">
+        <v>169</v>
+      </c>
+      <c r="E1727">
+        <v>1.519150009501429</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:5">
+      <c r="A1728" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1728">
+        <v>188</v>
+      </c>
+      <c r="E1728">
+        <v>1.426729581393746</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:5">
+      <c r="A1729" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1729">
+        <v>19</v>
+      </c>
+      <c r="E1729">
+        <v>1.934141465142699</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:5">
+      <c r="A1730" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1730">
+        <v>101</v>
+      </c>
+      <c r="E1730">
+        <v>2.746451910442826</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:5">
+      <c r="A1731" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1731">
+        <v>51</v>
+      </c>
+      <c r="E1731">
+        <v>2.009560780938962</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:5">
+      <c r="A1732" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1732">
+        <v>34</v>
+      </c>
+      <c r="E1732">
+        <v>2.110280791479431</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:5">
+      <c r="A1733" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1733">
+        <v>57</v>
+      </c>
+      <c r="E1733">
+        <v>1.409843477693061</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:5">
+      <c r="A1734" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1734">
+        <v>56</v>
+      </c>
+      <c r="E1734">
+        <v>2.581533827543399</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:5">
+      <c r="A1735" s="2">
+        <v>45135</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1735">
+        <v>34</v>
+      </c>
+      <c r="E1735">
+        <v>1.612243185071766</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3473" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1735"/>
+  <dimension ref="A1:E1752"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29820,7 +29820,7 @@
         <v>127</v>
       </c>
       <c r="E1725">
-        <v>2.017468737574498</v>
+        <v>2.017468737574497</v>
       </c>
     </row>
     <row r="1726" spans="1:5">
@@ -29922,7 +29922,7 @@
         <v>51</v>
       </c>
       <c r="E1731">
-        <v>2.009560780938962</v>
+        <v>2.009560780938961</v>
       </c>
     </row>
     <row r="1732" spans="1:5">
@@ -29991,6 +29991,295 @@
       </c>
       <c r="E1735">
         <v>1.612243185071766</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:5">
+      <c r="A1736" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1736">
+        <v>1593</v>
+      </c>
+      <c r="E1736">
+        <v>1.913809516051996</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:5">
+      <c r="A1737" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1737">
+        <v>49</v>
+      </c>
+      <c r="E1737">
+        <v>1.676930737627075</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:5">
+      <c r="A1738" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1738">
+        <v>184</v>
+      </c>
+      <c r="E1738">
+        <v>9.924835552487007</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:5">
+      <c r="A1739" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1739">
+        <v>146</v>
+      </c>
+      <c r="E1739">
+        <v>1.818854318614193</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:5">
+      <c r="A1740" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1740">
+        <v>5</v>
+      </c>
+      <c r="E1740">
+        <v>0.7391387259909263</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:5">
+      <c r="A1741" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1741">
+        <v>280</v>
+      </c>
+      <c r="E1741">
+        <v>1.562099799097229</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:5">
+      <c r="A1742" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1742">
+        <v>116</v>
+      </c>
+      <c r="E1742">
+        <v>1.842727350855446</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:5">
+      <c r="A1743" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1743">
+        <v>76</v>
+      </c>
+      <c r="E1743">
+        <v>1.85073122147043</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:5">
+      <c r="A1744" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1744">
+        <v>168</v>
+      </c>
+      <c r="E1744">
+        <v>1.51016095619077</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5">
+      <c r="A1745" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1745">
+        <v>202</v>
+      </c>
+      <c r="E1745">
+        <v>1.53297540128477</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5">
+      <c r="A1746" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1746">
+        <v>21</v>
+      </c>
+      <c r="E1746">
+        <v>2.137735303578773</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5">
+      <c r="A1747" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1747">
+        <v>112</v>
+      </c>
+      <c r="E1747">
+        <v>3.045570435342539</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5">
+      <c r="A1748" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1748">
+        <v>50</v>
+      </c>
+      <c r="E1748">
+        <v>1.970157628371531</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:5">
+      <c r="A1749" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1749">
+        <v>32</v>
+      </c>
+      <c r="E1749">
+        <v>1.986146627274759</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:5">
+      <c r="A1750" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1750">
+        <v>59</v>
+      </c>
+      <c r="E1750">
+        <v>1.459311669892817</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:5">
+      <c r="A1751" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1751">
+        <v>57</v>
+      </c>
+      <c r="E1751">
+        <v>2.627632645892388</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:5">
+      <c r="A1752" s="2">
+        <v>45136</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1752">
+        <v>36</v>
+      </c>
+      <c r="E1752">
+        <v>1.707081019487752</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3541" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1752"/>
+  <dimension ref="A1:E1769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30041,7 +30041,7 @@
         <v>184</v>
       </c>
       <c r="E1738">
-        <v>9.924835552487007</v>
+        <v>9.924835552487009</v>
       </c>
     </row>
     <row r="1739" spans="1:5">
@@ -30280,6 +30280,295 @@
       </c>
       <c r="E1752">
         <v>1.707081019487752</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:5">
+      <c r="A1753" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1753">
+        <v>1565</v>
+      </c>
+      <c r="E1753">
+        <v>1.88017067961166</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:5">
+      <c r="A1754" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1754">
+        <v>47</v>
+      </c>
+      <c r="E1754">
+        <v>1.608484585070868</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:5">
+      <c r="A1755" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1755">
+        <v>184</v>
+      </c>
+      <c r="E1755">
+        <v>9.924835552487007</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5">
+      <c r="A1756" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1756">
+        <v>139</v>
+      </c>
+      <c r="E1756">
+        <v>1.731648974571046</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:5">
+      <c r="A1757" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1757">
+        <v>5</v>
+      </c>
+      <c r="E1757">
+        <v>0.7391387259909263</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:5">
+      <c r="A1758" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1758">
+        <v>277</v>
+      </c>
+      <c r="E1758">
+        <v>1.545363015535473</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5">
+      <c r="A1759" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1759">
+        <v>113</v>
+      </c>
+      <c r="E1759">
+        <v>1.795070609022978</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:5">
+      <c r="A1760" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1760">
+        <v>74</v>
+      </c>
+      <c r="E1760">
+        <v>1.80202776827384</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:5">
+      <c r="A1761" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1761">
+        <v>166</v>
+      </c>
+      <c r="E1761">
+        <v>1.492182849569451</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5">
+      <c r="A1762" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1762">
+        <v>197</v>
+      </c>
+      <c r="E1762">
+        <v>1.495030465609404</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5">
+      <c r="A1763" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1763">
+        <v>21</v>
+      </c>
+      <c r="E1763">
+        <v>2.137735303578773</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:5">
+      <c r="A1764" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1764">
+        <v>112</v>
+      </c>
+      <c r="E1764">
+        <v>3.045570435342539</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:5">
+      <c r="A1765" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1765">
+        <v>49</v>
+      </c>
+      <c r="E1765">
+        <v>1.9307544758041</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:5">
+      <c r="A1766" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1766">
+        <v>31</v>
+      </c>
+      <c r="E1766">
+        <v>1.924079545172422</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:5">
+      <c r="A1767" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1767">
+        <v>58</v>
+      </c>
+      <c r="E1767">
+        <v>1.434577573792939</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5">
+      <c r="A1768" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1768">
+        <v>57</v>
+      </c>
+      <c r="E1768">
+        <v>2.627632645892388</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5">
+      <c r="A1769" s="2">
+        <v>45137</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1769">
+        <v>35</v>
+      </c>
+      <c r="E1769">
+        <v>1.659662102279759</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3541" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1769"/>
+  <dimension ref="A1:E1786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30330,7 +30330,7 @@
         <v>184</v>
       </c>
       <c r="E1755">
-        <v>9.924835552487007</v>
+        <v>9.924835552487009</v>
       </c>
     </row>
     <row r="1756" spans="1:5">
@@ -30568,6 +30568,295 @@
         <v>35</v>
       </c>
       <c r="E1769">
+        <v>1.659662102279759</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5">
+      <c r="A1770" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1770">
+        <v>1548</v>
+      </c>
+      <c r="E1770">
+        <v>1.859747100344313</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5">
+      <c r="A1771" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1771">
+        <v>46</v>
+      </c>
+      <c r="E1771">
+        <v>1.574261508792764</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5">
+      <c r="A1772" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1772">
+        <v>184</v>
+      </c>
+      <c r="E1772">
+        <v>9.924835552487007</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5">
+      <c r="A1773" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1773">
+        <v>139</v>
+      </c>
+      <c r="E1773">
+        <v>1.731648974571046</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5">
+      <c r="A1774" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1774">
+        <v>5</v>
+      </c>
+      <c r="E1774">
+        <v>0.7391387259909263</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5">
+      <c r="A1775" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1775">
+        <v>273</v>
+      </c>
+      <c r="E1775">
+        <v>1.523047304119798</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5">
+      <c r="A1776" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1776">
+        <v>110</v>
+      </c>
+      <c r="E1776">
+        <v>1.74741386719051</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:5">
+      <c r="A1777" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1777">
+        <v>74</v>
+      </c>
+      <c r="E1777">
+        <v>1.80202776827384</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:5">
+      <c r="A1778" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1778">
+        <v>165</v>
+      </c>
+      <c r="E1778">
+        <v>1.483193796258792</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:5">
+      <c r="A1779" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1779">
+        <v>194</v>
+      </c>
+      <c r="E1779">
+        <v>1.472263504204185</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:5">
+      <c r="A1780" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1780">
+        <v>21</v>
+      </c>
+      <c r="E1780">
+        <v>2.137735303578773</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:5">
+      <c r="A1781" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1781">
+        <v>112</v>
+      </c>
+      <c r="E1781">
+        <v>3.045570435342539</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:5">
+      <c r="A1782" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1782">
+        <v>48</v>
+      </c>
+      <c r="E1782">
+        <v>1.891351323236669</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:5">
+      <c r="A1783" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1783">
+        <v>30</v>
+      </c>
+      <c r="E1783">
+        <v>1.862012463070086</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:5">
+      <c r="A1784" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1784">
+        <v>56</v>
+      </c>
+      <c r="E1784">
+        <v>1.385109381593183</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5">
+      <c r="A1785" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1785">
+        <v>56</v>
+      </c>
+      <c r="E1785">
+        <v>2.581533827543399</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:5">
+      <c r="A1786" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1786">
+        <v>35</v>
+      </c>
+      <c r="E1786">
         <v>1.659662102279759</v>
       </c>
     </row>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3575" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1786"/>
+  <dimension ref="A1:E1803"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30619,7 +30619,7 @@
         <v>184</v>
       </c>
       <c r="E1772">
-        <v>9.924835552487007</v>
+        <v>9.924835552487009</v>
       </c>
     </row>
     <row r="1773" spans="1:5">
@@ -30823,7 +30823,7 @@
         <v>56</v>
       </c>
       <c r="E1784">
-        <v>1.385109381593183</v>
+        <v>1.385109381593182</v>
       </c>
     </row>
     <row r="1785" spans="1:5">
@@ -30858,6 +30858,295 @@
       </c>
       <c r="E1786">
         <v>1.659662102279759</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:5">
+      <c r="A1787" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1787">
+        <v>1658</v>
+      </c>
+      <c r="E1787">
+        <v>1.991899672074206</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:5">
+      <c r="A1788" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1788">
+        <v>88</v>
+      </c>
+      <c r="E1788">
+        <v>3.011630712473114</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:5">
+      <c r="A1789" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1789">
+        <v>178</v>
+      </c>
+      <c r="E1789">
+        <v>9.601199610558083</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:5">
+      <c r="A1790" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1790">
+        <v>139</v>
+      </c>
+      <c r="E1790">
+        <v>1.731648974571046</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:5">
+      <c r="A1791" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1791">
+        <v>5</v>
+      </c>
+      <c r="E1791">
+        <v>0.7391387259909263</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:5">
+      <c r="A1792" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1792">
+        <v>317</v>
+      </c>
+      <c r="E1792">
+        <v>1.76852012969222</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:5">
+      <c r="A1793" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1793">
+        <v>122</v>
+      </c>
+      <c r="E1793">
+        <v>1.938040834520383</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:5">
+      <c r="A1794" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1794">
+        <v>91</v>
+      </c>
+      <c r="E1794">
+        <v>2.216007120444857</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:5">
+      <c r="A1795" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1795">
+        <v>165</v>
+      </c>
+      <c r="E1795">
+        <v>1.483193796258792</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:5">
+      <c r="A1796" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1796">
+        <v>209</v>
+      </c>
+      <c r="E1796">
+        <v>1.586098311230282</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:5">
+      <c r="A1797" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1797">
+        <v>34</v>
+      </c>
+      <c r="E1797">
+        <v>3.461095253413251</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:5">
+      <c r="A1798" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1798">
+        <v>108</v>
+      </c>
+      <c r="E1798">
+        <v>2.936800062651735</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:5">
+      <c r="A1799" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1799">
+        <v>52</v>
+      </c>
+      <c r="E1799">
+        <v>2.048963933506392</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:5">
+      <c r="A1800" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1800">
+        <v>24</v>
+      </c>
+      <c r="E1800">
+        <v>1.489609970456069</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:5">
+      <c r="A1801" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1801">
+        <v>51</v>
+      </c>
+      <c r="E1801">
+        <v>1.261438901093791</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:5">
+      <c r="A1802" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1802">
+        <v>35</v>
+      </c>
+      <c r="E1802">
+        <v>1.613458642214624</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:5">
+      <c r="A1803" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1803">
+        <v>40</v>
+      </c>
+      <c r="E1803">
+        <v>1.896756688319725</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1803"/>
+  <dimension ref="A1:E1820"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31044,7 +31044,7 @@
         <v>34</v>
       </c>
       <c r="E1797">
-        <v>3.461095253413251</v>
+        <v>3.46109525341325</v>
       </c>
     </row>
     <row r="1798" spans="1:5">
@@ -31147,6 +31147,295 @@
       </c>
       <c r="E1803">
         <v>1.896756688319725</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5">
+      <c r="A1804" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1804">
+        <v>1773</v>
+      </c>
+      <c r="E1804">
+        <v>2.13005917888273</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5">
+      <c r="A1805" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1805">
+        <v>104</v>
+      </c>
+      <c r="E1805">
+        <v>3.559199932922771</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5">
+      <c r="A1806" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1806">
+        <v>213</v>
+      </c>
+      <c r="E1806">
+        <v>11.48907593847681</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5">
+      <c r="A1807" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1807">
+        <v>170</v>
+      </c>
+      <c r="E1807">
+        <v>2.117844069619265</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5">
+      <c r="A1808" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1808">
+        <v>5</v>
+      </c>
+      <c r="E1808">
+        <v>0.7391387259909263</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5">
+      <c r="A1809" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1809">
+        <v>335</v>
+      </c>
+      <c r="E1809">
+        <v>1.868940831062756</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5">
+      <c r="A1810" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1810">
+        <v>130</v>
+      </c>
+      <c r="E1810">
+        <v>2.065125479406966</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:5">
+      <c r="A1811" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1811">
+        <v>86</v>
+      </c>
+      <c r="E1811">
+        <v>2.094248487453382</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:5">
+      <c r="A1812" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1812">
+        <v>162</v>
+      </c>
+      <c r="E1812">
+        <v>1.456226636326814</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:5">
+      <c r="A1813" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1813">
+        <v>214</v>
+      </c>
+      <c r="E1813">
+        <v>1.624043246905647</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:5">
+      <c r="A1814" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1814">
+        <v>37</v>
+      </c>
+      <c r="E1814">
+        <v>3.766486011067361</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:5">
+      <c r="A1815" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1815">
+        <v>108</v>
+      </c>
+      <c r="E1815">
+        <v>2.936800062651735</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:5">
+      <c r="A1816" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1816">
+        <v>59</v>
+      </c>
+      <c r="E1816">
+        <v>2.324786001478406</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:5">
+      <c r="A1817" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1817">
+        <v>32</v>
+      </c>
+      <c r="E1817">
+        <v>1.986146627274759</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:5">
+      <c r="A1818" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1818">
+        <v>46</v>
+      </c>
+      <c r="E1818">
+        <v>1.1377684205944</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:5">
+      <c r="A1819" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1819">
+        <v>38</v>
+      </c>
+      <c r="E1819">
+        <v>1.751755097261592</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:5">
+      <c r="A1820" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1820">
+        <v>34</v>
+      </c>
+      <c r="E1820">
+        <v>1.612243185071766</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3643" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1820"/>
+  <dimension ref="A1:E1837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31438,6 +31438,295 @@
         <v>1.612243185071766</v>
       </c>
     </row>
+    <row r="1821" spans="1:5">
+      <c r="A1821" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1821">
+        <v>1799</v>
+      </c>
+      <c r="E1821">
+        <v>2.161295241291614</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:5">
+      <c r="A1822" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1822">
+        <v>73</v>
+      </c>
+      <c r="E1822">
+        <v>2.49828456830156</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:5">
+      <c r="A1823" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1823">
+        <v>210</v>
+      </c>
+      <c r="E1823">
+        <v>11.32725796751235</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:5">
+      <c r="A1824" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1824">
+        <v>158</v>
+      </c>
+      <c r="E1824">
+        <v>1.968349194116729</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:5">
+      <c r="A1825" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1825">
+        <v>3</v>
+      </c>
+      <c r="E1825">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:5">
+      <c r="A1826" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1826">
+        <v>377</v>
+      </c>
+      <c r="E1826">
+        <v>2.103255800927341</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:5">
+      <c r="A1827" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1827">
+        <v>131</v>
+      </c>
+      <c r="E1827">
+        <v>2.081011060017789</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5">
+      <c r="A1828" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1828">
+        <v>87</v>
+      </c>
+      <c r="E1828">
+        <v>2.118600214051677</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5">
+      <c r="A1829" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1829">
+        <v>151</v>
+      </c>
+      <c r="E1829">
+        <v>1.357347049909561</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5">
+      <c r="A1830" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1830">
+        <v>241</v>
+      </c>
+      <c r="E1830">
+        <v>1.828945899552622</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:5">
+      <c r="A1831" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1831">
+        <v>38</v>
+      </c>
+      <c r="E1831">
+        <v>3.868282930285398</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:5">
+      <c r="A1832" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1832">
+        <v>111</v>
+      </c>
+      <c r="E1832">
+        <v>3.018377842169838</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:5">
+      <c r="A1833" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1833">
+        <v>60</v>
+      </c>
+      <c r="E1833">
+        <v>2.364189154045837</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:5">
+      <c r="A1834" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1834">
+        <v>41</v>
+      </c>
+      <c r="E1834">
+        <v>2.544750366195784</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:5">
+      <c r="A1835" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1835">
+        <v>53</v>
+      </c>
+      <c r="E1835">
+        <v>1.310907093293548</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:5">
+      <c r="A1836" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1836">
+        <v>36</v>
+      </c>
+      <c r="E1836">
+        <v>1.659557460563613</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:5">
+      <c r="A1837" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1837">
+        <v>29</v>
+      </c>
+      <c r="E1837">
+        <v>1.375148599031801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1837"/>
+  <dimension ref="A1:E1854"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31486,7 +31486,7 @@
         <v>210</v>
       </c>
       <c r="E1823">
-        <v>11.32725796751235</v>
+        <v>11.32725796751234</v>
       </c>
     </row>
     <row r="1824" spans="1:5">
@@ -31605,7 +31605,7 @@
         <v>241</v>
       </c>
       <c r="E1830">
-        <v>1.828945899552622</v>
+        <v>1.828945899552621</v>
       </c>
     </row>
     <row r="1831" spans="1:5">
@@ -31725,6 +31725,295 @@
       </c>
       <c r="E1837">
         <v>1.375148599031801</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:5">
+      <c r="A1838" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1838">
+        <v>1728</v>
+      </c>
+      <c r="E1838">
+        <v>2.075996763175047</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:5">
+      <c r="A1839" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1839">
+        <v>55</v>
+      </c>
+      <c r="E1839">
+        <v>1.882269195295696</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:5">
+      <c r="A1840" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1840">
+        <v>104</v>
+      </c>
+      <c r="E1840">
+        <v>5.609689660101352</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:5">
+      <c r="A1841" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1841">
+        <v>165</v>
+      </c>
+      <c r="E1841">
+        <v>2.055554538159875</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:5">
+      <c r="A1842" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1842">
+        <v>1</v>
+      </c>
+      <c r="E1842">
+        <v>0.1478277451981853</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:5">
+      <c r="A1843" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1843">
+        <v>394</v>
+      </c>
+      <c r="E1843">
+        <v>2.198097574443958</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:5">
+      <c r="A1844" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1844">
+        <v>148</v>
+      </c>
+      <c r="E1844">
+        <v>2.351065930401777</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:5">
+      <c r="A1845" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1845">
+        <v>83</v>
+      </c>
+      <c r="E1845">
+        <v>2.021193307658496</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:5">
+      <c r="A1846" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1846">
+        <v>152</v>
+      </c>
+      <c r="E1846">
+        <v>1.36633610322022</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:5">
+      <c r="A1847" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1847">
+        <v>261</v>
+      </c>
+      <c r="E1847">
+        <v>1.980725642254084</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:5">
+      <c r="A1848" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1848">
+        <v>38</v>
+      </c>
+      <c r="E1848">
+        <v>3.868282930285398</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:5">
+      <c r="A1849" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1849">
+        <v>113</v>
+      </c>
+      <c r="E1849">
+        <v>3.072763028515241</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:5">
+      <c r="A1850" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1850">
+        <v>57</v>
+      </c>
+      <c r="E1850">
+        <v>2.245979696343545</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:5">
+      <c r="A1851" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1851">
+        <v>47</v>
+      </c>
+      <c r="E1851">
+        <v>2.917152858809802</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:5">
+      <c r="A1852" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1852">
+        <v>54</v>
+      </c>
+      <c r="E1852">
+        <v>1.335641189393426</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:5">
+      <c r="A1853" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1853">
+        <v>34</v>
+      </c>
+      <c r="E1853">
+        <v>1.567359823865635</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:5">
+      <c r="A1854" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1854">
+        <v>22</v>
+      </c>
+      <c r="E1854">
+        <v>1.043216178575849</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3711" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3745" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1854"/>
+  <dimension ref="A1:E1871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31809,7 +31809,7 @@
         <v>1</v>
       </c>
       <c r="E1842">
-        <v>0.1478277451981853</v>
+        <v>0.1478277451981852</v>
       </c>
     </row>
     <row r="1843" spans="1:5">
@@ -32014,6 +32014,295 @@
       </c>
       <c r="E1854">
         <v>1.043216178575849</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:5">
+      <c r="A1855" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1855">
+        <v>1820</v>
+      </c>
+      <c r="E1855">
+        <v>2.186524368621866</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:5">
+      <c r="A1856" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1856">
+        <v>64</v>
+      </c>
+      <c r="E1856">
+        <v>2.190276881798628</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:5">
+      <c r="A1857" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1857">
+        <v>79</v>
+      </c>
+      <c r="E1857">
+        <v>4.261206568730834</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:5">
+      <c r="A1858" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1858">
+        <v>188</v>
+      </c>
+      <c r="E1858">
+        <v>2.34208638287307</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:5">
+      <c r="A1859" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1859">
+        <v>4</v>
+      </c>
+      <c r="E1859">
+        <v>0.591310980792741</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:5">
+      <c r="A1860" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1860">
+        <v>415</v>
+      </c>
+      <c r="E1860">
+        <v>2.31525505937625</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:5">
+      <c r="A1861" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1861">
+        <v>164</v>
+      </c>
+      <c r="E1861">
+        <v>2.605235220174941</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:5">
+      <c r="A1862" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1862">
+        <v>85</v>
+      </c>
+      <c r="E1862">
+        <v>2.069896760855086</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:5">
+      <c r="A1863" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1863">
+        <v>162</v>
+      </c>
+      <c r="E1863">
+        <v>1.456226636326814</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:5">
+      <c r="A1864" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1864">
+        <v>274</v>
+      </c>
+      <c r="E1864">
+        <v>2.079382475010035</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:5">
+      <c r="A1865" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1865">
+        <v>37</v>
+      </c>
+      <c r="E1865">
+        <v>3.766486011067361</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:5">
+      <c r="A1866" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1866">
+        <v>125</v>
+      </c>
+      <c r="E1866">
+        <v>3.399074146587655</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:5">
+      <c r="A1867" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1867">
+        <v>55</v>
+      </c>
+      <c r="E1867">
+        <v>2.167173391208684</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:5">
+      <c r="A1868" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1868">
+        <v>44</v>
+      </c>
+      <c r="E1868">
+        <v>2.730951612502793</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:5">
+      <c r="A1869" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1869">
+        <v>66</v>
+      </c>
+      <c r="E1869">
+        <v>1.632450342591965</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:5">
+      <c r="A1870" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1870">
+        <v>33</v>
+      </c>
+      <c r="E1870">
+        <v>1.521261005516646</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:5">
+      <c r="A1871" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1871">
+        <v>25</v>
+      </c>
+      <c r="E1871">
+        <v>1.185472930199828</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3745" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1871"/>
+  <dimension ref="A1:E1888"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32305,6 +32305,295 @@
         <v>1.185472930199828</v>
       </c>
     </row>
+    <row r="1872" spans="1:5">
+      <c r="A1872" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1872">
+        <v>1782</v>
+      </c>
+      <c r="E1872">
+        <v>2.140871662024267</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:5">
+      <c r="A1873" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1873">
+        <v>62</v>
+      </c>
+      <c r="E1873">
+        <v>2.121830729242421</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:5">
+      <c r="A1874" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1874">
+        <v>79</v>
+      </c>
+      <c r="E1874">
+        <v>4.261206568730834</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:5">
+      <c r="A1875" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1875">
+        <v>176</v>
+      </c>
+      <c r="E1875">
+        <v>2.192591507370533</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:5">
+      <c r="A1876" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1876">
+        <v>4</v>
+      </c>
+      <c r="E1876">
+        <v>0.591310980792741</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:5">
+      <c r="A1877" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1877">
+        <v>406</v>
+      </c>
+      <c r="E1877">
+        <v>2.265044708690982</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:5">
+      <c r="A1878" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1878">
+        <v>159</v>
+      </c>
+      <c r="E1878">
+        <v>2.525807317120827</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:5">
+      <c r="A1879" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1879">
+        <v>85</v>
+      </c>
+      <c r="E1879">
+        <v>2.069896760855086</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:5">
+      <c r="A1880" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1880">
+        <v>162</v>
+      </c>
+      <c r="E1880">
+        <v>1.456226636326814</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:5">
+      <c r="A1881" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1881">
+        <v>268</v>
+      </c>
+      <c r="E1881">
+        <v>2.033848552199596</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:5">
+      <c r="A1882" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1882">
+        <v>37</v>
+      </c>
+      <c r="E1882">
+        <v>3.766486011067361</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:5">
+      <c r="A1883" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1883">
+        <v>125</v>
+      </c>
+      <c r="E1883">
+        <v>3.399074146587655</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:5">
+      <c r="A1884" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1884">
+        <v>54</v>
+      </c>
+      <c r="E1884">
+        <v>2.127770238641253</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:5">
+      <c r="A1885" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1885">
+        <v>43</v>
+      </c>
+      <c r="E1885">
+        <v>2.668884530400457</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:5">
+      <c r="A1886" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1886">
+        <v>64</v>
+      </c>
+      <c r="E1886">
+        <v>1.582982150392209</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:5">
+      <c r="A1887" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1887">
+        <v>33</v>
+      </c>
+      <c r="E1887">
+        <v>1.521261005516646</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:5">
+      <c r="A1888" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1888">
+        <v>25</v>
+      </c>
+      <c r="E1888">
+        <v>1.185472930199828</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1888"/>
+  <dimension ref="A1:E1905"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32421,7 +32421,7 @@
         <v>159</v>
       </c>
       <c r="E1878">
-        <v>2.525807317120827</v>
+        <v>2.525807317120828</v>
       </c>
     </row>
     <row r="1879" spans="1:5">
@@ -32592,6 +32592,295 @@
       </c>
       <c r="E1888">
         <v>1.185472930199828</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:5">
+      <c r="A1889" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1889">
+        <v>1750</v>
+      </c>
+      <c r="E1889">
+        <v>2.102427277521025</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:5">
+      <c r="A1890" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1890">
+        <v>61</v>
+      </c>
+      <c r="E1890">
+        <v>2.087607652964317</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:5">
+      <c r="A1891" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1891">
+        <v>77</v>
+      </c>
+      <c r="E1891">
+        <v>4.153327921421194</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:5">
+      <c r="A1892" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1892">
+        <v>165</v>
+      </c>
+      <c r="E1892">
+        <v>2.055554538159875</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:5">
+      <c r="A1893" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1893">
+        <v>4</v>
+      </c>
+      <c r="E1893">
+        <v>0.591310980792741</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:5">
+      <c r="A1894" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1894">
+        <v>400</v>
+      </c>
+      <c r="E1894">
+        <v>2.23157114156747</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:5">
+      <c r="A1895" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1895">
+        <v>157</v>
+      </c>
+      <c r="E1895">
+        <v>2.494036155899181</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:5">
+      <c r="A1896" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1896">
+        <v>85</v>
+      </c>
+      <c r="E1896">
+        <v>2.069896760855086</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:5">
+      <c r="A1897" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1897">
+        <v>160</v>
+      </c>
+      <c r="E1897">
+        <v>1.438248529705495</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:5">
+      <c r="A1898" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1898">
+        <v>266</v>
+      </c>
+      <c r="E1898">
+        <v>2.01867057792945</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:5">
+      <c r="A1899" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1899">
+        <v>37</v>
+      </c>
+      <c r="E1899">
+        <v>3.766486011067361</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:5">
+      <c r="A1900" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1900">
+        <v>121</v>
+      </c>
+      <c r="E1900">
+        <v>3.290303773896851</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:5">
+      <c r="A1901" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1901">
+        <v>54</v>
+      </c>
+      <c r="E1901">
+        <v>2.127770238641253</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:5">
+      <c r="A1902" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1902">
+        <v>43</v>
+      </c>
+      <c r="E1902">
+        <v>2.668884530400457</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:5">
+      <c r="A1903" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1903">
+        <v>63</v>
+      </c>
+      <c r="E1903">
+        <v>1.55824805429233</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:5">
+      <c r="A1904" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1904">
+        <v>33</v>
+      </c>
+      <c r="E1904">
+        <v>1.521261005516646</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:5">
+      <c r="A1905" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1905">
+        <v>24</v>
+      </c>
+      <c r="E1905">
+        <v>1.138054012991835</v>
       </c>
     </row>
   </sheetData>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3813" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1905"/>
+  <dimension ref="A1:E1922"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32883,6 +32883,295 @@
         <v>1.138054012991835</v>
       </c>
     </row>
+    <row r="1906" spans="1:5">
+      <c r="A1906" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1906">
+        <v>1762</v>
+      </c>
+      <c r="E1906">
+        <v>2.116843921709741</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:5">
+      <c r="A1907" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1907">
+        <v>70</v>
+      </c>
+      <c r="E1907">
+        <v>2.395615339467249</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:5">
+      <c r="A1908" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1908">
+        <v>52</v>
+      </c>
+      <c r="E1908">
+        <v>2.804844830050676</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:5">
+      <c r="A1909" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1909">
+        <v>170</v>
+      </c>
+      <c r="E1909">
+        <v>2.117844069619265</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:5">
+      <c r="A1910" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1910">
+        <v>4</v>
+      </c>
+      <c r="E1910">
+        <v>0.591310980792741</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:5">
+      <c r="A1911" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1911">
+        <v>466</v>
+      </c>
+      <c r="E1911">
+        <v>2.599780379926103</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:5">
+      <c r="A1912" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1912">
+        <v>157</v>
+      </c>
+      <c r="E1912">
+        <v>2.494036155899181</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:5">
+      <c r="A1913" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1913">
+        <v>86</v>
+      </c>
+      <c r="E1913">
+        <v>2.094248487453382</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:5">
+      <c r="A1914" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1914">
+        <v>144</v>
+      </c>
+      <c r="E1914">
+        <v>1.294423676734946</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:5">
+      <c r="A1915" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1915">
+        <v>253</v>
+      </c>
+      <c r="E1915">
+        <v>1.920013745173499</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:5">
+      <c r="A1916" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1916">
+        <v>24</v>
+      </c>
+      <c r="E1916">
+        <v>2.443126061232883</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:5">
+      <c r="A1917" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1917">
+        <v>123</v>
+      </c>
+      <c r="E1917">
+        <v>3.344688960242253</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:5">
+      <c r="A1918" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1918">
+        <v>53</v>
+      </c>
+      <c r="E1918">
+        <v>2.088367086073823</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:5">
+      <c r="A1919" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1919">
+        <v>35</v>
+      </c>
+      <c r="E1919">
+        <v>2.172347873581767</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:5">
+      <c r="A1920" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1920">
+        <v>67</v>
+      </c>
+      <c r="E1920">
+        <v>1.657184438691843</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:5">
+      <c r="A1921" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1921">
+        <v>35</v>
+      </c>
+      <c r="E1921">
+        <v>1.613458642214624</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:5">
+      <c r="A1922" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1922">
+        <v>23</v>
+      </c>
+      <c r="E1922">
+        <v>1.090635095783842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3847" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1922"/>
+  <dimension ref="A1:E1939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33172,6 +33172,295 @@
         <v>1.090635095783842</v>
       </c>
     </row>
+    <row r="1923" spans="1:5">
+      <c r="A1923" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1923">
+        <v>1858</v>
+      </c>
+      <c r="E1923">
+        <v>2.232177075219466</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:5">
+      <c r="A1924" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1924">
+        <v>79</v>
+      </c>
+      <c r="E1924">
+        <v>2.703623025970181</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:5">
+      <c r="A1925" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1925">
+        <v>49</v>
+      </c>
+      <c r="E1925">
+        <v>2.643026859086214</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:5">
+      <c r="A1926" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1926">
+        <v>156</v>
+      </c>
+      <c r="E1926">
+        <v>1.943433381532973</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:5">
+      <c r="A1927" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1927">
+        <v>3</v>
+      </c>
+      <c r="E1927">
+        <v>0.4434832355945558</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:5">
+      <c r="A1928" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1928">
+        <v>518</v>
+      </c>
+      <c r="E1928">
+        <v>2.889884628329874</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:5">
+      <c r="A1929" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1929">
+        <v>184</v>
+      </c>
+      <c r="E1929">
+        <v>2.922946832391398</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:5">
+      <c r="A1930" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1930">
+        <v>74</v>
+      </c>
+      <c r="E1930">
+        <v>1.80202776827384</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:5">
+      <c r="A1931" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1931">
+        <v>165</v>
+      </c>
+      <c r="E1931">
+        <v>1.483193796258792</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:5">
+      <c r="A1932" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1932">
+        <v>275</v>
+      </c>
+      <c r="E1932">
+        <v>2.086971462145108</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:5">
+      <c r="A1933" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1933">
+        <v>21</v>
+      </c>
+      <c r="E1933">
+        <v>2.137735303578773</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:5">
+      <c r="A1934" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1934">
+        <v>115</v>
+      </c>
+      <c r="E1934">
+        <v>3.127148214860643</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:5">
+      <c r="A1935" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1935">
+        <v>44</v>
+      </c>
+      <c r="E1935">
+        <v>1.733738712966947</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:5">
+      <c r="A1936" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1936">
+        <v>28</v>
+      </c>
+      <c r="E1936">
+        <v>1.737878298865414</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:5">
+      <c r="A1937" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1937">
+        <v>81</v>
+      </c>
+      <c r="E1937">
+        <v>2.003461784090139</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:5">
+      <c r="A1938" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1938">
+        <v>36</v>
+      </c>
+      <c r="E1938">
+        <v>1.659557460563613</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:5">
+      <c r="A1939" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1939">
+        <v>30</v>
+      </c>
+      <c r="E1939">
+        <v>1.422567516239794</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataStore/frozen-incidence/BL.xlsx
+++ b/dataStore/frozen-incidence/BL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3881" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3915" uniqueCount="39">
   <si>
     <t>Datenstand</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1939"/>
+  <dimension ref="A1:E1956"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33458,7 +33458,296 @@
         <v>30</v>
       </c>
       <c r="E1939">
-        <v>1.422567516239794</v>
+        <v>1.422567516239793</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:5">
+      <c r="A1940" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1940">
+        <v>1934</v>
+      </c>
+      <c r="E1940">
+        <v>2.323482488414665</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:5">
+      <c r="A1941" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1941">
+        <v>91</v>
+      </c>
+      <c r="E1941">
+        <v>3.114299941307424</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:5">
+      <c r="A1942" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1942">
+        <v>67</v>
+      </c>
+      <c r="E1942">
+        <v>3.613934684872987</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:5">
+      <c r="A1943" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1943">
+        <v>186</v>
+      </c>
+      <c r="E1943">
+        <v>2.317170570289314</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:5">
+      <c r="A1944" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1944">
+        <v>8</v>
+      </c>
+      <c r="E1944">
+        <v>1.182621961585482</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:5">
+      <c r="A1945" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1945">
+        <v>514</v>
+      </c>
+      <c r="E1945">
+        <v>2.867568916914199</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:5">
+      <c r="A1946" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1946">
+        <v>184</v>
+      </c>
+      <c r="E1946">
+        <v>2.922946832391398</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:5">
+      <c r="A1947" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1947">
+        <v>69</v>
+      </c>
+      <c r="E1947">
+        <v>1.680269135282364</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:5">
+      <c r="A1948" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1948">
+        <v>173</v>
+      </c>
+      <c r="E1948">
+        <v>1.555106222744067</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:5">
+      <c r="A1949" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1949">
+        <v>283</v>
+      </c>
+      <c r="E1949">
+        <v>2.147683359225693</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:5">
+      <c r="A1950" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1950">
+        <v>21</v>
+      </c>
+      <c r="E1950">
+        <v>2.137735303578773</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:5">
+      <c r="A1951" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1951">
+        <v>105</v>
+      </c>
+      <c r="E1951">
+        <v>2.855222283133631</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:5">
+      <c r="A1952" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1952">
+        <v>44</v>
+      </c>
+      <c r="E1952">
+        <v>1.733738712966947</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:5">
+      <c r="A1953" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1953">
+        <v>24</v>
+      </c>
+      <c r="E1953">
+        <v>1.489609970456069</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:5">
+      <c r="A1954" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1954">
+        <v>84</v>
+      </c>
+      <c r="E1954">
+        <v>2.077664072389774</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:5">
+      <c r="A1955" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1955" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1955">
+        <v>43</v>
+      </c>
+      <c r="E1955">
+        <v>1.982249189006538</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:5">
+      <c r="A1956" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B1956" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1956">
+        <v>38</v>
+      </c>
+      <c r="E1956">
+        <v>1.801918853903739</v>
       </c>
     </row>
   </sheetData>
